--- a/assets/tools/_unit-calculations.xlsx
+++ b/assets/tools/_unit-calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="px as pt" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>css-pixels-per-point</t>
   </si>
@@ -353,10 +353,19 @@
     <t>inherit line-height value from @media (min-width: 64em)</t>
   </si>
   <si>
-    <t>inherit line-height value from @media (min-width: 76em)</t>
+    <t>font-size adjust in ems</t>
   </si>
   <si>
-    <t>font-size adjust in ems</t>
+    <t>&lt;&lt;&lt;---  ABSOLUTE VALUES at all sizes  ---&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;---  font-size adjust [+/-] ~0.39 point  ---&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>media min-width px</t>
+  </si>
+  <si>
+    <t>baseline in points</t>
   </si>
 </sst>
 </file>
@@ -707,7 +716,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -777,8 +786,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1077,50 +1094,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,7 +1115,7 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,14 +1127,92 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1224,6 +1280,14 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5986,12 +6050,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:W468"/>
+  <dimension ref="C3:W446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
-      <pane xSplit="7080" topLeftCell="O1"/>
-      <selection activeCell="I52" sqref="I52"/>
-      <selection pane="topRight" activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6580" ySplit="3480" topLeftCell="J18" activePane="bottomRight"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -6003,43 +6069,45 @@
     <col min="7" max="7" width="8.375" style="19" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="19" customWidth="1"/>
     <col min="9" max="9" width="13" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="19" customWidth="1"/>
     <col min="12" max="16" width="13" style="19" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="19" customWidth="1"/>
     <col min="18" max="19" width="4.25" style="19" customWidth="1"/>
     <col min="20" max="16384" width="10.625" style="19"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:23" hidden="1"/>
-    <row r="4" spans="4:23">
+    <row r="3" spans="3:23" hidden="1"/>
+    <row r="4" spans="3:23">
       <c r="G4" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="4:23" ht="85" customHeight="1" thickBot="1">
+    <row r="6" spans="3:23" ht="85" customHeight="1" thickBot="1">
       <c r="G6" s="23" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="120" t="s">
+      <c r="L6" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="N6"/>
+      <c r="N6" s="68" t="s">
+        <v>113</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -6054,14 +6122,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="4:23" ht="40" customHeight="1">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+    <row r="7" spans="3:23" ht="40" customHeight="1">
+      <c r="D7" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>111</v>
+      </c>
       <c r="F7" s="60"/>
-      <c r="G7" s="69">
+      <c r="G7" s="136">
         <v>7</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="113">
         <f t="shared" ref="H7:H20" si="0">G7/12</f>
         <v>0.58333333333333337</v>
       </c>
@@ -6069,24 +6141,27 @@
         <f t="shared" ref="I7:I20" si="1">I8/$U$10</f>
         <v>5.656854249492385</v>
       </c>
-      <c r="J7" s="72">
-        <f t="shared" ref="J7:J18" si="2">I7</f>
+      <c r="J7" s="71">
+        <f t="shared" ref="J7:J32" si="2">I7*ROUND(16,0)</f>
+        <v>90.50966799187816</v>
+      </c>
+      <c r="K7" s="72">
+        <f t="shared" ref="K7:K32" si="3">I7</f>
         <v>5.656854249492385</v>
       </c>
-      <c r="K7" s="72">
-        <f t="shared" ref="K7:K18" si="3">I7</f>
+      <c r="L7" s="114">
+        <f t="shared" ref="L7:L32" si="4">I7</f>
         <v>5.656854249492385</v>
       </c>
-      <c r="L7" s="73">
-        <f t="shared" ref="L7:L18" si="4">I7</f>
-        <v>5.656854249492385</v>
-      </c>
-      <c r="M7" s="115">
+      <c r="M7" s="70">
         <v>0</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
+      <c r="N7" s="115">
+        <f>M7+G7</f>
+        <v>7</v>
+      </c>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="59"/>
       <c r="R7" s="59"/>
       <c r="T7" s="62" t="s">
@@ -6105,11 +6180,12 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="8" spans="4:23" ht="40" customHeight="1">
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+    <row r="8" spans="3:23" ht="40" customHeight="1">
+      <c r="C8" s="121"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="61"/>
-      <c r="G8" s="88">
+      <c r="G8" s="137">
         <f>G7+(6.3/16)</f>
         <v>7.3937499999999998</v>
       </c>
@@ -6121,25 +6197,28 @@
         <f t="shared" si="1"/>
         <v>6.7271713220297213</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="76">
         <f t="shared" si="2"/>
-        <v>6.7271713220297213</v>
-      </c>
-      <c r="K8" s="75">
+        <v>107.63474115247554</v>
+      </c>
+      <c r="K8" s="77">
         <f t="shared" si="3"/>
         <v>6.7271713220297213</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="116">
         <f t="shared" si="4"/>
         <v>6.7271713220297213</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="75">
         <f>4/16</f>
         <v>0.25</v>
       </c>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
+      <c r="N8" s="117">
+        <f>M8+G8</f>
+        <v>7.6437499999999998</v>
+      </c>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
       <c r="Q8" s="59"/>
       <c r="R8" s="59"/>
       <c r="T8" s="62" t="s">
@@ -6158,19 +6237,15 @@
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="9" spans="4:23" ht="40" customHeight="1">
-      <c r="D9" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>51</v>
-      </c>
+    <row r="9" spans="3:23" ht="40" customHeight="1">
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="61"/>
-      <c r="G9" s="88">
+      <c r="G9" s="137">
         <f>G8+(6.3/16)</f>
         <v>7.7874999999999996</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="112">
         <f t="shared" si="0"/>
         <v>0.6489583333333333</v>
       </c>
@@ -6178,25 +6253,28 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000053</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="76">
         <f t="shared" si="2"/>
-        <v>8.0000000000000053</v>
+        <v>128.00000000000009</v>
       </c>
       <c r="K9" s="77">
         <f t="shared" si="3"/>
         <v>8.0000000000000053</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="116">
         <f t="shared" si="4"/>
         <v>8.0000000000000053</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="75">
         <f>M8+4/16</f>
         <v>0.5</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
+      <c r="N9" s="117">
+        <f t="shared" ref="N9:N32" si="5">M9+G9</f>
+        <v>8.2874999999999996</v>
+      </c>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="59"/>
       <c r="R9" s="59"/>
       <c r="T9" s="23"/>
@@ -6204,12 +6282,12 @@
       <c r="V9" s="42"/>
       <c r="W9" s="43"/>
     </row>
-    <row r="10" spans="4:23" ht="40" customHeight="1">
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
+    <row r="10" spans="3:23" ht="40" customHeight="1">
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="61"/>
-      <c r="G10" s="88">
-        <f t="shared" ref="G10:G53" si="5">G9+(6.3/16)</f>
+      <c r="G10" s="137">
+        <f t="shared" ref="G10:G32" si="6">G9+(6.3/16)</f>
         <v>8.1812500000000004</v>
       </c>
       <c r="H10" s="75">
@@ -6220,25 +6298,28 @@
         <f t="shared" si="1"/>
         <v>9.5136569200217735</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="76">
         <f t="shared" si="2"/>
-        <v>9.5136569200217735</v>
-      </c>
-      <c r="K10" s="75">
+        <v>152.21851072034838</v>
+      </c>
+      <c r="K10" s="77">
         <f t="shared" si="3"/>
         <v>9.5136569200217735</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="116">
         <f t="shared" si="4"/>
         <v>9.5136569200217735</v>
       </c>
-      <c r="M10" s="115">
+      <c r="M10" s="75">
         <f>M9+4/16</f>
         <v>0.75</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
+      <c r="N10" s="117">
+        <f t="shared" si="5"/>
+        <v>8.9312500000000004</v>
+      </c>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
       <c r="Q10" s="59"/>
       <c r="R10" s="59"/>
       <c r="T10" s="23" t="s">
@@ -6257,15 +6338,15 @@
         <v>1.189207115002721</v>
       </c>
     </row>
-    <row r="11" spans="4:23" ht="40" customHeight="1" thickBot="1">
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+    <row r="11" spans="3:23" ht="40" customHeight="1" thickBot="1">
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="61"/>
-      <c r="G11" s="88">
-        <f t="shared" si="5"/>
+      <c r="G11" s="137">
+        <f t="shared" si="6"/>
         <v>8.5750000000000011</v>
       </c>
-      <c r="H11" s="125">
+      <c r="H11" s="112">
         <f t="shared" si="0"/>
         <v>0.71458333333333346</v>
       </c>
@@ -6273,25 +6354,28 @@
         <f t="shared" si="1"/>
         <v>11.313708498984766</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="76">
         <f t="shared" si="2"/>
-        <v>11.313708498984766</v>
+        <v>181.01933598375626</v>
       </c>
       <c r="K11" s="77">
         <f t="shared" si="3"/>
         <v>11.313708498984766</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="116">
         <f t="shared" si="4"/>
         <v>11.313708498984766</v>
       </c>
-      <c r="M11" s="115">
-        <f t="shared" ref="M11:M21" si="6">M10+4/16</f>
+      <c r="M11" s="75">
+        <f t="shared" ref="M11:M32" si="7">M10+4/16</f>
         <v>1</v>
       </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
+      <c r="N11" s="117">
+        <f t="shared" si="5"/>
+        <v>9.5750000000000011</v>
+      </c>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
       <c r="Q11" s="59"/>
       <c r="R11" s="59"/>
       <c r="T11" s="23" t="s">
@@ -6310,12 +6394,12 @@
         <v>1.0905077326652577</v>
       </c>
     </row>
-    <row r="12" spans="4:23" ht="40" customHeight="1">
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+    <row r="12" spans="3:23" ht="40" customHeight="1">
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="61"/>
-      <c r="G12" s="88">
-        <f t="shared" si="5"/>
+      <c r="G12" s="137">
+        <f t="shared" si="6"/>
         <v>8.9687500000000018</v>
       </c>
       <c r="H12" s="75">
@@ -6326,37 +6410,40 @@
         <f t="shared" si="1"/>
         <v>13.454342644059439</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="76">
         <f t="shared" si="2"/>
-        <v>13.454342644059439</v>
-      </c>
-      <c r="K12" s="75">
+        <v>215.26948230495103</v>
+      </c>
+      <c r="K12" s="77">
         <f t="shared" si="3"/>
         <v>13.454342644059439</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="116">
         <f t="shared" si="4"/>
         <v>13.454342644059439</v>
       </c>
-      <c r="M12" s="115">
-        <f t="shared" si="6"/>
+      <c r="M12" s="75">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
+      <c r="N12" s="117">
+        <f t="shared" si="5"/>
+        <v>10.218750000000002</v>
+      </c>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
-    <row r="13" spans="4:23" ht="40" customHeight="1">
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+    <row r="13" spans="3:23" ht="40" customHeight="1">
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="61"/>
-      <c r="G13" s="88">
-        <f t="shared" si="5"/>
+      <c r="G13" s="137">
+        <f t="shared" si="6"/>
         <v>9.3625000000000025</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="112">
         <f t="shared" si="0"/>
         <v>0.7802083333333335</v>
       </c>
@@ -6364,34 +6451,37 @@
         <f t="shared" si="1"/>
         <v>16.000000000000007</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="76">
         <f t="shared" si="2"/>
-        <v>16.000000000000007</v>
+        <v>256.00000000000011</v>
       </c>
       <c r="K13" s="77">
         <f t="shared" si="3"/>
         <v>16.000000000000007</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="116">
         <f t="shared" si="4"/>
         <v>16.000000000000007</v>
       </c>
-      <c r="M13" s="115">
-        <f t="shared" si="6"/>
+      <c r="M13" s="75">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="N13" s="117">
+        <f t="shared" si="5"/>
+        <v>10.862500000000002</v>
+      </c>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
     </row>
-    <row r="14" spans="4:23" ht="40" customHeight="1">
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+    <row r="14" spans="3:23" ht="40" customHeight="1">
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="61"/>
-      <c r="G14" s="88">
-        <f t="shared" si="5"/>
+      <c r="G14" s="137">
+        <f t="shared" si="6"/>
         <v>9.7562500000000032</v>
       </c>
       <c r="H14" s="75">
@@ -6402,37 +6492,40 @@
         <f t="shared" si="1"/>
         <v>19.027313840043544</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="76">
         <f t="shared" si="2"/>
-        <v>19.027313840043544</v>
-      </c>
-      <c r="K14" s="75">
+        <v>304.4370214406967</v>
+      </c>
+      <c r="K14" s="77">
         <f t="shared" si="3"/>
         <v>19.027313840043544</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="116">
         <f t="shared" si="4"/>
         <v>19.027313840043544</v>
       </c>
-      <c r="M14" s="115">
-        <f t="shared" si="6"/>
+      <c r="M14" s="75">
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
+      <c r="N14" s="117">
+        <f t="shared" si="5"/>
+        <v>11.506250000000003</v>
+      </c>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
-    <row r="15" spans="4:23" ht="40" customHeight="1">
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
+    <row r="15" spans="3:23" ht="40" customHeight="1">
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="61"/>
-      <c r="G15" s="88">
-        <f t="shared" si="5"/>
+      <c r="G15" s="137">
+        <f t="shared" si="6"/>
         <v>10.150000000000004</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="112">
         <f t="shared" si="0"/>
         <v>0.84583333333333366</v>
       </c>
@@ -6440,34 +6533,37 @@
         <f t="shared" si="1"/>
         <v>22.627416997969526</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="76">
         <f t="shared" si="2"/>
-        <v>22.627416997969526</v>
+        <v>362.03867196751241</v>
       </c>
       <c r="K15" s="77">
         <f t="shared" si="3"/>
         <v>22.627416997969526</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="116">
         <f t="shared" si="4"/>
         <v>22.627416997969526</v>
       </c>
-      <c r="M15" s="115">
-        <f t="shared" si="6"/>
+      <c r="M15" s="75">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
+      <c r="N15" s="117">
+        <f t="shared" si="5"/>
+        <v>12.150000000000004</v>
+      </c>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
     </row>
-    <row r="16" spans="4:23" ht="40" customHeight="1">
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+    <row r="16" spans="3:23" ht="40" customHeight="1">
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="61"/>
-      <c r="G16" s="88">
-        <f t="shared" si="5"/>
+      <c r="G16" s="137">
+        <f t="shared" si="6"/>
         <v>10.543750000000005</v>
       </c>
       <c r="H16" s="75">
@@ -6478,37 +6574,40 @@
         <f t="shared" si="1"/>
         <v>26.908685288118871</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="76">
         <f t="shared" si="2"/>
-        <v>26.908685288118871</v>
-      </c>
-      <c r="K16" s="75">
+        <v>430.53896460990194</v>
+      </c>
+      <c r="K16" s="77">
         <f t="shared" si="3"/>
         <v>26.908685288118871</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="116">
         <f t="shared" si="4"/>
         <v>26.908685288118871</v>
       </c>
-      <c r="M16" s="115">
-        <f t="shared" si="6"/>
+      <c r="M16" s="75">
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
+      <c r="N16" s="117">
+        <f t="shared" si="5"/>
+        <v>12.793750000000005</v>
+      </c>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
     </row>
     <row r="17" spans="4:21" ht="40" customHeight="1">
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="61"/>
-      <c r="G17" s="88">
-        <f t="shared" si="5"/>
+      <c r="G17" s="137">
+        <f t="shared" si="6"/>
         <v>10.937500000000005</v>
       </c>
-      <c r="H17" s="125">
+      <c r="H17" s="112">
         <f t="shared" si="0"/>
         <v>0.91145833333333381</v>
       </c>
@@ -6516,34 +6615,37 @@
         <f t="shared" si="1"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="76">
         <f t="shared" si="2"/>
-        <v>32.000000000000007</v>
+        <v>512.00000000000011</v>
       </c>
       <c r="K17" s="77">
         <f t="shared" si="3"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="L17" s="78">
+      <c r="L17" s="116">
         <f t="shared" si="4"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="M17" s="115">
-        <f t="shared" si="6"/>
+      <c r="M17" s="75">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
+      <c r="N17" s="117">
+        <f t="shared" si="5"/>
+        <v>13.437500000000005</v>
+      </c>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
     <row r="18" spans="4:21" ht="40" customHeight="1">
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="61"/>
-      <c r="G18" s="88">
-        <f t="shared" si="5"/>
+      <c r="G18" s="137">
+        <f t="shared" si="6"/>
         <v>11.331250000000006</v>
       </c>
       <c r="H18" s="75">
@@ -6554,37 +6656,40 @@
         <f t="shared" si="1"/>
         <v>38.05462768008708</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="76">
         <f t="shared" si="2"/>
-        <v>38.05462768008708</v>
-      </c>
-      <c r="K18" s="75">
+        <v>608.87404288139328</v>
+      </c>
+      <c r="K18" s="77">
         <f t="shared" si="3"/>
         <v>38.05462768008708</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="116">
         <f t="shared" si="4"/>
         <v>38.05462768008708</v>
       </c>
-      <c r="M18" s="115">
-        <f t="shared" si="6"/>
+      <c r="M18" s="75">
+        <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
+      <c r="N18" s="117">
+        <f t="shared" si="5"/>
+        <v>14.081250000000006</v>
+      </c>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
     </row>
     <row r="19" spans="4:21" ht="40" customHeight="1">
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="61"/>
-      <c r="G19" s="88">
-        <f t="shared" si="5"/>
+      <c r="G19" s="137">
+        <f t="shared" si="6"/>
         <v>11.725000000000007</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="112">
         <f t="shared" si="0"/>
         <v>0.97708333333333386</v>
       </c>
@@ -6592,25 +6697,28 @@
         <f t="shared" si="1"/>
         <v>45.254833995939045</v>
       </c>
-      <c r="J19" s="77">
-        <f>I19</f>
+      <c r="J19" s="76">
+        <f t="shared" si="2"/>
+        <v>724.07734393502471</v>
+      </c>
+      <c r="K19" s="77">
+        <f t="shared" si="3"/>
         <v>45.254833995939045</v>
       </c>
-      <c r="K19" s="77">
-        <f>I19</f>
+      <c r="L19" s="116">
+        <f t="shared" si="4"/>
         <v>45.254833995939045</v>
       </c>
-      <c r="L19" s="78">
-        <f t="shared" ref="L19:L45" si="7">I19</f>
-        <v>45.254833995939045</v>
-      </c>
-      <c r="M19" s="115">
-        <f t="shared" si="6"/>
+      <c r="M19" s="75">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
+      <c r="N19" s="117">
+        <f t="shared" si="5"/>
+        <v>14.725000000000007</v>
+      </c>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
       <c r="S19" s="20"/>
@@ -6618,11 +6726,11 @@
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="4:21" ht="40" customHeight="1">
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="61"/>
-      <c r="G20" s="88">
-        <f t="shared" si="5"/>
+      <c r="G20" s="137">
+        <f t="shared" si="6"/>
         <v>12.118750000000007</v>
       </c>
       <c r="H20" s="75">
@@ -6633,25 +6741,28 @@
         <f t="shared" si="1"/>
         <v>53.817370576237735</v>
       </c>
-      <c r="J20" s="77">
-        <f>I20</f>
+      <c r="J20" s="76">
+        <f t="shared" si="2"/>
+        <v>861.07792921980376</v>
+      </c>
+      <c r="K20" s="77">
+        <f t="shared" si="3"/>
         <v>53.817370576237735</v>
       </c>
-      <c r="K20" s="75">
-        <f>I20</f>
+      <c r="L20" s="116">
+        <f t="shared" si="4"/>
         <v>53.817370576237735</v>
       </c>
-      <c r="L20" s="78">
+      <c r="M20" s="75">
         <f t="shared" si="7"/>
-        <v>53.817370576237735</v>
-      </c>
-      <c r="M20" s="115">
-        <f t="shared" si="6"/>
         <v>3.25</v>
       </c>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
+      <c r="N20" s="117">
+        <f t="shared" si="5"/>
+        <v>15.368750000000007</v>
+      </c>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
       <c r="S20" s="20"/>
@@ -6659,37 +6770,40 @@
       <c r="U20" s="22"/>
     </row>
     <row r="21" spans="4:21" ht="40" customHeight="1">
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
       <c r="F21" s="61"/>
-      <c r="G21" s="122">
-        <f t="shared" si="5"/>
+      <c r="G21" s="138">
+        <f t="shared" si="6"/>
         <v>12.512500000000008</v>
       </c>
-      <c r="H21" s="125">
+      <c r="H21" s="112">
         <f>G21/12</f>
         <v>1.042708333333334</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="110">
         <v>64</v>
       </c>
-      <c r="J21" s="124">
-        <f>I21</f>
+      <c r="J21" s="76">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="K21" s="111">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="K21" s="125">
-        <f>$I$21</f>
+      <c r="L21" s="118">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="L21" s="126">
+      <c r="M21" s="75">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="M21" s="115">
-        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="N21"/>
+      <c r="N21" s="117">
+        <f t="shared" si="5"/>
+        <v>16.01250000000001</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
@@ -6699,11 +6813,11 @@
       <c r="U21" s="22"/>
     </row>
     <row r="22" spans="4:21" ht="42" customHeight="1">
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="100"/>
-      <c r="G22" s="88">
-        <f t="shared" si="5"/>
+      <c r="G22" s="137">
+        <f t="shared" si="6"/>
         <v>12.906250000000009</v>
       </c>
       <c r="H22" s="75">
@@ -6711,28 +6825,31 @@
         <v>1.0755208333333341</v>
       </c>
       <c r="I22" s="76">
-        <f t="shared" ref="I22:I45" si="8">I21*$U$11</f>
+        <f t="shared" ref="I22:I32" si="8">I21*$U$11</f>
         <v>69.792494890576492</v>
       </c>
-      <c r="J22" s="77">
-        <f t="shared" ref="J22:K45" si="9">I22</f>
+      <c r="J22" s="76">
+        <f t="shared" si="2"/>
+        <v>1116.6799182492239</v>
+      </c>
+      <c r="K22" s="77">
+        <f t="shared" si="3"/>
         <v>69.792494890576492</v>
       </c>
-      <c r="K22" s="75">
-        <f t="shared" si="9"/>
+      <c r="L22" s="116">
+        <f t="shared" si="4"/>
         <v>69.792494890576492</v>
       </c>
-      <c r="L22" s="78">
-        <f t="shared" si="7"/>
-        <v>69.792494890576492</v>
-      </c>
-      <c r="M22" s="115">
+      <c r="M22" s="75">
         <f>M21+4/16</f>
         <v>3.75</v>
       </c>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
+      <c r="N22" s="117">
+        <f t="shared" si="5"/>
+        <v>16.656250000000007</v>
+      </c>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
       <c r="S22" s="20"/>
@@ -6740,14 +6857,14 @@
       <c r="U22" s="22"/>
     </row>
     <row r="23" spans="4:21" ht="40" customHeight="1">
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="101"/>
-      <c r="G23" s="122">
-        <f t="shared" si="5"/>
+      <c r="G23" s="139">
+        <f t="shared" si="6"/>
         <v>13.30000000000001</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="108">
         <f>G23/12</f>
         <v>1.1083333333333341</v>
       </c>
@@ -6755,24 +6872,28 @@
         <f t="shared" si="8"/>
         <v>76.109255360174146</v>
       </c>
-      <c r="J23" s="82">
-        <f t="shared" si="9"/>
+      <c r="J23" s="109">
+        <f t="shared" si="2"/>
+        <v>1217.7480857627863</v>
+      </c>
+      <c r="K23" s="82">
+        <f t="shared" si="3"/>
         <v>76.109255360174146</v>
       </c>
-      <c r="K23" s="80">
-        <f t="shared" si="9"/>
+      <c r="L23" s="119">
+        <f t="shared" si="4"/>
         <v>76.109255360174146</v>
       </c>
-      <c r="L23" s="83">
+      <c r="M23" s="108">
         <f t="shared" si="7"/>
-        <v>76.109255360174146</v>
-      </c>
-      <c r="M23" s="116">
         <v>4</v>
       </c>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
+      <c r="N23" s="135">
+        <f t="shared" si="5"/>
+        <v>17.300000000000011</v>
+      </c>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
       <c r="S23" s="20"/>
@@ -6780,15 +6901,11 @@
       <c r="U23" s="22"/>
     </row>
     <row r="24" spans="4:21" ht="40" customHeight="1">
-      <c r="D24" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>55</v>
-      </c>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="101"/>
-      <c r="G24" s="88">
-        <f t="shared" si="5"/>
+      <c r="G24" s="137">
+        <f t="shared" si="6"/>
         <v>13.69375000000001</v>
       </c>
       <c r="H24" s="75">
@@ -6799,24 +6916,28 @@
         <f t="shared" si="8"/>
         <v>82.997731497664617</v>
       </c>
-      <c r="J24" s="77">
-        <f t="shared" si="9"/>
+      <c r="J24" s="76">
+        <f t="shared" si="2"/>
+        <v>1327.9637039626339</v>
+      </c>
+      <c r="K24" s="77">
+        <f t="shared" si="3"/>
         <v>82.997731497664617</v>
       </c>
-      <c r="K24" s="75">
-        <f t="shared" si="9"/>
+      <c r="L24" s="116">
+        <f t="shared" si="4"/>
         <v>82.997731497664617</v>
       </c>
-      <c r="L24" s="78">
+      <c r="M24" s="75">
         <f t="shared" si="7"/>
-        <v>82.997731497664617</v>
-      </c>
-      <c r="M24" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
+        <v>4.25</v>
+      </c>
+      <c r="N24" s="117">
+        <f t="shared" si="5"/>
+        <v>17.943750000000009</v>
+      </c>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
       <c r="S24" s="20"/>
@@ -6824,11 +6945,11 @@
       <c r="U24" s="22"/>
     </row>
     <row r="25" spans="4:21" ht="40" customHeight="1">
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="101"/>
-      <c r="G25" s="122">
-        <f t="shared" si="5"/>
+      <c r="G25" s="138">
+        <f t="shared" si="6"/>
         <v>14.087500000000011</v>
       </c>
       <c r="H25" s="75">
@@ -6839,24 +6960,28 @@
         <f t="shared" si="8"/>
         <v>90.509667991878089</v>
       </c>
-      <c r="J25" s="77">
-        <f t="shared" si="9"/>
+      <c r="J25" s="76">
+        <f t="shared" si="2"/>
+        <v>1448.1546878700494</v>
+      </c>
+      <c r="K25" s="77">
+        <f t="shared" si="3"/>
         <v>90.509667991878089</v>
       </c>
-      <c r="K25" s="75">
-        <f t="shared" si="9"/>
+      <c r="L25" s="116">
+        <f t="shared" si="4"/>
         <v>90.509667991878089</v>
       </c>
-      <c r="L25" s="78">
+      <c r="M25" s="75">
         <f t="shared" si="7"/>
-        <v>90.509667991878089</v>
-      </c>
-      <c r="M25" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
+        <v>4.5</v>
+      </c>
+      <c r="N25" s="117">
+        <f t="shared" si="5"/>
+        <v>18.587500000000013</v>
+      </c>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="59"/>
       <c r="S25" s="20"/>
@@ -6864,39 +6989,43 @@
       <c r="U25" s="22"/>
     </row>
     <row r="26" spans="4:21" ht="40" customHeight="1">
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="101"/>
-      <c r="G26" s="88">
-        <f t="shared" si="5"/>
+      <c r="G26" s="137">
+        <f t="shared" si="6"/>
         <v>14.481250000000012</v>
       </c>
       <c r="H26" s="75">
-        <f t="shared" ref="H26:H53" si="10">G26/12</f>
+        <f t="shared" ref="H26:H32" si="9">G26/12</f>
         <v>1.2067708333333342</v>
       </c>
       <c r="I26" s="76">
         <f t="shared" si="8"/>
         <v>98.701492826108222</v>
       </c>
-      <c r="J26" s="77">
-        <f t="shared" si="9"/>
+      <c r="J26" s="76">
+        <f t="shared" si="2"/>
+        <v>1579.2238852177315</v>
+      </c>
+      <c r="K26" s="77">
+        <f t="shared" si="3"/>
         <v>98.701492826108222</v>
       </c>
-      <c r="K26" s="75">
-        <f t="shared" si="9"/>
+      <c r="L26" s="116">
+        <f t="shared" si="4"/>
         <v>98.701492826108222</v>
       </c>
-      <c r="L26" s="78">
+      <c r="M26" s="75">
         <f t="shared" si="7"/>
-        <v>98.701492826108222</v>
-      </c>
-      <c r="M26" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
+        <v>4.75</v>
+      </c>
+      <c r="N26" s="117">
+        <f t="shared" si="5"/>
+        <v>19.23125000000001</v>
+      </c>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="59"/>
       <c r="S26" s="20"/>
@@ -6904,39 +7033,43 @@
       <c r="U26" s="22"/>
     </row>
     <row r="27" spans="4:21" ht="40" customHeight="1">
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="101"/>
-      <c r="G27" s="122">
-        <f t="shared" si="5"/>
+      <c r="G27" s="138">
+        <f t="shared" si="6"/>
         <v>14.875000000000012</v>
       </c>
       <c r="H27" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.2395833333333344</v>
       </c>
       <c r="I27" s="76">
         <f t="shared" si="8"/>
         <v>107.63474115247547</v>
       </c>
-      <c r="J27" s="77">
-        <f t="shared" si="9"/>
+      <c r="J27" s="76">
+        <f t="shared" si="2"/>
+        <v>1722.1558584396075</v>
+      </c>
+      <c r="K27" s="77">
+        <f t="shared" si="3"/>
         <v>107.63474115247547</v>
       </c>
-      <c r="K27" s="75">
-        <f t="shared" si="9"/>
+      <c r="L27" s="116">
+        <f t="shared" si="4"/>
         <v>107.63474115247547</v>
       </c>
-      <c r="L27" s="78">
+      <c r="M27" s="75">
         <f t="shared" si="7"/>
-        <v>107.63474115247547</v>
-      </c>
-      <c r="M27" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
+        <v>5</v>
+      </c>
+      <c r="N27" s="117">
+        <f t="shared" si="5"/>
+        <v>19.875000000000014</v>
+      </c>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="59"/>
       <c r="S27" s="20"/>
@@ -6944,1185 +7077,792 @@
       <c r="U27" s="22"/>
     </row>
     <row r="28" spans="4:21" ht="40" customHeight="1">
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="101"/>
-      <c r="G28" s="88">
-        <f t="shared" si="5"/>
+      <c r="G28" s="137">
+        <f t="shared" si="6"/>
         <v>15.268750000000013</v>
       </c>
       <c r="H28" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.2723958333333345</v>
       </c>
       <c r="I28" s="76">
         <f t="shared" si="8"/>
         <v>117.37651753019793</v>
       </c>
-      <c r="J28" s="77">
-        <f t="shared" si="9"/>
+      <c r="J28" s="76">
+        <f t="shared" si="2"/>
+        <v>1878.0242804831669</v>
+      </c>
+      <c r="K28" s="77">
+        <f t="shared" si="3"/>
         <v>117.37651753019793</v>
       </c>
-      <c r="K28" s="75">
-        <f t="shared" si="9"/>
+      <c r="L28" s="116">
+        <f t="shared" si="4"/>
         <v>117.37651753019793</v>
       </c>
-      <c r="L28" s="78">
+      <c r="M28" s="75">
         <f t="shared" si="7"/>
-        <v>117.37651753019793</v>
-      </c>
-      <c r="M28" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
+        <v>5.25</v>
+      </c>
+      <c r="N28" s="117">
+        <f t="shared" si="5"/>
+        <v>20.518750000000011</v>
+      </c>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="59"/>
     </row>
     <row r="29" spans="4:21" ht="40" customHeight="1">
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="101"/>
-      <c r="G29" s="122">
-        <f t="shared" si="5"/>
+      <c r="G29" s="138">
+        <f t="shared" si="6"/>
         <v>15.662500000000014</v>
       </c>
       <c r="H29" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.3052083333333344</v>
       </c>
       <c r="I29" s="76">
         <f t="shared" si="8"/>
         <v>128.00000000000003</v>
       </c>
-      <c r="J29" s="77">
-        <f t="shared" si="9"/>
+      <c r="J29" s="76">
+        <f t="shared" si="2"/>
+        <v>2048.0000000000005</v>
+      </c>
+      <c r="K29" s="77">
+        <f t="shared" si="3"/>
         <v>128.00000000000003</v>
       </c>
-      <c r="K29" s="75">
-        <f t="shared" si="9"/>
+      <c r="L29" s="116">
+        <f t="shared" si="4"/>
         <v>128.00000000000003</v>
       </c>
-      <c r="L29" s="78">
+      <c r="M29" s="75">
         <f t="shared" si="7"/>
-        <v>128.00000000000003</v>
-      </c>
-      <c r="M29" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
+        <v>5.5</v>
+      </c>
+      <c r="N29" s="117">
+        <f t="shared" si="5"/>
+        <v>21.162500000000016</v>
+      </c>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="59"/>
     </row>
     <row r="30" spans="4:21" ht="40" customHeight="1">
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="101"/>
-      <c r="G30" s="88"/>
+      <c r="G30" s="138">
+        <f t="shared" si="6"/>
+        <v>16.056250000000013</v>
+      </c>
       <c r="H30" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.3380208333333343</v>
       </c>
       <c r="I30" s="76">
         <f t="shared" si="8"/>
         <v>139.58498978115301</v>
       </c>
-      <c r="J30" s="77">
-        <f t="shared" si="9"/>
+      <c r="J30" s="76">
+        <f t="shared" si="2"/>
+        <v>2233.3598364984482</v>
+      </c>
+      <c r="K30" s="77">
+        <f t="shared" si="3"/>
         <v>139.58498978115301</v>
       </c>
-      <c r="K30" s="75">
-        <f t="shared" si="9"/>
+      <c r="L30" s="116">
+        <f t="shared" si="4"/>
         <v>139.58498978115301</v>
       </c>
-      <c r="L30" s="78">
+      <c r="M30" s="75">
         <f t="shared" si="7"/>
-        <v>139.58498978115301</v>
-      </c>
-      <c r="M30" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
+        <v>5.75</v>
+      </c>
+      <c r="N30" s="117">
+        <f t="shared" si="5"/>
+        <v>21.806250000000013</v>
+      </c>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="59"/>
     </row>
     <row r="31" spans="4:21" ht="40" customHeight="1">
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
       <c r="F31" s="101"/>
-      <c r="G31" s="88"/>
+      <c r="G31" s="137">
+        <f t="shared" si="6"/>
+        <v>16.450000000000014</v>
+      </c>
       <c r="H31" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.3708333333333345</v>
       </c>
       <c r="I31" s="76">
         <f t="shared" si="8"/>
         <v>152.21851072034835</v>
       </c>
-      <c r="J31" s="77">
-        <f t="shared" si="9"/>
+      <c r="J31" s="76">
+        <f t="shared" si="2"/>
+        <v>2435.4961715255736</v>
+      </c>
+      <c r="K31" s="77">
+        <f t="shared" si="3"/>
         <v>152.21851072034835</v>
       </c>
-      <c r="K31" s="75">
-        <f t="shared" si="9"/>
+      <c r="L31" s="116">
+        <f t="shared" si="4"/>
         <v>152.21851072034835</v>
       </c>
-      <c r="L31" s="78">
+      <c r="M31" s="75">
         <f t="shared" si="7"/>
-        <v>152.21851072034835</v>
-      </c>
-      <c r="M31" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
+        <v>6</v>
+      </c>
+      <c r="N31" s="117">
+        <f t="shared" si="5"/>
+        <v>22.450000000000014</v>
+      </c>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
       <c r="Q31" s="59"/>
       <c r="R31" s="59"/>
     </row>
-    <row r="32" spans="4:21" ht="40" customHeight="1">
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
+    <row r="32" spans="4:21" ht="40" customHeight="1" thickBot="1">
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
       <c r="F32" s="101"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="76">
+      <c r="G32" s="140">
+        <f t="shared" si="6"/>
+        <v>16.843750000000014</v>
+      </c>
+      <c r="H32" s="84">
+        <f t="shared" si="9"/>
+        <v>1.4036458333333346</v>
+      </c>
+      <c r="I32" s="85">
         <f t="shared" si="8"/>
         <v>165.99546299532929</v>
       </c>
-      <c r="J32" s="77">
-        <f t="shared" si="9"/>
+      <c r="J32" s="85">
+        <f t="shared" si="2"/>
+        <v>2655.9274079252687</v>
+      </c>
+      <c r="K32" s="86">
+        <f t="shared" si="3"/>
         <v>165.99546299532929</v>
       </c>
-      <c r="K32" s="75">
-        <f t="shared" si="9"/>
+      <c r="L32" s="120">
+        <f t="shared" si="4"/>
         <v>165.99546299532929</v>
       </c>
-      <c r="L32" s="78">
+      <c r="M32" s="84">
         <f t="shared" si="7"/>
-        <v>165.99546299532929</v>
-      </c>
-      <c r="M32" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
+        <v>6.25</v>
+      </c>
+      <c r="N32" s="134">
+        <f t="shared" si="5"/>
+        <v>23.093750000000014</v>
+      </c>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
     </row>
     <row r="33" spans="4:18" ht="40" customHeight="1">
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="76">
-        <f t="shared" si="8"/>
-        <v>181.01933598375624</v>
-      </c>
-      <c r="J33" s="77">
-        <f t="shared" si="9"/>
-        <v>181.01933598375624</v>
-      </c>
-      <c r="K33" s="75">
-        <f t="shared" si="9"/>
-        <v>181.01933598375624</v>
-      </c>
-      <c r="L33" s="78">
-        <f t="shared" si="7"/>
-        <v>181.01933598375624</v>
-      </c>
-      <c r="M33" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="59"/>
     </row>
     <row r="34" spans="4:18" ht="40" customHeight="1">
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="76">
-        <f t="shared" si="8"/>
-        <v>197.4029856522165</v>
-      </c>
-      <c r="J34" s="77">
-        <f t="shared" si="9"/>
-        <v>197.4029856522165</v>
-      </c>
-      <c r="K34" s="75">
-        <f t="shared" si="9"/>
-        <v>197.4029856522165</v>
-      </c>
-      <c r="L34" s="78">
-        <f t="shared" si="7"/>
-        <v>197.4029856522165</v>
-      </c>
-      <c r="M34" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59"/>
     </row>
     <row r="35" spans="4:18" ht="40" customHeight="1">
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="76">
-        <f t="shared" si="8"/>
-        <v>215.269482304951</v>
-      </c>
-      <c r="J35" s="77">
-        <f t="shared" si="9"/>
-        <v>215.269482304951</v>
-      </c>
-      <c r="K35" s="75">
-        <f t="shared" si="9"/>
-        <v>215.269482304951</v>
-      </c>
-      <c r="L35" s="78">
-        <f t="shared" si="7"/>
-        <v>215.269482304951</v>
-      </c>
-      <c r="M35" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="59"/>
       <c r="R35" s="59"/>
     </row>
     <row r="36" spans="4:18" ht="40" customHeight="1">
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="76">
-        <f t="shared" si="8"/>
-        <v>234.75303506039592</v>
-      </c>
-      <c r="J36" s="77">
-        <f t="shared" si="9"/>
-        <v>234.75303506039592</v>
-      </c>
-      <c r="K36" s="75">
-        <f t="shared" si="9"/>
-        <v>234.75303506039592</v>
-      </c>
-      <c r="L36" s="78">
-        <f t="shared" si="7"/>
-        <v>234.75303506039592</v>
-      </c>
-      <c r="M36" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
       <c r="Q36" s="59"/>
       <c r="R36" s="59"/>
     </row>
     <row r="37" spans="4:18" ht="40" customHeight="1">
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="76">
-        <f t="shared" si="8"/>
-        <v>256.00000000000011</v>
-      </c>
-      <c r="J37" s="77">
-        <f t="shared" si="9"/>
-        <v>256.00000000000011</v>
-      </c>
-      <c r="K37" s="75">
-        <f t="shared" si="9"/>
-        <v>256.00000000000011</v>
-      </c>
-      <c r="L37" s="78">
-        <f t="shared" si="7"/>
-        <v>256.00000000000011</v>
-      </c>
-      <c r="M37" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
     </row>
     <row r="38" spans="4:18" ht="40" customHeight="1">
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="76">
-        <f t="shared" si="8"/>
-        <v>279.16997956230608</v>
-      </c>
-      <c r="J38" s="77">
-        <f t="shared" si="9"/>
-        <v>279.16997956230608</v>
-      </c>
-      <c r="K38" s="75">
-        <f t="shared" si="9"/>
-        <v>279.16997956230608</v>
-      </c>
-      <c r="L38" s="78">
-        <f t="shared" si="7"/>
-        <v>279.16997956230608</v>
-      </c>
-      <c r="M38" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
       <c r="Q38" s="59"/>
       <c r="R38" s="59"/>
     </row>
     <row r="39" spans="4:18" ht="40" customHeight="1">
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="76">
-        <f t="shared" si="8"/>
-        <v>304.43702144069675</v>
-      </c>
-      <c r="J39" s="77">
-        <f t="shared" si="9"/>
-        <v>304.43702144069675</v>
-      </c>
-      <c r="K39" s="75">
-        <f t="shared" si="9"/>
-        <v>304.43702144069675</v>
-      </c>
-      <c r="L39" s="78">
-        <f t="shared" si="7"/>
-        <v>304.43702144069675</v>
-      </c>
-      <c r="M39" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
       <c r="Q39" s="59"/>
       <c r="R39" s="59"/>
     </row>
     <row r="40" spans="4:18" ht="40" customHeight="1">
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="76">
-        <f t="shared" si="8"/>
-        <v>331.99092599065864</v>
-      </c>
-      <c r="J40" s="77">
-        <f t="shared" si="9"/>
-        <v>331.99092599065864</v>
-      </c>
-      <c r="K40" s="75">
-        <f t="shared" si="9"/>
-        <v>331.99092599065864</v>
-      </c>
-      <c r="L40" s="78">
-        <f t="shared" si="7"/>
-        <v>331.99092599065864</v>
-      </c>
-      <c r="M40" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
       <c r="Q40" s="59"/>
       <c r="R40" s="59"/>
     </row>
     <row r="41" spans="4:18" ht="40" customHeight="1">
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="76">
-        <f t="shared" si="8"/>
-        <v>362.03867196751253</v>
-      </c>
-      <c r="J41" s="77">
-        <f t="shared" si="9"/>
-        <v>362.03867196751253</v>
-      </c>
-      <c r="K41" s="75">
-        <f t="shared" si="9"/>
-        <v>362.03867196751253</v>
-      </c>
-      <c r="L41" s="78">
-        <f t="shared" si="7"/>
-        <v>362.03867196751253</v>
-      </c>
-      <c r="M41" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
     </row>
     <row r="42" spans="4:18" ht="40" customHeight="1">
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="76">
-        <f t="shared" si="8"/>
-        <v>394.80597130443306</v>
-      </c>
-      <c r="J42" s="77">
-        <f t="shared" si="9"/>
-        <v>394.80597130443306</v>
-      </c>
-      <c r="K42" s="75">
-        <f t="shared" si="9"/>
-        <v>394.80597130443306</v>
-      </c>
-      <c r="L42" s="78">
-        <f t="shared" si="7"/>
-        <v>394.80597130443306</v>
-      </c>
-      <c r="M42" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
       <c r="Q42" s="59"/>
       <c r="R42" s="59"/>
     </row>
     <row r="43" spans="4:18" ht="40" customHeight="1">
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="76">
-        <f t="shared" si="8"/>
-        <v>430.53896460990211</v>
-      </c>
-      <c r="J43" s="77">
-        <f t="shared" si="9"/>
-        <v>430.53896460990211</v>
-      </c>
-      <c r="K43" s="75">
-        <f t="shared" si="9"/>
-        <v>430.53896460990211</v>
-      </c>
-      <c r="L43" s="78">
-        <f t="shared" si="7"/>
-        <v>430.53896460990211</v>
-      </c>
-      <c r="M43" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
       <c r="Q43" s="59"/>
       <c r="R43" s="59"/>
     </row>
     <row r="44" spans="4:18" ht="40" customHeight="1">
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="76">
-        <f t="shared" si="8"/>
-        <v>469.50607012079195</v>
-      </c>
-      <c r="J44" s="77">
-        <f t="shared" si="9"/>
-        <v>469.50607012079195</v>
-      </c>
-      <c r="K44" s="75">
-        <f t="shared" si="9"/>
-        <v>469.50607012079195</v>
-      </c>
-      <c r="L44" s="78">
-        <f t="shared" si="7"/>
-        <v>469.50607012079195</v>
-      </c>
-      <c r="M44" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
       <c r="Q44" s="59"/>
       <c r="R44" s="59"/>
     </row>
     <row r="45" spans="4:18" ht="40" customHeight="1">
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="76">
-        <f t="shared" si="8"/>
-        <v>512.00000000000034</v>
-      </c>
-      <c r="J45" s="77">
-        <f t="shared" si="9"/>
-        <v>512.00000000000034</v>
-      </c>
-      <c r="K45" s="75">
-        <f t="shared" si="9"/>
-        <v>512.00000000000034</v>
-      </c>
-      <c r="L45" s="78">
-        <f t="shared" si="7"/>
-        <v>512.00000000000034</v>
-      </c>
-      <c r="M45" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="59"/>
     </row>
     <row r="46" spans="4:18" ht="40" customHeight="1">
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="76">
-        <f t="shared" ref="I46:I52" si="11">I45*$U$11</f>
-        <v>558.33995912461228</v>
-      </c>
-      <c r="J46" s="77">
-        <f t="shared" ref="J46:K46" si="12">I46</f>
-        <v>558.33995912461228</v>
-      </c>
-      <c r="K46" s="75">
-        <f t="shared" si="12"/>
-        <v>558.33995912461228</v>
-      </c>
-      <c r="L46" s="78">
-        <f t="shared" ref="L46:L52" si="13">I46</f>
-        <v>558.33995912461228</v>
-      </c>
-      <c r="M46" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="59"/>
     </row>
     <row r="47" spans="4:18" ht="40" customHeight="1">
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="76">
-        <f t="shared" si="11"/>
-        <v>608.87404288139362</v>
-      </c>
-      <c r="J47" s="77">
-        <f t="shared" ref="J47:K47" si="14">I47</f>
-        <v>608.87404288139362</v>
-      </c>
-      <c r="K47" s="75">
-        <f t="shared" si="14"/>
-        <v>608.87404288139362</v>
-      </c>
-      <c r="L47" s="78">
-        <f t="shared" si="13"/>
-        <v>608.87404288139362</v>
-      </c>
-      <c r="M47" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
       <c r="Q47" s="59"/>
       <c r="R47" s="59"/>
     </row>
     <row r="48" spans="4:18" ht="40" customHeight="1">
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="76">
-        <f t="shared" si="11"/>
-        <v>663.98185198131739</v>
-      </c>
-      <c r="J48" s="77">
-        <f t="shared" ref="J48:K48" si="15">I48</f>
-        <v>663.98185198131739</v>
-      </c>
-      <c r="K48" s="75">
-        <f t="shared" si="15"/>
-        <v>663.98185198131739</v>
-      </c>
-      <c r="L48" s="78">
-        <f t="shared" si="13"/>
-        <v>663.98185198131739</v>
-      </c>
-      <c r="M48" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
       <c r="Q48" s="59"/>
       <c r="R48" s="59"/>
     </row>
-    <row r="49" spans="4:18" ht="40" customHeight="1">
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="76">
-        <f t="shared" si="11"/>
-        <v>724.07734393502517</v>
-      </c>
-      <c r="J49" s="77">
-        <f t="shared" ref="J49:K49" si="16">I49</f>
-        <v>724.07734393502517</v>
-      </c>
-      <c r="K49" s="75">
-        <f t="shared" si="16"/>
-        <v>724.07734393502517</v>
-      </c>
-      <c r="L49" s="78">
-        <f t="shared" si="13"/>
-        <v>724.07734393502517</v>
-      </c>
-      <c r="M49" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
+    <row r="49" spans="7:18" ht="40" customHeight="1">
+      <c r="G49" s="57"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
       <c r="Q49" s="59"/>
       <c r="R49" s="59"/>
     </row>
-    <row r="50" spans="4:18" ht="40" customHeight="1">
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="76">
-        <f t="shared" si="11"/>
-        <v>789.61194260886623</v>
-      </c>
-      <c r="J50" s="77">
-        <f t="shared" ref="J50:K50" si="17">I50</f>
-        <v>789.61194260886623</v>
-      </c>
-      <c r="K50" s="75">
-        <f t="shared" si="17"/>
-        <v>789.61194260886623</v>
-      </c>
-      <c r="L50" s="78">
-        <f t="shared" si="13"/>
-        <v>789.61194260886623</v>
-      </c>
-      <c r="M50" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113"/>
+    <row r="50" spans="7:18" ht="40" customHeight="1">
+      <c r="G50" s="57"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
       <c r="Q50" s="59"/>
       <c r="R50" s="59"/>
     </row>
-    <row r="51" spans="4:18" ht="40" customHeight="1">
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="76">
-        <f t="shared" si="11"/>
-        <v>861.07792921980433</v>
-      </c>
-      <c r="J51" s="77">
-        <f t="shared" ref="J51:K51" si="18">I51</f>
-        <v>861.07792921980433</v>
-      </c>
-      <c r="K51" s="75">
-        <f t="shared" si="18"/>
-        <v>861.07792921980433</v>
-      </c>
-      <c r="L51" s="78">
-        <f t="shared" si="13"/>
-        <v>861.07792921980433</v>
-      </c>
-      <c r="M51" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113"/>
+    <row r="51" spans="7:18" ht="40" customHeight="1">
+      <c r="G51" s="57"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
       <c r="Q51" s="59"/>
       <c r="R51" s="59"/>
     </row>
-    <row r="52" spans="4:18" ht="40" customHeight="1">
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="76">
-        <f t="shared" si="11"/>
-        <v>939.01214024158412</v>
-      </c>
-      <c r="J52" s="77">
-        <f t="shared" ref="J52:K52" si="19">I52</f>
-        <v>939.01214024158412</v>
-      </c>
-      <c r="K52" s="75">
-        <f t="shared" si="19"/>
-        <v>939.01214024158412</v>
-      </c>
-      <c r="L52" s="78">
-        <f t="shared" si="13"/>
-        <v>939.01214024158412</v>
-      </c>
-      <c r="M52" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-    </row>
-    <row r="53" spans="4:18" ht="40" customHeight="1" thickBot="1">
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="85">
-        <f t="shared" ref="I53" si="20">I52*$U$11</f>
-        <v>1024.0000000000009</v>
-      </c>
-      <c r="J53" s="86">
-        <f t="shared" ref="J53:K53" si="21">I53</f>
-        <v>1024.0000000000009</v>
-      </c>
-      <c r="K53" s="84">
-        <f t="shared" si="21"/>
-        <v>1024.0000000000009</v>
-      </c>
-      <c r="L53" s="87">
-        <f t="shared" ref="L53" si="22">I53</f>
-        <v>1024.0000000000009</v>
-      </c>
-      <c r="M53" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-    </row>
-    <row r="54" spans="4:18" ht="40" customHeight="1">
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
+    <row r="52" spans="7:18" ht="40" customHeight="1">
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+    </row>
+    <row r="53" spans="7:18" ht="40" customHeight="1">
+      <c r="G53" s="57"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+    </row>
+    <row r="54" spans="7:18" ht="40" customHeight="1">
       <c r="G54" s="57"/>
       <c r="H54" s="56"/>
       <c r="I54" s="59"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="58"/>
       <c r="L54" s="57"/>
       <c r="M54" s="57"/>
       <c r="N54" s="57"/>
       <c r="O54" s="57"/>
       <c r="P54" s="57"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-    </row>
-    <row r="55" spans="4:18" ht="40" customHeight="1">
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+    </row>
+    <row r="55" spans="7:18" ht="40" customHeight="1">
       <c r="G55" s="57"/>
       <c r="H55" s="56"/>
       <c r="I55" s="59"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="58"/>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
       <c r="N55" s="57"/>
       <c r="O55" s="57"/>
       <c r="P55" s="57"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-    </row>
-    <row r="56" spans="4:18" ht="40" customHeight="1">
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+    </row>
+    <row r="56" spans="7:18" ht="40" customHeight="1">
       <c r="G56" s="57"/>
       <c r="H56" s="56"/>
       <c r="I56" s="59"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="58"/>
       <c r="L56" s="57"/>
       <c r="M56" s="57"/>
       <c r="N56" s="57"/>
       <c r="O56" s="57"/>
       <c r="P56" s="57"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-    </row>
-    <row r="57" spans="4:18" ht="40" customHeight="1">
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+    </row>
+    <row r="57" spans="7:18" ht="40" customHeight="1">
       <c r="G57" s="57"/>
       <c r="H57" s="56"/>
       <c r="I57" s="59"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="58"/>
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
       <c r="N57" s="57"/>
       <c r="O57" s="57"/>
       <c r="P57" s="57"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-    </row>
-    <row r="58" spans="4:18" ht="40" customHeight="1">
-      <c r="G58" s="57"/>
-      <c r="H58" s="56"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+    </row>
+    <row r="58" spans="7:18" ht="40" customHeight="1">
+      <c r="G58" s="55"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="59"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="56"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="58"/>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
       <c r="N58" s="57"/>
       <c r="O58" s="57"/>
       <c r="P58" s="57"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-    </row>
-    <row r="59" spans="4:18" ht="40" customHeight="1">
-      <c r="G59" s="57"/>
-      <c r="H59" s="56"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+    </row>
+    <row r="59" spans="7:18" ht="40" customHeight="1">
+      <c r="G59" s="55"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="59"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="56"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="58"/>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
       <c r="N59" s="57"/>
       <c r="O59" s="57"/>
       <c r="P59" s="57"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-    </row>
-    <row r="60" spans="4:18" ht="40" customHeight="1">
-      <c r="G60" s="57"/>
-      <c r="H60" s="56"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+    </row>
+    <row r="60" spans="7:18" ht="40" customHeight="1">
+      <c r="G60" s="55"/>
+      <c r="H60" s="50"/>
       <c r="I60" s="59"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="56"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="58"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57"/>
       <c r="N60" s="57"/>
       <c r="O60" s="57"/>
       <c r="P60" s="57"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-    </row>
-    <row r="61" spans="4:18" ht="40" customHeight="1">
-      <c r="G61" s="57"/>
-      <c r="H61" s="56"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+    </row>
+    <row r="61" spans="7:18" ht="40" customHeight="1">
+      <c r="G61" s="55"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="59"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="56"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="58"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
       <c r="N61" s="57"/>
       <c r="O61" s="57"/>
       <c r="P61" s="57"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-    </row>
-    <row r="62" spans="4:18" ht="40" customHeight="1">
-      <c r="G62" s="57"/>
-      <c r="H62" s="56"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+    </row>
+    <row r="62" spans="7:18" ht="40" customHeight="1">
+      <c r="G62" s="55"/>
+      <c r="H62" s="50"/>
       <c r="I62" s="59"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="56"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="58"/>
       <c r="L62" s="57"/>
       <c r="M62" s="57"/>
       <c r="N62" s="57"/>
       <c r="O62" s="57"/>
       <c r="P62" s="57"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-    </row>
-    <row r="63" spans="4:18" ht="40" customHeight="1">
-      <c r="G63" s="57"/>
-      <c r="H63" s="56"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+    </row>
+    <row r="63" spans="7:18" ht="40" customHeight="1">
+      <c r="G63" s="55"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="59"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="56"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="58"/>
       <c r="L63" s="57"/>
       <c r="M63" s="57"/>
       <c r="N63" s="57"/>
       <c r="O63" s="57"/>
       <c r="P63" s="57"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-    </row>
-    <row r="64" spans="4:18" ht="40" customHeight="1">
-      <c r="G64" s="57"/>
-      <c r="H64" s="56"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+    </row>
+    <row r="64" spans="7:18" ht="40" customHeight="1">
+      <c r="G64" s="55"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="59"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="56"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="58"/>
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
       <c r="N64" s="57"/>
       <c r="O64" s="57"/>
       <c r="P64" s="57"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
     </row>
     <row r="65" spans="7:18" ht="40" customHeight="1">
-      <c r="G65" s="57"/>
-      <c r="H65" s="56"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="59"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="56"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="58"/>
       <c r="L65" s="57"/>
       <c r="M65" s="57"/>
       <c r="N65" s="57"/>
       <c r="O65" s="57"/>
       <c r="P65" s="57"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
     </row>
     <row r="66" spans="7:18" ht="40" customHeight="1">
-      <c r="G66" s="57"/>
-      <c r="H66" s="56"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="59"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="56"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="58"/>
       <c r="L66" s="57"/>
       <c r="M66" s="57"/>
       <c r="N66" s="57"/>
       <c r="O66" s="57"/>
       <c r="P66" s="57"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
     </row>
     <row r="67" spans="7:18" ht="40" customHeight="1">
-      <c r="G67" s="57"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="56"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="58"/>
       <c r="L67" s="57"/>
       <c r="M67" s="57"/>
       <c r="N67" s="57"/>
       <c r="O67" s="57"/>
       <c r="P67" s="57"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
     </row>
     <row r="68" spans="7:18" ht="40" customHeight="1">
-      <c r="G68" s="57"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="56"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="58"/>
       <c r="L68" s="57"/>
       <c r="M68" s="57"/>
       <c r="N68" s="57"/>
       <c r="O68" s="57"/>
       <c r="P68" s="57"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
     </row>
     <row r="69" spans="7:18" ht="40" customHeight="1">
-      <c r="G69" s="57"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="56"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="58"/>
       <c r="L69" s="57"/>
       <c r="M69" s="57"/>
       <c r="N69" s="57"/>
       <c r="O69" s="57"/>
       <c r="P69" s="57"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
     </row>
     <row r="70" spans="7:18" ht="40" customHeight="1">
-      <c r="G70" s="57"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="56"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="58"/>
       <c r="L70" s="57"/>
       <c r="M70" s="57"/>
       <c r="N70" s="57"/>
       <c r="O70" s="57"/>
       <c r="P70" s="57"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
     </row>
     <row r="71" spans="7:18" ht="40" customHeight="1">
-      <c r="G71" s="57"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="56"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="58"/>
       <c r="L71" s="57"/>
       <c r="M71" s="57"/>
       <c r="N71" s="57"/>
       <c r="O71" s="57"/>
       <c r="P71" s="57"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="50"/>
     </row>
     <row r="72" spans="7:18" ht="40" customHeight="1">
-      <c r="G72" s="57"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="56"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="58"/>
       <c r="L72" s="57"/>
       <c r="M72" s="57"/>
       <c r="N72" s="57"/>
       <c r="O72" s="57"/>
       <c r="P72" s="57"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
     </row>
     <row r="73" spans="7:18" ht="40" customHeight="1">
-      <c r="G73" s="57"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="56"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="58"/>
       <c r="L73" s="57"/>
       <c r="M73" s="57"/>
       <c r="N73" s="57"/>
       <c r="O73" s="57"/>
       <c r="P73" s="57"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
     </row>
     <row r="74" spans="7:18" ht="40" customHeight="1">
-      <c r="G74" s="57"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="56"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="58"/>
       <c r="L74" s="57"/>
       <c r="M74" s="57"/>
       <c r="N74" s="57"/>
@@ -8132,11 +7872,11 @@
       <c r="R74" s="50"/>
     </row>
     <row r="75" spans="7:18" ht="40" customHeight="1">
-      <c r="G75" s="57"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="56"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="58"/>
       <c r="L75" s="57"/>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
@@ -8146,11 +7886,11 @@
       <c r="R75" s="50"/>
     </row>
     <row r="76" spans="7:18" ht="40" customHeight="1">
-      <c r="G76" s="57"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="56"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="58"/>
       <c r="L76" s="57"/>
       <c r="M76" s="57"/>
       <c r="N76" s="57"/>
@@ -8160,11 +7900,11 @@
       <c r="R76" s="50"/>
     </row>
     <row r="77" spans="7:18" ht="40" customHeight="1">
-      <c r="G77" s="57"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="56"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="58"/>
       <c r="L77" s="57"/>
       <c r="M77" s="57"/>
       <c r="N77" s="57"/>
@@ -8174,11 +7914,11 @@
       <c r="R77" s="50"/>
     </row>
     <row r="78" spans="7:18" ht="40" customHeight="1">
-      <c r="G78" s="57"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="56"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="58"/>
       <c r="L78" s="57"/>
       <c r="M78" s="57"/>
       <c r="N78" s="57"/>
@@ -8188,11 +7928,11 @@
       <c r="R78" s="50"/>
     </row>
     <row r="79" spans="7:18" ht="40" customHeight="1">
-      <c r="G79" s="57"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="56"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="58"/>
       <c r="L79" s="57"/>
       <c r="M79" s="57"/>
       <c r="N79" s="57"/>
@@ -8204,9 +7944,9 @@
     <row r="80" spans="7:18" ht="40" customHeight="1">
       <c r="G80" s="55"/>
       <c r="H80" s="50"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="59"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="58"/>
       <c r="L80" s="57"/>
       <c r="M80" s="57"/>
       <c r="N80" s="57"/>
@@ -8218,9 +7958,9 @@
     <row r="81" spans="7:18" ht="40" customHeight="1">
       <c r="G81" s="55"/>
       <c r="H81" s="50"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="59"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="58"/>
       <c r="L81" s="57"/>
       <c r="M81" s="57"/>
       <c r="N81" s="57"/>
@@ -8232,9 +7972,9 @@
     <row r="82" spans="7:18" ht="40" customHeight="1">
       <c r="G82" s="55"/>
       <c r="H82" s="50"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="59"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="58"/>
       <c r="L82" s="57"/>
       <c r="M82" s="57"/>
       <c r="N82" s="57"/>
@@ -8246,9 +7986,9 @@
     <row r="83" spans="7:18" ht="40" customHeight="1">
       <c r="G83" s="55"/>
       <c r="H83" s="50"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="59"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="58"/>
       <c r="L83" s="57"/>
       <c r="M83" s="57"/>
       <c r="N83" s="57"/>
@@ -8260,9 +8000,9 @@
     <row r="84" spans="7:18" ht="40" customHeight="1">
       <c r="G84" s="55"/>
       <c r="H84" s="50"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="59"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="58"/>
       <c r="L84" s="57"/>
       <c r="M84" s="57"/>
       <c r="N84" s="57"/>
@@ -8274,9 +8014,9 @@
     <row r="85" spans="7:18" ht="40" customHeight="1">
       <c r="G85" s="55"/>
       <c r="H85" s="50"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="59"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="58"/>
       <c r="L85" s="57"/>
       <c r="M85" s="57"/>
       <c r="N85" s="57"/>
@@ -8288,9 +8028,9 @@
     <row r="86" spans="7:18" ht="40" customHeight="1">
       <c r="G86" s="55"/>
       <c r="H86" s="50"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="59"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="58"/>
       <c r="L86" s="57"/>
       <c r="M86" s="57"/>
       <c r="N86" s="57"/>
@@ -8302,9 +8042,9 @@
     <row r="87" spans="7:18" ht="40" customHeight="1">
       <c r="G87" s="55"/>
       <c r="H87" s="50"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="59"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="58"/>
       <c r="L87" s="57"/>
       <c r="M87" s="57"/>
       <c r="N87" s="57"/>
@@ -8316,9 +8056,9 @@
     <row r="88" spans="7:18" ht="40" customHeight="1">
       <c r="G88" s="55"/>
       <c r="H88" s="50"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="58"/>
       <c r="L88" s="57"/>
       <c r="M88" s="57"/>
       <c r="N88" s="57"/>
@@ -8331,8 +8071,8 @@
       <c r="G89" s="55"/>
       <c r="H89" s="50"/>
       <c r="I89" s="57"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="58"/>
       <c r="L89" s="57"/>
       <c r="M89" s="57"/>
       <c r="N89" s="57"/>
@@ -8341,12 +8081,12 @@
       <c r="Q89" s="50"/>
       <c r="R89" s="50"/>
     </row>
-    <row r="90" spans="7:18" ht="40" customHeight="1">
+    <row r="90" spans="7:18" ht="32" customHeight="1">
       <c r="G90" s="55"/>
       <c r="H90" s="50"/>
       <c r="I90" s="57"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="58"/>
       <c r="L90" s="57"/>
       <c r="M90" s="57"/>
       <c r="N90" s="57"/>
@@ -8355,12 +8095,12 @@
       <c r="Q90" s="50"/>
       <c r="R90" s="50"/>
     </row>
-    <row r="91" spans="7:18" ht="40" customHeight="1">
+    <row r="91" spans="7:18" ht="32" customHeight="1">
       <c r="G91" s="55"/>
       <c r="H91" s="50"/>
       <c r="I91" s="57"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="58"/>
       <c r="L91" s="57"/>
       <c r="M91" s="57"/>
       <c r="N91" s="57"/>
@@ -8369,12 +8109,12 @@
       <c r="Q91" s="50"/>
       <c r="R91" s="50"/>
     </row>
-    <row r="92" spans="7:18" ht="40" customHeight="1">
+    <row r="92" spans="7:18" ht="32" customHeight="1">
       <c r="G92" s="55"/>
       <c r="H92" s="50"/>
       <c r="I92" s="57"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="58"/>
       <c r="L92" s="57"/>
       <c r="M92" s="57"/>
       <c r="N92" s="57"/>
@@ -8383,12 +8123,12 @@
       <c r="Q92" s="50"/>
       <c r="R92" s="50"/>
     </row>
-    <row r="93" spans="7:18" ht="40" customHeight="1">
+    <row r="93" spans="7:18" ht="32" customHeight="1">
       <c r="G93" s="55"/>
       <c r="H93" s="50"/>
       <c r="I93" s="57"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="58"/>
       <c r="L93" s="57"/>
       <c r="M93" s="57"/>
       <c r="N93" s="57"/>
@@ -8397,12 +8137,12 @@
       <c r="Q93" s="50"/>
       <c r="R93" s="50"/>
     </row>
-    <row r="94" spans="7:18" ht="40" customHeight="1">
+    <row r="94" spans="7:18" ht="32" customHeight="1">
       <c r="G94" s="55"/>
       <c r="H94" s="50"/>
       <c r="I94" s="57"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="58"/>
       <c r="L94" s="57"/>
       <c r="M94" s="57"/>
       <c r="N94" s="57"/>
@@ -8411,12 +8151,12 @@
       <c r="Q94" s="50"/>
       <c r="R94" s="50"/>
     </row>
-    <row r="95" spans="7:18" ht="40" customHeight="1">
+    <row r="95" spans="7:18" ht="32" customHeight="1">
       <c r="G95" s="55"/>
       <c r="H95" s="50"/>
       <c r="I95" s="57"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="58"/>
       <c r="L95" s="57"/>
       <c r="M95" s="57"/>
       <c r="N95" s="57"/>
@@ -8425,12 +8165,12 @@
       <c r="Q95" s="50"/>
       <c r="R95" s="50"/>
     </row>
-    <row r="96" spans="7:18" ht="40" customHeight="1">
+    <row r="96" spans="7:18" ht="32" customHeight="1">
       <c r="G96" s="55"/>
       <c r="H96" s="50"/>
       <c r="I96" s="57"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="58"/>
       <c r="L96" s="57"/>
       <c r="M96" s="57"/>
       <c r="N96" s="57"/>
@@ -8439,12 +8179,12 @@
       <c r="Q96" s="50"/>
       <c r="R96" s="50"/>
     </row>
-    <row r="97" spans="7:18" ht="40" customHeight="1">
+    <row r="97" spans="7:18" ht="32" customHeight="1">
       <c r="G97" s="55"/>
       <c r="H97" s="50"/>
       <c r="I97" s="57"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="58"/>
       <c r="L97" s="57"/>
       <c r="M97" s="57"/>
       <c r="N97" s="57"/>
@@ -8453,12 +8193,12 @@
       <c r="Q97" s="50"/>
       <c r="R97" s="50"/>
     </row>
-    <row r="98" spans="7:18" ht="40" customHeight="1">
+    <row r="98" spans="7:18" ht="32" customHeight="1">
       <c r="G98" s="55"/>
       <c r="H98" s="50"/>
       <c r="I98" s="57"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="58"/>
       <c r="L98" s="57"/>
       <c r="M98" s="57"/>
       <c r="N98" s="57"/>
@@ -8467,12 +8207,12 @@
       <c r="Q98" s="50"/>
       <c r="R98" s="50"/>
     </row>
-    <row r="99" spans="7:18" ht="40" customHeight="1">
+    <row r="99" spans="7:18" ht="32" customHeight="1">
       <c r="G99" s="55"/>
       <c r="H99" s="50"/>
       <c r="I99" s="57"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="58"/>
       <c r="L99" s="57"/>
       <c r="M99" s="57"/>
       <c r="N99" s="57"/>
@@ -8481,12 +8221,12 @@
       <c r="Q99" s="50"/>
       <c r="R99" s="50"/>
     </row>
-    <row r="100" spans="7:18" ht="40" customHeight="1">
+    <row r="100" spans="7:18" ht="32" customHeight="1">
       <c r="G100" s="55"/>
       <c r="H100" s="50"/>
       <c r="I100" s="57"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="58"/>
       <c r="L100" s="57"/>
       <c r="M100" s="57"/>
       <c r="N100" s="57"/>
@@ -8495,12 +8235,12 @@
       <c r="Q100" s="50"/>
       <c r="R100" s="50"/>
     </row>
-    <row r="101" spans="7:18" ht="40" customHeight="1">
+    <row r="101" spans="7:18" ht="32" customHeight="1">
       <c r="G101" s="55"/>
       <c r="H101" s="50"/>
       <c r="I101" s="57"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="58"/>
       <c r="L101" s="57"/>
       <c r="M101" s="57"/>
       <c r="N101" s="57"/>
@@ -8509,12 +8249,12 @@
       <c r="Q101" s="50"/>
       <c r="R101" s="50"/>
     </row>
-    <row r="102" spans="7:18" ht="40" customHeight="1">
+    <row r="102" spans="7:18" ht="32" customHeight="1">
       <c r="G102" s="55"/>
       <c r="H102" s="50"/>
       <c r="I102" s="57"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="58"/>
       <c r="L102" s="57"/>
       <c r="M102" s="57"/>
       <c r="N102" s="57"/>
@@ -8523,12 +8263,12 @@
       <c r="Q102" s="50"/>
       <c r="R102" s="50"/>
     </row>
-    <row r="103" spans="7:18" ht="40" customHeight="1">
+    <row r="103" spans="7:18" ht="32" customHeight="1">
       <c r="G103" s="55"/>
       <c r="H103" s="50"/>
       <c r="I103" s="57"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="58"/>
       <c r="L103" s="57"/>
       <c r="M103" s="57"/>
       <c r="N103" s="57"/>
@@ -8537,12 +8277,12 @@
       <c r="Q103" s="50"/>
       <c r="R103" s="50"/>
     </row>
-    <row r="104" spans="7:18" ht="40" customHeight="1">
+    <row r="104" spans="7:18" ht="32" customHeight="1">
       <c r="G104" s="55"/>
       <c r="H104" s="50"/>
       <c r="I104" s="57"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="58"/>
       <c r="L104" s="57"/>
       <c r="M104" s="57"/>
       <c r="N104" s="57"/>
@@ -8551,12 +8291,12 @@
       <c r="Q104" s="50"/>
       <c r="R104" s="50"/>
     </row>
-    <row r="105" spans="7:18" ht="40" customHeight="1">
+    <row r="105" spans="7:18" ht="32" customHeight="1">
       <c r="G105" s="55"/>
       <c r="H105" s="50"/>
       <c r="I105" s="57"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="58"/>
       <c r="L105" s="57"/>
       <c r="M105" s="57"/>
       <c r="N105" s="57"/>
@@ -8565,12 +8305,12 @@
       <c r="Q105" s="50"/>
       <c r="R105" s="50"/>
     </row>
-    <row r="106" spans="7:18" ht="40" customHeight="1">
+    <row r="106" spans="7:18" ht="32" customHeight="1">
       <c r="G106" s="55"/>
       <c r="H106" s="50"/>
       <c r="I106" s="57"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="58"/>
       <c r="L106" s="57"/>
       <c r="M106" s="57"/>
       <c r="N106" s="57"/>
@@ -8579,12 +8319,12 @@
       <c r="Q106" s="50"/>
       <c r="R106" s="50"/>
     </row>
-    <row r="107" spans="7:18" ht="40" customHeight="1">
+    <row r="107" spans="7:18" ht="32" customHeight="1">
       <c r="G107" s="55"/>
       <c r="H107" s="50"/>
       <c r="I107" s="57"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="58"/>
       <c r="L107" s="57"/>
       <c r="M107" s="57"/>
       <c r="N107" s="57"/>
@@ -8593,12 +8333,12 @@
       <c r="Q107" s="50"/>
       <c r="R107" s="50"/>
     </row>
-    <row r="108" spans="7:18" ht="40" customHeight="1">
+    <row r="108" spans="7:18" ht="32" customHeight="1">
       <c r="G108" s="55"/>
       <c r="H108" s="50"/>
       <c r="I108" s="57"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="58"/>
       <c r="L108" s="57"/>
       <c r="M108" s="57"/>
       <c r="N108" s="57"/>
@@ -8607,12 +8347,12 @@
       <c r="Q108" s="50"/>
       <c r="R108" s="50"/>
     </row>
-    <row r="109" spans="7:18" ht="40" customHeight="1">
+    <row r="109" spans="7:18" ht="32" customHeight="1">
       <c r="G109" s="55"/>
       <c r="H109" s="50"/>
       <c r="I109" s="57"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="58"/>
       <c r="L109" s="57"/>
       <c r="M109" s="57"/>
       <c r="N109" s="57"/>
@@ -8621,12 +8361,12 @@
       <c r="Q109" s="50"/>
       <c r="R109" s="50"/>
     </row>
-    <row r="110" spans="7:18" ht="40" customHeight="1">
+    <row r="110" spans="7:18" ht="32" customHeight="1">
       <c r="G110" s="55"/>
       <c r="H110" s="50"/>
       <c r="I110" s="57"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="58"/>
       <c r="L110" s="57"/>
       <c r="M110" s="57"/>
       <c r="N110" s="57"/>
@@ -8635,12 +8375,12 @@
       <c r="Q110" s="50"/>
       <c r="R110" s="50"/>
     </row>
-    <row r="111" spans="7:18" ht="40" customHeight="1">
+    <row r="111" spans="7:18" ht="32" customHeight="1">
       <c r="G111" s="55"/>
       <c r="H111" s="50"/>
       <c r="I111" s="57"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="58"/>
       <c r="L111" s="57"/>
       <c r="M111" s="57"/>
       <c r="N111" s="57"/>
@@ -8653,8 +8393,8 @@
       <c r="G112" s="55"/>
       <c r="H112" s="50"/>
       <c r="I112" s="57"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="58"/>
       <c r="L112" s="57"/>
       <c r="M112" s="57"/>
       <c r="N112" s="57"/>
@@ -8667,8 +8407,8 @@
       <c r="G113" s="55"/>
       <c r="H113" s="50"/>
       <c r="I113" s="57"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="58"/>
       <c r="L113" s="57"/>
       <c r="M113" s="57"/>
       <c r="N113" s="57"/>
@@ -8681,8 +8421,8 @@
       <c r="G114" s="55"/>
       <c r="H114" s="50"/>
       <c r="I114" s="57"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="58"/>
       <c r="L114" s="57"/>
       <c r="M114" s="57"/>
       <c r="N114" s="57"/>
@@ -8695,8 +8435,8 @@
       <c r="G115" s="55"/>
       <c r="H115" s="50"/>
       <c r="I115" s="57"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="59"/>
+      <c r="J115" s="59"/>
+      <c r="K115" s="58"/>
       <c r="L115" s="57"/>
       <c r="M115" s="57"/>
       <c r="N115" s="57"/>
@@ -8709,8 +8449,8 @@
       <c r="G116" s="55"/>
       <c r="H116" s="50"/>
       <c r="I116" s="57"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="59"/>
+      <c r="J116" s="59"/>
+      <c r="K116" s="58"/>
       <c r="L116" s="57"/>
       <c r="M116" s="57"/>
       <c r="N116" s="57"/>
@@ -8723,8 +8463,8 @@
       <c r="G117" s="55"/>
       <c r="H117" s="50"/>
       <c r="I117" s="57"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="58"/>
       <c r="L117" s="57"/>
       <c r="M117" s="57"/>
       <c r="N117" s="57"/>
@@ -8737,8 +8477,8 @@
       <c r="G118" s="55"/>
       <c r="H118" s="50"/>
       <c r="I118" s="57"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="58"/>
       <c r="L118" s="57"/>
       <c r="M118" s="57"/>
       <c r="N118" s="57"/>
@@ -8751,8 +8491,8 @@
       <c r="G119" s="55"/>
       <c r="H119" s="50"/>
       <c r="I119" s="57"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="58"/>
       <c r="L119" s="57"/>
       <c r="M119" s="57"/>
       <c r="N119" s="57"/>
@@ -8765,8 +8505,8 @@
       <c r="G120" s="55"/>
       <c r="H120" s="50"/>
       <c r="I120" s="57"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="59"/>
+      <c r="J120" s="59"/>
+      <c r="K120" s="58"/>
       <c r="L120" s="57"/>
       <c r="M120" s="57"/>
       <c r="N120" s="57"/>
@@ -8779,8 +8519,8 @@
       <c r="G121" s="55"/>
       <c r="H121" s="50"/>
       <c r="I121" s="57"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="58"/>
       <c r="L121" s="57"/>
       <c r="M121" s="57"/>
       <c r="N121" s="57"/>
@@ -8793,8 +8533,8 @@
       <c r="G122" s="55"/>
       <c r="H122" s="50"/>
       <c r="I122" s="57"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="58"/>
       <c r="L122" s="57"/>
       <c r="M122" s="57"/>
       <c r="N122" s="57"/>
@@ -8807,8 +8547,8 @@
       <c r="G123" s="55"/>
       <c r="H123" s="50"/>
       <c r="I123" s="57"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="58"/>
       <c r="L123" s="57"/>
       <c r="M123" s="57"/>
       <c r="N123" s="57"/>
@@ -8821,8 +8561,8 @@
       <c r="G124" s="55"/>
       <c r="H124" s="50"/>
       <c r="I124" s="57"/>
-      <c r="J124" s="58"/>
-      <c r="K124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="58"/>
       <c r="L124" s="57"/>
       <c r="M124" s="57"/>
       <c r="N124" s="57"/>
@@ -8835,8 +8575,8 @@
       <c r="G125" s="55"/>
       <c r="H125" s="50"/>
       <c r="I125" s="57"/>
-      <c r="J125" s="58"/>
-      <c r="K125" s="59"/>
+      <c r="J125" s="59"/>
+      <c r="K125" s="58"/>
       <c r="L125" s="57"/>
       <c r="M125" s="57"/>
       <c r="N125" s="57"/>
@@ -8849,13 +8589,13 @@
       <c r="G126" s="55"/>
       <c r="H126" s="50"/>
       <c r="I126" s="57"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="59"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="57"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="57"/>
-      <c r="P126" s="57"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="58"/>
+      <c r="L126" s="50"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
+      <c r="P126" s="50"/>
       <c r="Q126" s="50"/>
       <c r="R126" s="50"/>
     </row>
@@ -8863,13 +8603,13 @@
       <c r="G127" s="55"/>
       <c r="H127" s="50"/>
       <c r="I127" s="57"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="59"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="57"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="57"/>
-      <c r="P127" s="57"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="58"/>
+      <c r="L127" s="50"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
+      <c r="P127" s="50"/>
       <c r="Q127" s="50"/>
       <c r="R127" s="50"/>
     </row>
@@ -8877,13 +8617,13 @@
       <c r="G128" s="55"/>
       <c r="H128" s="50"/>
       <c r="I128" s="57"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="59"/>
-      <c r="L128" s="57"/>
-      <c r="M128" s="57"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="57"/>
-      <c r="P128" s="57"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="58"/>
+      <c r="L128" s="50"/>
+      <c r="M128" s="50"/>
+      <c r="N128" s="50"/>
+      <c r="O128" s="50"/>
+      <c r="P128" s="50"/>
       <c r="Q128" s="50"/>
       <c r="R128" s="50"/>
     </row>
@@ -8891,13 +8631,13 @@
       <c r="G129" s="55"/>
       <c r="H129" s="50"/>
       <c r="I129" s="57"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="59"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="57"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="57"/>
-      <c r="P129" s="57"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="58"/>
+      <c r="L129" s="50"/>
+      <c r="M129" s="50"/>
+      <c r="N129" s="50"/>
+      <c r="O129" s="50"/>
+      <c r="P129" s="50"/>
       <c r="Q129" s="50"/>
       <c r="R129" s="50"/>
     </row>
@@ -8905,13 +8645,13 @@
       <c r="G130" s="55"/>
       <c r="H130" s="50"/>
       <c r="I130" s="57"/>
-      <c r="J130" s="58"/>
-      <c r="K130" s="59"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="57"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="57"/>
-      <c r="P130" s="57"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="58"/>
+      <c r="L130" s="50"/>
+      <c r="M130" s="50"/>
+      <c r="N130" s="50"/>
+      <c r="O130" s="50"/>
+      <c r="P130" s="50"/>
       <c r="Q130" s="50"/>
       <c r="R130" s="50"/>
     </row>
@@ -8919,13 +8659,13 @@
       <c r="G131" s="55"/>
       <c r="H131" s="50"/>
       <c r="I131" s="57"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="59"/>
-      <c r="L131" s="57"/>
-      <c r="M131" s="57"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="57"/>
-      <c r="P131" s="57"/>
+      <c r="J131" s="59"/>
+      <c r="K131" s="58"/>
+      <c r="L131" s="50"/>
+      <c r="M131" s="50"/>
+      <c r="N131" s="50"/>
+      <c r="O131" s="50"/>
+      <c r="P131" s="50"/>
       <c r="Q131" s="50"/>
       <c r="R131" s="50"/>
     </row>
@@ -8933,13 +8673,13 @@
       <c r="G132" s="55"/>
       <c r="H132" s="50"/>
       <c r="I132" s="57"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="59"/>
-      <c r="L132" s="57"/>
-      <c r="M132" s="57"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="57"/>
-      <c r="P132" s="57"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="58"/>
+      <c r="L132" s="50"/>
+      <c r="M132" s="50"/>
+      <c r="N132" s="50"/>
+      <c r="O132" s="50"/>
+      <c r="P132" s="50"/>
       <c r="Q132" s="50"/>
       <c r="R132" s="50"/>
     </row>
@@ -8947,13 +8687,13 @@
       <c r="G133" s="55"/>
       <c r="H133" s="50"/>
       <c r="I133" s="57"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="59"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="57"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="57"/>
-      <c r="P133" s="57"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="58"/>
+      <c r="L133" s="50"/>
+      <c r="M133" s="50"/>
+      <c r="N133" s="50"/>
+      <c r="O133" s="50"/>
+      <c r="P133" s="50"/>
       <c r="Q133" s="50"/>
       <c r="R133" s="50"/>
     </row>
@@ -8961,13 +8701,13 @@
       <c r="G134" s="55"/>
       <c r="H134" s="50"/>
       <c r="I134" s="57"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="59"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="57"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="57"/>
-      <c r="P134" s="57"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
       <c r="Q134" s="50"/>
       <c r="R134" s="50"/>
     </row>
@@ -8975,13 +8715,13 @@
       <c r="G135" s="55"/>
       <c r="H135" s="50"/>
       <c r="I135" s="57"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="59"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="57"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="57"/>
-      <c r="P135" s="57"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="58"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
       <c r="Q135" s="50"/>
       <c r="R135" s="50"/>
     </row>
@@ -8989,13 +8729,13 @@
       <c r="G136" s="55"/>
       <c r="H136" s="50"/>
       <c r="I136" s="57"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="59"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="57"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="57"/>
-      <c r="P136" s="57"/>
+      <c r="J136" s="59"/>
+      <c r="K136" s="58"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="50"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="50"/>
+      <c r="P136" s="50"/>
       <c r="Q136" s="50"/>
       <c r="R136" s="50"/>
     </row>
@@ -9003,13 +8743,13 @@
       <c r="G137" s="55"/>
       <c r="H137" s="50"/>
       <c r="I137" s="57"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="59"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="57"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="57"/>
-      <c r="P137" s="57"/>
+      <c r="J137" s="59"/>
+      <c r="K137" s="58"/>
+      <c r="L137" s="50"/>
+      <c r="M137" s="50"/>
+      <c r="N137" s="50"/>
+      <c r="O137" s="50"/>
+      <c r="P137" s="50"/>
       <c r="Q137" s="50"/>
       <c r="R137" s="50"/>
     </row>
@@ -9017,13 +8757,13 @@
       <c r="G138" s="55"/>
       <c r="H138" s="50"/>
       <c r="I138" s="57"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="59"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="57"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="57"/>
-      <c r="P138" s="57"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="58"/>
+      <c r="L138" s="50"/>
+      <c r="M138" s="50"/>
+      <c r="N138" s="50"/>
+      <c r="O138" s="50"/>
+      <c r="P138" s="50"/>
       <c r="Q138" s="50"/>
       <c r="R138" s="50"/>
     </row>
@@ -9031,13 +8771,13 @@
       <c r="G139" s="55"/>
       <c r="H139" s="50"/>
       <c r="I139" s="57"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="59"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="57"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="57"/>
-      <c r="P139" s="57"/>
+      <c r="J139" s="59"/>
+      <c r="K139" s="58"/>
+      <c r="L139" s="50"/>
+      <c r="M139" s="50"/>
+      <c r="N139" s="50"/>
+      <c r="O139" s="50"/>
+      <c r="P139" s="50"/>
       <c r="Q139" s="50"/>
       <c r="R139" s="50"/>
     </row>
@@ -9045,13 +8785,13 @@
       <c r="G140" s="55"/>
       <c r="H140" s="50"/>
       <c r="I140" s="57"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="59"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="57"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="57"/>
-      <c r="P140" s="57"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="50"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
       <c r="Q140" s="50"/>
       <c r="R140" s="50"/>
     </row>
@@ -9059,13 +8799,13 @@
       <c r="G141" s="55"/>
       <c r="H141" s="50"/>
       <c r="I141" s="57"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="59"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="57"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="57"/>
-      <c r="P141" s="57"/>
+      <c r="J141" s="59"/>
+      <c r="K141" s="58"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
       <c r="Q141" s="50"/>
       <c r="R141" s="50"/>
     </row>
@@ -9073,13 +8813,13 @@
       <c r="G142" s="55"/>
       <c r="H142" s="50"/>
       <c r="I142" s="57"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="59"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="57"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="57"/>
-      <c r="P142" s="57"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="58"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
       <c r="Q142" s="50"/>
       <c r="R142" s="50"/>
     </row>
@@ -9087,13 +8827,13 @@
       <c r="G143" s="55"/>
       <c r="H143" s="50"/>
       <c r="I143" s="57"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="59"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="57"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="57"/>
-      <c r="P143" s="57"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="50"/>
+      <c r="P143" s="50"/>
       <c r="Q143" s="50"/>
       <c r="R143" s="50"/>
     </row>
@@ -9101,64 +8841,64 @@
       <c r="G144" s="55"/>
       <c r="H144" s="50"/>
       <c r="I144" s="57"/>
-      <c r="J144" s="58"/>
-      <c r="K144" s="59"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="57"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="57"/>
-      <c r="P144" s="57"/>
+      <c r="J144" s="59"/>
+      <c r="K144" s="58"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
       <c r="Q144" s="50"/>
       <c r="R144" s="50"/>
     </row>
     <row r="145" spans="7:18" ht="32" customHeight="1">
-      <c r="G145" s="55"/>
+      <c r="G145" s="50"/>
       <c r="H145" s="50"/>
       <c r="I145" s="57"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="59"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="57"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="57"/>
-      <c r="P145" s="57"/>
+      <c r="J145" s="59"/>
+      <c r="K145" s="58"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+      <c r="N145" s="50"/>
+      <c r="O145" s="50"/>
+      <c r="P145" s="50"/>
       <c r="Q145" s="50"/>
       <c r="R145" s="50"/>
     </row>
     <row r="146" spans="7:18" ht="32" customHeight="1">
-      <c r="G146" s="55"/>
+      <c r="G146" s="50"/>
       <c r="H146" s="50"/>
       <c r="I146" s="57"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="59"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="57"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="57"/>
-      <c r="P146" s="57"/>
+      <c r="J146" s="59"/>
+      <c r="K146" s="58"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
+      <c r="P146" s="50"/>
       <c r="Q146" s="50"/>
       <c r="R146" s="50"/>
     </row>
     <row r="147" spans="7:18" ht="32" customHeight="1">
-      <c r="G147" s="55"/>
+      <c r="G147" s="50"/>
       <c r="H147" s="50"/>
       <c r="I147" s="57"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="59"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="57"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="57"/>
-      <c r="P147" s="57"/>
+      <c r="J147" s="59"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
+      <c r="P147" s="50"/>
       <c r="Q147" s="50"/>
       <c r="R147" s="50"/>
     </row>
     <row r="148" spans="7:18" ht="32" customHeight="1">
-      <c r="G148" s="55"/>
+      <c r="G148" s="50"/>
       <c r="H148" s="50"/>
       <c r="I148" s="57"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="59"/>
+      <c r="J148" s="59"/>
+      <c r="K148" s="58"/>
       <c r="L148" s="50"/>
       <c r="M148" s="50"/>
       <c r="N148" s="50"/>
@@ -9168,11 +8908,11 @@
       <c r="R148" s="50"/>
     </row>
     <row r="149" spans="7:18" ht="32" customHeight="1">
-      <c r="G149" s="55"/>
+      <c r="G149" s="50"/>
       <c r="H149" s="50"/>
       <c r="I149" s="57"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="59"/>
+      <c r="J149" s="59"/>
+      <c r="K149" s="58"/>
       <c r="L149" s="50"/>
       <c r="M149" s="50"/>
       <c r="N149" s="50"/>
@@ -9182,11 +8922,11 @@
       <c r="R149" s="50"/>
     </row>
     <row r="150" spans="7:18" ht="32" customHeight="1">
-      <c r="G150" s="55"/>
+      <c r="G150" s="50"/>
       <c r="H150" s="50"/>
       <c r="I150" s="57"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="58"/>
       <c r="L150" s="50"/>
       <c r="M150" s="50"/>
       <c r="N150" s="50"/>
@@ -9196,11 +8936,11 @@
       <c r="R150" s="50"/>
     </row>
     <row r="151" spans="7:18" ht="32" customHeight="1">
-      <c r="G151" s="55"/>
+      <c r="G151" s="50"/>
       <c r="H151" s="50"/>
       <c r="I151" s="57"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="58"/>
       <c r="L151" s="50"/>
       <c r="M151" s="50"/>
       <c r="N151" s="50"/>
@@ -9210,11 +8950,11 @@
       <c r="R151" s="50"/>
     </row>
     <row r="152" spans="7:18" ht="32" customHeight="1">
-      <c r="G152" s="55"/>
+      <c r="G152" s="50"/>
       <c r="H152" s="50"/>
       <c r="I152" s="57"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="58"/>
       <c r="L152" s="50"/>
       <c r="M152" s="50"/>
       <c r="N152" s="50"/>
@@ -9224,11 +8964,11 @@
       <c r="R152" s="50"/>
     </row>
     <row r="153" spans="7:18" ht="32" customHeight="1">
-      <c r="G153" s="55"/>
+      <c r="G153" s="50"/>
       <c r="H153" s="50"/>
       <c r="I153" s="57"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="58"/>
       <c r="L153" s="50"/>
       <c r="M153" s="50"/>
       <c r="N153" s="50"/>
@@ -9238,11 +8978,11 @@
       <c r="R153" s="50"/>
     </row>
     <row r="154" spans="7:18" ht="32" customHeight="1">
-      <c r="G154" s="55"/>
+      <c r="G154" s="50"/>
       <c r="H154" s="50"/>
       <c r="I154" s="57"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="58"/>
       <c r="L154" s="50"/>
       <c r="M154" s="50"/>
       <c r="N154" s="50"/>
@@ -9252,11 +8992,11 @@
       <c r="R154" s="50"/>
     </row>
     <row r="155" spans="7:18" ht="32" customHeight="1">
-      <c r="G155" s="55"/>
+      <c r="G155" s="50"/>
       <c r="H155" s="50"/>
       <c r="I155" s="57"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="59"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="58"/>
       <c r="L155" s="50"/>
       <c r="M155" s="50"/>
       <c r="N155" s="50"/>
@@ -9266,11 +9006,11 @@
       <c r="R155" s="50"/>
     </row>
     <row r="156" spans="7:18" ht="32" customHeight="1">
-      <c r="G156" s="55"/>
+      <c r="G156" s="50"/>
       <c r="H156" s="50"/>
       <c r="I156" s="57"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="59"/>
+      <c r="J156" s="59"/>
+      <c r="K156" s="58"/>
       <c r="L156" s="50"/>
       <c r="M156" s="50"/>
       <c r="N156" s="50"/>
@@ -9280,11 +9020,11 @@
       <c r="R156" s="50"/>
     </row>
     <row r="157" spans="7:18" ht="32" customHeight="1">
-      <c r="G157" s="55"/>
+      <c r="G157" s="50"/>
       <c r="H157" s="50"/>
       <c r="I157" s="57"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="59"/>
+      <c r="J157" s="59"/>
+      <c r="K157" s="58"/>
       <c r="L157" s="50"/>
       <c r="M157" s="50"/>
       <c r="N157" s="50"/>
@@ -9294,11 +9034,11 @@
       <c r="R157" s="50"/>
     </row>
     <row r="158" spans="7:18" ht="32" customHeight="1">
-      <c r="G158" s="55"/>
+      <c r="G158" s="50"/>
       <c r="H158" s="50"/>
       <c r="I158" s="57"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="59"/>
+      <c r="J158" s="59"/>
+      <c r="K158" s="58"/>
       <c r="L158" s="50"/>
       <c r="M158" s="50"/>
       <c r="N158" s="50"/>
@@ -9308,11 +9048,11 @@
       <c r="R158" s="50"/>
     </row>
     <row r="159" spans="7:18" ht="32" customHeight="1">
-      <c r="G159" s="55"/>
+      <c r="G159" s="50"/>
       <c r="H159" s="50"/>
       <c r="I159" s="57"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="59"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="58"/>
       <c r="L159" s="50"/>
       <c r="M159" s="50"/>
       <c r="N159" s="50"/>
@@ -9322,11 +9062,11 @@
       <c r="R159" s="50"/>
     </row>
     <row r="160" spans="7:18" ht="32" customHeight="1">
-      <c r="G160" s="55"/>
+      <c r="G160" s="50"/>
       <c r="H160" s="50"/>
       <c r="I160" s="57"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="59"/>
+      <c r="J160" s="59"/>
+      <c r="K160" s="58"/>
       <c r="L160" s="50"/>
       <c r="M160" s="50"/>
       <c r="N160" s="50"/>
@@ -9336,11 +9076,11 @@
       <c r="R160" s="50"/>
     </row>
     <row r="161" spans="7:18" ht="32" customHeight="1">
-      <c r="G161" s="55"/>
+      <c r="G161" s="50"/>
       <c r="H161" s="50"/>
       <c r="I161" s="57"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="59"/>
+      <c r="J161" s="59"/>
+      <c r="K161" s="58"/>
       <c r="L161" s="50"/>
       <c r="M161" s="50"/>
       <c r="N161" s="50"/>
@@ -9350,11 +9090,11 @@
       <c r="R161" s="50"/>
     </row>
     <row r="162" spans="7:18" ht="32" customHeight="1">
-      <c r="G162" s="55"/>
+      <c r="G162" s="50"/>
       <c r="H162" s="50"/>
       <c r="I162" s="57"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="59"/>
+      <c r="J162" s="59"/>
+      <c r="K162" s="58"/>
       <c r="L162" s="50"/>
       <c r="M162" s="50"/>
       <c r="N162" s="50"/>
@@ -9364,11 +9104,11 @@
       <c r="R162" s="50"/>
     </row>
     <row r="163" spans="7:18" ht="32" customHeight="1">
-      <c r="G163" s="55"/>
+      <c r="G163" s="50"/>
       <c r="H163" s="50"/>
       <c r="I163" s="57"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="59"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="58"/>
       <c r="L163" s="50"/>
       <c r="M163" s="50"/>
       <c r="N163" s="50"/>
@@ -9378,11 +9118,11 @@
       <c r="R163" s="50"/>
     </row>
     <row r="164" spans="7:18" ht="32" customHeight="1">
-      <c r="G164" s="55"/>
+      <c r="G164" s="50"/>
       <c r="H164" s="50"/>
       <c r="I164" s="57"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="59"/>
+      <c r="J164" s="59"/>
+      <c r="K164" s="58"/>
       <c r="L164" s="50"/>
       <c r="M164" s="50"/>
       <c r="N164" s="50"/>
@@ -9392,11 +9132,11 @@
       <c r="R164" s="50"/>
     </row>
     <row r="165" spans="7:18" ht="32" customHeight="1">
-      <c r="G165" s="55"/>
+      <c r="G165" s="50"/>
       <c r="H165" s="50"/>
       <c r="I165" s="57"/>
-      <c r="J165" s="58"/>
-      <c r="K165" s="59"/>
+      <c r="J165" s="59"/>
+      <c r="K165" s="58"/>
       <c r="L165" s="50"/>
       <c r="M165" s="50"/>
       <c r="N165" s="50"/>
@@ -9406,11 +9146,11 @@
       <c r="R165" s="50"/>
     </row>
     <row r="166" spans="7:18" ht="32" customHeight="1">
-      <c r="G166" s="55"/>
+      <c r="G166" s="50"/>
       <c r="H166" s="50"/>
       <c r="I166" s="57"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="58"/>
       <c r="L166" s="50"/>
       <c r="M166" s="50"/>
       <c r="N166" s="50"/>
@@ -9423,8 +9163,8 @@
       <c r="G167" s="50"/>
       <c r="H167" s="50"/>
       <c r="I167" s="57"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="59"/>
+      <c r="J167" s="59"/>
+      <c r="K167" s="58"/>
       <c r="L167" s="50"/>
       <c r="M167" s="50"/>
       <c r="N167" s="50"/>
@@ -9437,8 +9177,8 @@
       <c r="G168" s="50"/>
       <c r="H168" s="50"/>
       <c r="I168" s="57"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="59"/>
+      <c r="J168" s="59"/>
+      <c r="K168" s="58"/>
       <c r="L168" s="50"/>
       <c r="M168" s="50"/>
       <c r="N168" s="50"/>
@@ -9451,8 +9191,8 @@
       <c r="G169" s="50"/>
       <c r="H169" s="50"/>
       <c r="I169" s="57"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="59"/>
+      <c r="J169" s="59"/>
+      <c r="K169" s="58"/>
       <c r="L169" s="50"/>
       <c r="M169" s="50"/>
       <c r="N169" s="50"/>
@@ -9465,8 +9205,8 @@
       <c r="G170" s="50"/>
       <c r="H170" s="50"/>
       <c r="I170" s="57"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="58"/>
       <c r="L170" s="50"/>
       <c r="M170" s="50"/>
       <c r="N170" s="50"/>
@@ -9479,8 +9219,8 @@
       <c r="G171" s="50"/>
       <c r="H171" s="50"/>
       <c r="I171" s="57"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="58"/>
       <c r="L171" s="50"/>
       <c r="M171" s="50"/>
       <c r="N171" s="50"/>
@@ -9493,8 +9233,8 @@
       <c r="G172" s="50"/>
       <c r="H172" s="50"/>
       <c r="I172" s="57"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="58"/>
       <c r="L172" s="50"/>
       <c r="M172" s="50"/>
       <c r="N172" s="50"/>
@@ -9507,8 +9247,8 @@
       <c r="G173" s="50"/>
       <c r="H173" s="50"/>
       <c r="I173" s="57"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="59"/>
+      <c r="J173" s="59"/>
+      <c r="K173" s="58"/>
       <c r="L173" s="50"/>
       <c r="M173" s="50"/>
       <c r="N173" s="50"/>
@@ -9521,8 +9261,8 @@
       <c r="G174" s="50"/>
       <c r="H174" s="50"/>
       <c r="I174" s="57"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="59"/>
+      <c r="J174" s="59"/>
+      <c r="K174" s="58"/>
       <c r="L174" s="50"/>
       <c r="M174" s="50"/>
       <c r="N174" s="50"/>
@@ -9535,8 +9275,8 @@
       <c r="G175" s="50"/>
       <c r="H175" s="50"/>
       <c r="I175" s="57"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="59"/>
+      <c r="J175" s="59"/>
+      <c r="K175" s="58"/>
       <c r="L175" s="50"/>
       <c r="M175" s="50"/>
       <c r="N175" s="50"/>
@@ -9549,8 +9289,8 @@
       <c r="G176" s="50"/>
       <c r="H176" s="50"/>
       <c r="I176" s="57"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="59"/>
+      <c r="J176" s="59"/>
+      <c r="K176" s="58"/>
       <c r="L176" s="50"/>
       <c r="M176" s="50"/>
       <c r="N176" s="50"/>
@@ -9563,8 +9303,8 @@
       <c r="G177" s="50"/>
       <c r="H177" s="50"/>
       <c r="I177" s="57"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="J177" s="59"/>
+      <c r="K177" s="58"/>
       <c r="L177" s="50"/>
       <c r="M177" s="50"/>
       <c r="N177" s="50"/>
@@ -9577,8 +9317,8 @@
       <c r="G178" s="50"/>
       <c r="H178" s="50"/>
       <c r="I178" s="57"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="59"/>
+      <c r="J178" s="59"/>
+      <c r="K178" s="58"/>
       <c r="L178" s="50"/>
       <c r="M178" s="50"/>
       <c r="N178" s="50"/>
@@ -9591,8 +9331,8 @@
       <c r="G179" s="50"/>
       <c r="H179" s="50"/>
       <c r="I179" s="57"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="59"/>
+      <c r="J179" s="59"/>
+      <c r="K179" s="58"/>
       <c r="L179" s="50"/>
       <c r="M179" s="50"/>
       <c r="N179" s="50"/>
@@ -9605,8 +9345,8 @@
       <c r="G180" s="50"/>
       <c r="H180" s="50"/>
       <c r="I180" s="57"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="58"/>
       <c r="L180" s="50"/>
       <c r="M180" s="50"/>
       <c r="N180" s="50"/>
@@ -9619,8 +9359,8 @@
       <c r="G181" s="50"/>
       <c r="H181" s="50"/>
       <c r="I181" s="57"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="59"/>
+      <c r="J181" s="59"/>
+      <c r="K181" s="58"/>
       <c r="L181" s="50"/>
       <c r="M181" s="50"/>
       <c r="N181" s="50"/>
@@ -9633,8 +9373,8 @@
       <c r="G182" s="50"/>
       <c r="H182" s="50"/>
       <c r="I182" s="57"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="59"/>
+      <c r="J182" s="59"/>
+      <c r="K182" s="58"/>
       <c r="L182" s="50"/>
       <c r="M182" s="50"/>
       <c r="N182" s="50"/>
@@ -9647,8 +9387,8 @@
       <c r="G183" s="50"/>
       <c r="H183" s="50"/>
       <c r="I183" s="57"/>
-      <c r="J183" s="58"/>
-      <c r="K183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="58"/>
       <c r="L183" s="50"/>
       <c r="M183" s="50"/>
       <c r="N183" s="50"/>
@@ -9661,8 +9401,8 @@
       <c r="G184" s="50"/>
       <c r="H184" s="50"/>
       <c r="I184" s="57"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="58"/>
       <c r="L184" s="50"/>
       <c r="M184" s="50"/>
       <c r="N184" s="50"/>
@@ -9675,8 +9415,8 @@
       <c r="G185" s="50"/>
       <c r="H185" s="50"/>
       <c r="I185" s="57"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="58"/>
       <c r="L185" s="50"/>
       <c r="M185" s="50"/>
       <c r="N185" s="50"/>
@@ -9689,8 +9429,8 @@
       <c r="G186" s="50"/>
       <c r="H186" s="50"/>
       <c r="I186" s="57"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="58"/>
       <c r="L186" s="50"/>
       <c r="M186" s="50"/>
       <c r="N186" s="50"/>
@@ -9703,8 +9443,8 @@
       <c r="G187" s="50"/>
       <c r="H187" s="50"/>
       <c r="I187" s="57"/>
-      <c r="J187" s="58"/>
-      <c r="K187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="58"/>
       <c r="L187" s="50"/>
       <c r="M187" s="50"/>
       <c r="N187" s="50"/>
@@ -9717,8 +9457,8 @@
       <c r="G188" s="50"/>
       <c r="H188" s="50"/>
       <c r="I188" s="57"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="58"/>
       <c r="L188" s="50"/>
       <c r="M188" s="50"/>
       <c r="N188" s="50"/>
@@ -9731,8 +9471,8 @@
       <c r="G189" s="50"/>
       <c r="H189" s="50"/>
       <c r="I189" s="57"/>
-      <c r="J189" s="58"/>
-      <c r="K189" s="59"/>
+      <c r="J189" s="59"/>
+      <c r="K189" s="58"/>
       <c r="L189" s="50"/>
       <c r="M189" s="50"/>
       <c r="N189" s="50"/>
@@ -9742,1250 +9482,940 @@
       <c r="R189" s="50"/>
     </row>
     <row r="190" spans="7:18" ht="32" customHeight="1">
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
-      <c r="I190" s="57"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="59"/>
-      <c r="L190" s="50"/>
-      <c r="M190" s="50"/>
-      <c r="N190" s="50"/>
-      <c r="O190" s="50"/>
-      <c r="P190" s="50"/>
-      <c r="Q190" s="50"/>
-      <c r="R190" s="50"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
+      <c r="K190" s="22"/>
     </row>
     <row r="191" spans="7:18" ht="32" customHeight="1">
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-      <c r="I191" s="57"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="50"/>
-      <c r="M191" s="50"/>
-      <c r="N191" s="50"/>
-      <c r="O191" s="50"/>
-      <c r="P191" s="50"/>
-      <c r="Q191" s="50"/>
-      <c r="R191" s="50"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
+      <c r="K191" s="22"/>
     </row>
     <row r="192" spans="7:18" ht="32" customHeight="1">
-      <c r="G192" s="50"/>
-      <c r="H192" s="50"/>
-      <c r="I192" s="57"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="59"/>
-      <c r="L192" s="50"/>
-      <c r="M192" s="50"/>
-      <c r="N192" s="50"/>
-      <c r="O192" s="50"/>
-      <c r="P192" s="50"/>
-      <c r="Q192" s="50"/>
-      <c r="R192" s="50"/>
-    </row>
-    <row r="193" spans="7:18" ht="32" customHeight="1">
-      <c r="G193" s="50"/>
-      <c r="H193" s="50"/>
-      <c r="I193" s="57"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="59"/>
-      <c r="L193" s="50"/>
-      <c r="M193" s="50"/>
-      <c r="N193" s="50"/>
-      <c r="O193" s="50"/>
-      <c r="P193" s="50"/>
-      <c r="Q193" s="50"/>
-      <c r="R193" s="50"/>
-    </row>
-    <row r="194" spans="7:18" ht="32" customHeight="1">
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
-      <c r="I194" s="57"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="59"/>
-      <c r="L194" s="50"/>
-      <c r="M194" s="50"/>
-      <c r="N194" s="50"/>
-      <c r="O194" s="50"/>
-      <c r="P194" s="50"/>
-      <c r="Q194" s="50"/>
-      <c r="R194" s="50"/>
-    </row>
-    <row r="195" spans="7:18" ht="32" customHeight="1">
-      <c r="G195" s="50"/>
-      <c r="H195" s="50"/>
-      <c r="I195" s="57"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="59"/>
-      <c r="L195" s="50"/>
-      <c r="M195" s="50"/>
-      <c r="N195" s="50"/>
-      <c r="O195" s="50"/>
-      <c r="P195" s="50"/>
-      <c r="Q195" s="50"/>
-      <c r="R195" s="50"/>
-    </row>
-    <row r="196" spans="7:18" ht="32" customHeight="1">
-      <c r="G196" s="50"/>
-      <c r="H196" s="50"/>
-      <c r="I196" s="57"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="59"/>
-      <c r="L196" s="50"/>
-      <c r="M196" s="50"/>
-      <c r="N196" s="50"/>
-      <c r="O196" s="50"/>
-      <c r="P196" s="50"/>
-      <c r="Q196" s="50"/>
-      <c r="R196" s="50"/>
-    </row>
-    <row r="197" spans="7:18" ht="32" customHeight="1">
-      <c r="G197" s="50"/>
-      <c r="H197" s="50"/>
-      <c r="I197" s="57"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="59"/>
-      <c r="L197" s="50"/>
-      <c r="M197" s="50"/>
-      <c r="N197" s="50"/>
-      <c r="O197" s="50"/>
-      <c r="P197" s="50"/>
-      <c r="Q197" s="50"/>
-      <c r="R197" s="50"/>
-    </row>
-    <row r="198" spans="7:18" ht="32" customHeight="1">
-      <c r="G198" s="50"/>
-      <c r="H198" s="50"/>
-      <c r="I198" s="57"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="59"/>
-      <c r="L198" s="50"/>
-      <c r="M198" s="50"/>
-      <c r="N198" s="50"/>
-      <c r="O198" s="50"/>
-      <c r="P198" s="50"/>
-      <c r="Q198" s="50"/>
-      <c r="R198" s="50"/>
-    </row>
-    <row r="199" spans="7:18" ht="32" customHeight="1">
-      <c r="G199" s="50"/>
-      <c r="H199" s="50"/>
-      <c r="I199" s="57"/>
-      <c r="J199" s="58"/>
-      <c r="K199" s="59"/>
-      <c r="L199" s="50"/>
-      <c r="M199" s="50"/>
-      <c r="N199" s="50"/>
-      <c r="O199" s="50"/>
-      <c r="P199" s="50"/>
-      <c r="Q199" s="50"/>
-      <c r="R199" s="50"/>
-    </row>
-    <row r="200" spans="7:18" ht="32" customHeight="1">
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
-      <c r="I200" s="57"/>
-      <c r="J200" s="58"/>
-      <c r="K200" s="59"/>
-      <c r="L200" s="50"/>
-      <c r="M200" s="50"/>
-      <c r="N200" s="50"/>
-      <c r="O200" s="50"/>
-      <c r="P200" s="50"/>
-      <c r="Q200" s="50"/>
-      <c r="R200" s="50"/>
-    </row>
-    <row r="201" spans="7:18" ht="32" customHeight="1">
-      <c r="G201" s="50"/>
-      <c r="H201" s="50"/>
-      <c r="I201" s="57"/>
-      <c r="J201" s="58"/>
-      <c r="K201" s="59"/>
-      <c r="L201" s="50"/>
-      <c r="M201" s="50"/>
-      <c r="N201" s="50"/>
-      <c r="O201" s="50"/>
-      <c r="P201" s="50"/>
-      <c r="Q201" s="50"/>
-      <c r="R201" s="50"/>
-    </row>
-    <row r="202" spans="7:18" ht="32" customHeight="1">
-      <c r="G202" s="50"/>
-      <c r="H202" s="50"/>
-      <c r="I202" s="57"/>
-      <c r="J202" s="58"/>
-      <c r="K202" s="59"/>
-      <c r="L202" s="50"/>
-      <c r="M202" s="50"/>
-      <c r="N202" s="50"/>
-      <c r="O202" s="50"/>
-      <c r="P202" s="50"/>
-      <c r="Q202" s="50"/>
-      <c r="R202" s="50"/>
-    </row>
-    <row r="203" spans="7:18" ht="32" customHeight="1">
-      <c r="G203" s="50"/>
-      <c r="H203" s="50"/>
-      <c r="I203" s="57"/>
-      <c r="J203" s="58"/>
-      <c r="K203" s="59"/>
-      <c r="L203" s="50"/>
-      <c r="M203" s="50"/>
-      <c r="N203" s="50"/>
-      <c r="O203" s="50"/>
-      <c r="P203" s="50"/>
-      <c r="Q203" s="50"/>
-      <c r="R203" s="50"/>
-    </row>
-    <row r="204" spans="7:18" ht="32" customHeight="1">
-      <c r="G204" s="50"/>
-      <c r="H204" s="50"/>
-      <c r="I204" s="57"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="59"/>
-      <c r="L204" s="50"/>
-      <c r="M204" s="50"/>
-      <c r="N204" s="50"/>
-      <c r="O204" s="50"/>
-      <c r="P204" s="50"/>
-      <c r="Q204" s="50"/>
-      <c r="R204" s="50"/>
-    </row>
-    <row r="205" spans="7:18" ht="32" customHeight="1">
-      <c r="G205" s="50"/>
-      <c r="H205" s="50"/>
-      <c r="I205" s="57"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="59"/>
-      <c r="L205" s="50"/>
-      <c r="M205" s="50"/>
-      <c r="N205" s="50"/>
-      <c r="O205" s="50"/>
-      <c r="P205" s="50"/>
-      <c r="Q205" s="50"/>
-      <c r="R205" s="50"/>
-    </row>
-    <row r="206" spans="7:18" ht="32" customHeight="1">
-      <c r="G206" s="50"/>
-      <c r="H206" s="50"/>
-      <c r="I206" s="57"/>
-      <c r="J206" s="58"/>
-      <c r="K206" s="59"/>
-      <c r="L206" s="50"/>
-      <c r="M206" s="50"/>
-      <c r="N206" s="50"/>
-      <c r="O206" s="50"/>
-      <c r="P206" s="50"/>
-      <c r="Q206" s="50"/>
-      <c r="R206" s="50"/>
-    </row>
-    <row r="207" spans="7:18" ht="32" customHeight="1">
-      <c r="G207" s="50"/>
-      <c r="H207" s="50"/>
-      <c r="I207" s="57"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="59"/>
-      <c r="L207" s="50"/>
-      <c r="M207" s="50"/>
-      <c r="N207" s="50"/>
-      <c r="O207" s="50"/>
-      <c r="P207" s="50"/>
-      <c r="Q207" s="50"/>
-      <c r="R207" s="50"/>
-    </row>
-    <row r="208" spans="7:18" ht="32" customHeight="1">
-      <c r="G208" s="50"/>
-      <c r="H208" s="50"/>
-      <c r="I208" s="57"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="59"/>
-      <c r="L208" s="50"/>
-      <c r="M208" s="50"/>
-      <c r="N208" s="50"/>
-      <c r="O208" s="50"/>
-      <c r="P208" s="50"/>
-      <c r="Q208" s="50"/>
-      <c r="R208" s="50"/>
-    </row>
-    <row r="209" spans="7:18" ht="32" customHeight="1">
-      <c r="G209" s="50"/>
-      <c r="H209" s="50"/>
-      <c r="I209" s="57"/>
-      <c r="J209" s="58"/>
-      <c r="K209" s="59"/>
-      <c r="L209" s="50"/>
-      <c r="M209" s="50"/>
-      <c r="N209" s="50"/>
-      <c r="O209" s="50"/>
-      <c r="P209" s="50"/>
-      <c r="Q209" s="50"/>
-      <c r="R209" s="50"/>
-    </row>
-    <row r="210" spans="7:18" ht="32" customHeight="1">
-      <c r="G210" s="50"/>
-      <c r="H210" s="50"/>
-      <c r="I210" s="57"/>
-      <c r="J210" s="58"/>
-      <c r="K210" s="59"/>
-      <c r="L210" s="50"/>
-      <c r="M210" s="50"/>
-      <c r="N210" s="50"/>
-      <c r="O210" s="50"/>
-      <c r="P210" s="50"/>
-      <c r="Q210" s="50"/>
-      <c r="R210" s="50"/>
-    </row>
-    <row r="211" spans="7:18" ht="32" customHeight="1">
-      <c r="G211" s="50"/>
-      <c r="H211" s="50"/>
-      <c r="I211" s="57"/>
-      <c r="J211" s="58"/>
-      <c r="K211" s="59"/>
-      <c r="L211" s="50"/>
-      <c r="M211" s="50"/>
-      <c r="N211" s="50"/>
-      <c r="O211" s="50"/>
-      <c r="P211" s="50"/>
-      <c r="Q211" s="50"/>
-      <c r="R211" s="50"/>
-    </row>
-    <row r="212" spans="7:18" ht="32" customHeight="1">
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
+      <c r="K192" s="22"/>
+    </row>
+    <row r="193" spans="9:11" ht="32" customHeight="1">
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
+      <c r="K193" s="22"/>
+    </row>
+    <row r="194" spans="9:11" ht="32" customHeight="1">
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
+      <c r="K194" s="22"/>
+    </row>
+    <row r="195" spans="9:11" ht="32" customHeight="1">
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
+      <c r="K195" s="22"/>
+    </row>
+    <row r="196" spans="9:11" ht="32" customHeight="1">
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="22"/>
+    </row>
+    <row r="197" spans="9:11" ht="32" customHeight="1">
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
+      <c r="K197" s="22"/>
+    </row>
+    <row r="198" spans="9:11" ht="32" customHeight="1">
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
+      <c r="K198" s="22"/>
+    </row>
+    <row r="199" spans="9:11" ht="32" customHeight="1">
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
+      <c r="K199" s="22"/>
+    </row>
+    <row r="200" spans="9:11" ht="32" customHeight="1">
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
+      <c r="K200" s="22"/>
+    </row>
+    <row r="201" spans="9:11" ht="32" customHeight="1">
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
+      <c r="K201" s="22"/>
+    </row>
+    <row r="202" spans="9:11" ht="32" customHeight="1">
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
+      <c r="K202" s="22"/>
+    </row>
+    <row r="203" spans="9:11" ht="32" customHeight="1">
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
+      <c r="K203" s="22"/>
+    </row>
+    <row r="204" spans="9:11" ht="32" customHeight="1">
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
+      <c r="K204" s="22"/>
+    </row>
+    <row r="205" spans="9:11" ht="32" customHeight="1">
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
+      <c r="K205" s="22"/>
+    </row>
+    <row r="206" spans="9:11" ht="32" customHeight="1">
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
+      <c r="K206" s="22"/>
+    </row>
+    <row r="207" spans="9:11" ht="32" customHeight="1">
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
+      <c r="K207" s="22"/>
+    </row>
+    <row r="208" spans="9:11" ht="32" customHeight="1">
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="22"/>
+    </row>
+    <row r="209" spans="9:11" ht="32" customHeight="1">
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="22"/>
+    </row>
+    <row r="210" spans="9:11" ht="32" customHeight="1">
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
+      <c r="K210" s="22"/>
+    </row>
+    <row r="211" spans="9:11" ht="32" customHeight="1">
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="22"/>
+    </row>
+    <row r="212" spans="9:11" ht="32" customHeight="1">
       <c r="I212" s="20"/>
-      <c r="J212" s="22"/>
-      <c r="K212" s="21"/>
-    </row>
-    <row r="213" spans="7:18" ht="32" customHeight="1">
+      <c r="J212" s="21"/>
+      <c r="K212" s="22"/>
+    </row>
+    <row r="213" spans="9:11" ht="32" customHeight="1">
       <c r="I213" s="20"/>
-      <c r="J213" s="22"/>
-      <c r="K213" s="21"/>
-    </row>
-    <row r="214" spans="7:18" ht="32" customHeight="1">
+      <c r="J213" s="21"/>
+      <c r="K213" s="22"/>
+    </row>
+    <row r="214" spans="9:11" ht="32" customHeight="1">
       <c r="I214" s="20"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="21"/>
-    </row>
-    <row r="215" spans="7:18" ht="32" customHeight="1">
+      <c r="J214" s="21"/>
+      <c r="K214" s="22"/>
+    </row>
+    <row r="215" spans="9:11" ht="32" customHeight="1">
       <c r="I215" s="20"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="21"/>
-    </row>
-    <row r="216" spans="7:18" ht="32" customHeight="1">
+      <c r="J215" s="21"/>
+      <c r="K215" s="22"/>
+    </row>
+    <row r="216" spans="9:11" ht="32" customHeight="1">
       <c r="I216" s="20"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="21"/>
-    </row>
-    <row r="217" spans="7:18" ht="32" customHeight="1">
+      <c r="J216" s="21"/>
+      <c r="K216" s="22"/>
+    </row>
+    <row r="217" spans="9:11" ht="32" customHeight="1">
       <c r="I217" s="20"/>
-      <c r="J217" s="22"/>
-      <c r="K217" s="21"/>
-    </row>
-    <row r="218" spans="7:18" ht="32" customHeight="1">
+      <c r="J217" s="21"/>
+      <c r="K217" s="22"/>
+    </row>
+    <row r="218" spans="9:11" ht="32" customHeight="1">
       <c r="I218" s="20"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="21"/>
-    </row>
-    <row r="219" spans="7:18" ht="32" customHeight="1">
+      <c r="J218" s="21"/>
+      <c r="K218" s="22"/>
+    </row>
+    <row r="219" spans="9:11" ht="32" customHeight="1">
       <c r="I219" s="20"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="21"/>
-    </row>
-    <row r="220" spans="7:18" ht="32" customHeight="1">
+      <c r="J219" s="21"/>
+      <c r="K219" s="22"/>
+    </row>
+    <row r="220" spans="9:11" ht="32" customHeight="1">
       <c r="I220" s="20"/>
-      <c r="J220" s="22"/>
-      <c r="K220" s="21"/>
-    </row>
-    <row r="221" spans="7:18" ht="32" customHeight="1">
+      <c r="J220" s="21"/>
+      <c r="K220" s="22"/>
+    </row>
+    <row r="221" spans="9:11" ht="32" customHeight="1">
       <c r="I221" s="20"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="21"/>
-    </row>
-    <row r="222" spans="7:18" ht="32" customHeight="1">
+      <c r="J221" s="21"/>
+      <c r="K221" s="22"/>
+    </row>
+    <row r="222" spans="9:11" ht="32" customHeight="1">
       <c r="I222" s="20"/>
-      <c r="J222" s="22"/>
-      <c r="K222" s="21"/>
-    </row>
-    <row r="223" spans="7:18" ht="32" customHeight="1">
-      <c r="I223" s="20"/>
-      <c r="J223" s="22"/>
-      <c r="K223" s="21"/>
-    </row>
-    <row r="224" spans="7:18" ht="32" customHeight="1">
-      <c r="I224" s="20"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="21"/>
-    </row>
-    <row r="225" spans="9:11" ht="32" customHeight="1">
-      <c r="I225" s="20"/>
-      <c r="J225" s="22"/>
-      <c r="K225" s="21"/>
-    </row>
-    <row r="226" spans="9:11" ht="32" customHeight="1">
-      <c r="I226" s="20"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="21"/>
-    </row>
-    <row r="227" spans="9:11" ht="32" customHeight="1">
-      <c r="I227" s="20"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="21"/>
-    </row>
-    <row r="228" spans="9:11" ht="32" customHeight="1">
-      <c r="I228" s="20"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="21"/>
-    </row>
-    <row r="229" spans="9:11" ht="32" customHeight="1">
-      <c r="I229" s="20"/>
-      <c r="J229" s="22"/>
-      <c r="K229" s="21"/>
-    </row>
-    <row r="230" spans="9:11" ht="32" customHeight="1">
-      <c r="I230" s="20"/>
-      <c r="J230" s="22"/>
-      <c r="K230" s="21"/>
-    </row>
-    <row r="231" spans="9:11" ht="32" customHeight="1">
-      <c r="I231" s="20"/>
-      <c r="J231" s="22"/>
-      <c r="K231" s="21"/>
-    </row>
-    <row r="232" spans="9:11" ht="32" customHeight="1">
-      <c r="I232" s="20"/>
-      <c r="J232" s="22"/>
-      <c r="K232" s="21"/>
-    </row>
-    <row r="233" spans="9:11" ht="32" customHeight="1">
-      <c r="I233" s="20"/>
-      <c r="J233" s="22"/>
-      <c r="K233" s="21"/>
-    </row>
-    <row r="234" spans="9:11" ht="32" customHeight="1">
-      <c r="I234" s="20"/>
-      <c r="J234" s="22"/>
-      <c r="K234" s="21"/>
-    </row>
-    <row r="235" spans="9:11" ht="32" customHeight="1">
-      <c r="I235" s="20"/>
-      <c r="J235" s="22"/>
-      <c r="K235" s="21"/>
-    </row>
-    <row r="236" spans="9:11" ht="32" customHeight="1">
-      <c r="I236" s="20"/>
-      <c r="J236" s="22"/>
-      <c r="K236" s="21"/>
-    </row>
-    <row r="237" spans="9:11" ht="32" customHeight="1">
-      <c r="I237" s="20"/>
-      <c r="J237" s="22"/>
-      <c r="K237" s="21"/>
-    </row>
-    <row r="238" spans="9:11" ht="32" customHeight="1">
-      <c r="I238" s="20"/>
-      <c r="J238" s="22"/>
-      <c r="K238" s="21"/>
-    </row>
-    <row r="239" spans="9:11" ht="32" customHeight="1">
-      <c r="I239" s="20"/>
-      <c r="J239" s="22"/>
-      <c r="K239" s="21"/>
-    </row>
-    <row r="240" spans="9:11" ht="32" customHeight="1">
-      <c r="I240" s="20"/>
-      <c r="J240" s="22"/>
-      <c r="K240" s="21"/>
-    </row>
-    <row r="241" spans="9:11" ht="32" customHeight="1">
-      <c r="I241" s="20"/>
-      <c r="J241" s="22"/>
-      <c r="K241" s="21"/>
-    </row>
-    <row r="242" spans="9:11" ht="32" customHeight="1">
-      <c r="I242" s="20"/>
-      <c r="J242" s="22"/>
-      <c r="K242" s="21"/>
-    </row>
-    <row r="243" spans="9:11" ht="32" customHeight="1">
-      <c r="I243" s="20"/>
-      <c r="J243" s="22"/>
-      <c r="K243" s="21"/>
-    </row>
-    <row r="244" spans="9:11" ht="32" customHeight="1">
-      <c r="I244" s="20"/>
-      <c r="J244" s="22"/>
-      <c r="K244" s="21"/>
-    </row>
-    <row r="245" spans="9:11" ht="32" customHeight="1">
-      <c r="J245" s="22"/>
-      <c r="K245" s="21"/>
-    </row>
-    <row r="246" spans="9:11" ht="32" customHeight="1">
-      <c r="J246" s="22"/>
-      <c r="K246" s="21"/>
-    </row>
-    <row r="247" spans="9:11" ht="32" customHeight="1">
-      <c r="J247" s="22"/>
-      <c r="K247" s="21"/>
-    </row>
-    <row r="248" spans="9:11" ht="32" customHeight="1">
-      <c r="J248" s="22"/>
-      <c r="K248" s="21"/>
-    </row>
-    <row r="249" spans="9:11" ht="32" customHeight="1">
-      <c r="J249" s="22"/>
-      <c r="K249" s="21"/>
-    </row>
-    <row r="250" spans="9:11" ht="32" customHeight="1">
-      <c r="J250" s="22"/>
-      <c r="K250" s="21"/>
-    </row>
-    <row r="251" spans="9:11" ht="32" customHeight="1">
-      <c r="J251" s="22"/>
-      <c r="K251" s="21"/>
-    </row>
-    <row r="252" spans="9:11" ht="32" customHeight="1">
-      <c r="J252" s="22"/>
-      <c r="K252" s="21"/>
-    </row>
-    <row r="253" spans="9:11" ht="32" customHeight="1">
-      <c r="J253" s="22"/>
-      <c r="K253" s="21"/>
-    </row>
-    <row r="254" spans="9:11" ht="32" customHeight="1">
-      <c r="J254" s="22"/>
-      <c r="K254" s="21"/>
-    </row>
-    <row r="255" spans="9:11" ht="32" customHeight="1">
-      <c r="J255" s="22"/>
-      <c r="K255" s="21"/>
-    </row>
-    <row r="256" spans="9:11" ht="32" customHeight="1">
-      <c r="J256" s="22"/>
-      <c r="K256" s="21"/>
+      <c r="J222" s="21"/>
+      <c r="K222" s="22"/>
+    </row>
+    <row r="223" spans="9:11" ht="32" customHeight="1">
+      <c r="J223" s="21"/>
+      <c r="K223" s="22"/>
+    </row>
+    <row r="224" spans="9:11" ht="32" customHeight="1">
+      <c r="J224" s="21"/>
+      <c r="K224" s="22"/>
+    </row>
+    <row r="225" spans="10:11" ht="32" customHeight="1">
+      <c r="J225" s="21"/>
+      <c r="K225" s="22"/>
+    </row>
+    <row r="226" spans="10:11" ht="32" customHeight="1">
+      <c r="J226" s="21"/>
+      <c r="K226" s="22"/>
+    </row>
+    <row r="227" spans="10:11" ht="32" customHeight="1">
+      <c r="J227" s="21"/>
+      <c r="K227" s="22"/>
+    </row>
+    <row r="228" spans="10:11" ht="32" customHeight="1">
+      <c r="J228" s="21"/>
+      <c r="K228" s="22"/>
+    </row>
+    <row r="229" spans="10:11" ht="32" customHeight="1">
+      <c r="J229" s="21"/>
+      <c r="K229" s="22"/>
+    </row>
+    <row r="230" spans="10:11" ht="32" customHeight="1">
+      <c r="J230" s="21"/>
+      <c r="K230" s="22"/>
+    </row>
+    <row r="231" spans="10:11" ht="32" customHeight="1">
+      <c r="J231" s="21"/>
+      <c r="K231" s="22"/>
+    </row>
+    <row r="232" spans="10:11" ht="32" customHeight="1">
+      <c r="J232" s="21"/>
+      <c r="K232" s="22"/>
+    </row>
+    <row r="233" spans="10:11" ht="32" customHeight="1">
+      <c r="J233" s="21"/>
+      <c r="K233" s="22"/>
+    </row>
+    <row r="234" spans="10:11" ht="32" customHeight="1">
+      <c r="J234" s="21"/>
+      <c r="K234" s="22"/>
+    </row>
+    <row r="235" spans="10:11" ht="32" customHeight="1">
+      <c r="J235" s="21"/>
+      <c r="K235" s="22"/>
+    </row>
+    <row r="236" spans="10:11" ht="32" customHeight="1">
+      <c r="J236" s="21"/>
+      <c r="K236" s="22"/>
+    </row>
+    <row r="237" spans="10:11" ht="32" customHeight="1">
+      <c r="J237" s="21"/>
+      <c r="K237" s="22"/>
+    </row>
+    <row r="238" spans="10:11" ht="32" customHeight="1">
+      <c r="J238" s="21"/>
+      <c r="K238" s="22"/>
+    </row>
+    <row r="239" spans="10:11" ht="32" customHeight="1">
+      <c r="J239" s="21"/>
+      <c r="K239" s="22"/>
+    </row>
+    <row r="240" spans="10:11" ht="32" customHeight="1">
+      <c r="J240" s="21"/>
+      <c r="K240" s="22"/>
+    </row>
+    <row r="241" spans="10:11" ht="32" customHeight="1">
+      <c r="J241" s="21"/>
+      <c r="K241" s="22"/>
+    </row>
+    <row r="242" spans="10:11" ht="32" customHeight="1">
+      <c r="J242" s="21"/>
+      <c r="K242" s="22"/>
+    </row>
+    <row r="243" spans="10:11" ht="32" customHeight="1">
+      <c r="J243" s="21"/>
+      <c r="K243" s="22"/>
+    </row>
+    <row r="244" spans="10:11" ht="32" customHeight="1">
+      <c r="J244" s="21"/>
+      <c r="K244" s="22"/>
+    </row>
+    <row r="245" spans="10:11" ht="32" customHeight="1">
+      <c r="J245" s="21"/>
+      <c r="K245" s="22"/>
+    </row>
+    <row r="246" spans="10:11" ht="32" customHeight="1">
+      <c r="J246" s="21"/>
+      <c r="K246" s="22"/>
+    </row>
+    <row r="247" spans="10:11" ht="32" customHeight="1">
+      <c r="J247" s="21"/>
+      <c r="K247" s="22"/>
+    </row>
+    <row r="248" spans="10:11" ht="32" customHeight="1">
+      <c r="J248" s="21"/>
+      <c r="K248" s="22"/>
+    </row>
+    <row r="249" spans="10:11" ht="32" customHeight="1">
+      <c r="J249" s="21"/>
+      <c r="K249" s="22"/>
+    </row>
+    <row r="250" spans="10:11" ht="32" customHeight="1">
+      <c r="J250" s="21"/>
+      <c r="K250" s="22"/>
+    </row>
+    <row r="251" spans="10:11" ht="32" customHeight="1">
+      <c r="J251" s="21"/>
+      <c r="K251" s="22"/>
+    </row>
+    <row r="252" spans="10:11" ht="32" customHeight="1">
+      <c r="J252" s="21"/>
+      <c r="K252" s="22"/>
+    </row>
+    <row r="253" spans="10:11" ht="32" customHeight="1">
+      <c r="J253" s="21"/>
+      <c r="K253" s="22"/>
+    </row>
+    <row r="254" spans="10:11" ht="32" customHeight="1">
+      <c r="J254" s="21"/>
+      <c r="K254" s="22"/>
+    </row>
+    <row r="255" spans="10:11" ht="32" customHeight="1">
+      <c r="J255" s="21"/>
+      <c r="K255" s="22"/>
+    </row>
+    <row r="256" spans="10:11" ht="32" customHeight="1">
+      <c r="J256" s="21"/>
+      <c r="K256" s="22"/>
     </row>
     <row r="257" spans="10:11" ht="32" customHeight="1">
-      <c r="J257" s="22"/>
-      <c r="K257" s="21"/>
+      <c r="J257" s="21"/>
+      <c r="K257" s="22"/>
     </row>
     <row r="258" spans="10:11" ht="32" customHeight="1">
-      <c r="J258" s="22"/>
-      <c r="K258" s="21"/>
+      <c r="J258" s="21"/>
+      <c r="K258" s="22"/>
     </row>
     <row r="259" spans="10:11" ht="32" customHeight="1">
-      <c r="J259" s="22"/>
-      <c r="K259" s="21"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="22"/>
     </row>
     <row r="260" spans="10:11" ht="32" customHeight="1">
-      <c r="J260" s="22"/>
-      <c r="K260" s="21"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="22"/>
     </row>
     <row r="261" spans="10:11" ht="32" customHeight="1">
-      <c r="J261" s="22"/>
-      <c r="K261" s="21"/>
+      <c r="J261" s="21"/>
+      <c r="K261" s="22"/>
     </row>
     <row r="262" spans="10:11" ht="32" customHeight="1">
-      <c r="J262" s="22"/>
-      <c r="K262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="22"/>
     </row>
     <row r="263" spans="10:11" ht="32" customHeight="1">
-      <c r="J263" s="22"/>
-      <c r="K263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="22"/>
     </row>
     <row r="264" spans="10:11" ht="32" customHeight="1">
-      <c r="J264" s="22"/>
-      <c r="K264" s="21"/>
+      <c r="J264" s="21"/>
+      <c r="K264" s="22"/>
     </row>
     <row r="265" spans="10:11" ht="32" customHeight="1">
-      <c r="J265" s="22"/>
-      <c r="K265" s="21"/>
+      <c r="J265" s="21"/>
+      <c r="K265" s="22"/>
     </row>
     <row r="266" spans="10:11" ht="32" customHeight="1">
-      <c r="J266" s="22"/>
-      <c r="K266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="22"/>
     </row>
     <row r="267" spans="10:11" ht="32" customHeight="1">
-      <c r="J267" s="22"/>
-      <c r="K267" s="21"/>
+      <c r="J267" s="21"/>
+      <c r="K267" s="22"/>
     </row>
     <row r="268" spans="10:11" ht="32" customHeight="1">
-      <c r="J268" s="22"/>
-      <c r="K268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="22"/>
     </row>
     <row r="269" spans="10:11" ht="32" customHeight="1">
-      <c r="J269" s="22"/>
-      <c r="K269" s="21"/>
+      <c r="J269" s="21"/>
+      <c r="K269" s="22"/>
     </row>
     <row r="270" spans="10:11" ht="32" customHeight="1">
-      <c r="J270" s="22"/>
-      <c r="K270" s="21"/>
+      <c r="J270" s="21"/>
+      <c r="K270" s="22"/>
     </row>
     <row r="271" spans="10:11" ht="32" customHeight="1">
-      <c r="J271" s="22"/>
-      <c r="K271" s="21"/>
+      <c r="J271" s="21"/>
+      <c r="K271" s="22"/>
     </row>
     <row r="272" spans="10:11" ht="32" customHeight="1">
-      <c r="J272" s="22"/>
-      <c r="K272" s="21"/>
+      <c r="J272" s="21"/>
+      <c r="K272" s="22"/>
     </row>
     <row r="273" spans="10:11" ht="32" customHeight="1">
-      <c r="J273" s="22"/>
-      <c r="K273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="22"/>
     </row>
     <row r="274" spans="10:11" ht="32" customHeight="1">
-      <c r="J274" s="22"/>
-      <c r="K274" s="21"/>
+      <c r="J274" s="21"/>
+      <c r="K274" s="22"/>
     </row>
     <row r="275" spans="10:11" ht="32" customHeight="1">
-      <c r="J275" s="22"/>
-      <c r="K275" s="21"/>
+      <c r="J275" s="21"/>
+      <c r="K275" s="22"/>
     </row>
     <row r="276" spans="10:11" ht="32" customHeight="1">
-      <c r="J276" s="22"/>
-      <c r="K276" s="21"/>
+      <c r="J276" s="21"/>
+      <c r="K276" s="22"/>
     </row>
     <row r="277" spans="10:11" ht="32" customHeight="1">
-      <c r="J277" s="22"/>
-      <c r="K277" s="21"/>
+      <c r="J277" s="21"/>
+      <c r="K277" s="22"/>
     </row>
     <row r="278" spans="10:11" ht="32" customHeight="1">
-      <c r="J278" s="22"/>
-      <c r="K278" s="21"/>
+      <c r="J278" s="21"/>
+      <c r="K278" s="22"/>
     </row>
     <row r="279" spans="10:11" ht="32" customHeight="1">
-      <c r="J279" s="22"/>
-      <c r="K279" s="21"/>
+      <c r="J279" s="21"/>
+      <c r="K279" s="22"/>
     </row>
     <row r="280" spans="10:11" ht="32" customHeight="1">
-      <c r="J280" s="22"/>
-      <c r="K280" s="21"/>
+      <c r="J280" s="21"/>
+      <c r="K280" s="22"/>
     </row>
     <row r="281" spans="10:11" ht="32" customHeight="1">
-      <c r="J281" s="22"/>
-      <c r="K281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="22"/>
     </row>
     <row r="282" spans="10:11" ht="32" customHeight="1">
-      <c r="J282" s="22"/>
-      <c r="K282" s="21"/>
+      <c r="J282" s="21"/>
+      <c r="K282" s="22"/>
     </row>
     <row r="283" spans="10:11" ht="32" customHeight="1">
-      <c r="J283" s="22"/>
-      <c r="K283" s="21"/>
+      <c r="J283" s="21"/>
+      <c r="K283" s="22"/>
     </row>
     <row r="284" spans="10:11" ht="32" customHeight="1">
-      <c r="J284" s="22"/>
-      <c r="K284" s="21"/>
+      <c r="J284" s="21"/>
+      <c r="K284" s="22"/>
     </row>
     <row r="285" spans="10:11" ht="32" customHeight="1">
-      <c r="J285" s="22"/>
-      <c r="K285" s="21"/>
+      <c r="J285" s="21"/>
+      <c r="K285" s="22"/>
     </row>
     <row r="286" spans="10:11" ht="32" customHeight="1">
-      <c r="J286" s="22"/>
-      <c r="K286" s="21"/>
+      <c r="J286" s="21"/>
+      <c r="K286" s="22"/>
     </row>
     <row r="287" spans="10:11" ht="32" customHeight="1">
-      <c r="J287" s="22"/>
-      <c r="K287" s="21"/>
+      <c r="J287" s="21"/>
+      <c r="K287" s="22"/>
     </row>
     <row r="288" spans="10:11" ht="32" customHeight="1">
-      <c r="J288" s="22"/>
-      <c r="K288" s="21"/>
+      <c r="J288" s="21"/>
+      <c r="K288" s="22"/>
     </row>
     <row r="289" spans="10:11" ht="32" customHeight="1">
-      <c r="J289" s="22"/>
-      <c r="K289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="22"/>
     </row>
     <row r="290" spans="10:11" ht="32" customHeight="1">
-      <c r="J290" s="22"/>
-      <c r="K290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="22"/>
     </row>
     <row r="291" spans="10:11" ht="32" customHeight="1">
-      <c r="J291" s="22"/>
-      <c r="K291" s="21"/>
+      <c r="J291" s="21"/>
+      <c r="K291" s="22"/>
     </row>
     <row r="292" spans="10:11" ht="32" customHeight="1">
-      <c r="J292" s="22"/>
-      <c r="K292" s="21"/>
+      <c r="J292" s="21"/>
+      <c r="K292" s="22"/>
     </row>
     <row r="293" spans="10:11" ht="32" customHeight="1">
-      <c r="J293" s="22"/>
-      <c r="K293" s="21"/>
+      <c r="J293" s="21"/>
+      <c r="K293" s="22"/>
     </row>
     <row r="294" spans="10:11" ht="32" customHeight="1">
-      <c r="J294" s="22"/>
-      <c r="K294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="22"/>
     </row>
     <row r="295" spans="10:11" ht="32" customHeight="1">
-      <c r="J295" s="22"/>
-      <c r="K295" s="21"/>
+      <c r="J295" s="21"/>
+      <c r="K295" s="22"/>
     </row>
     <row r="296" spans="10:11" ht="32" customHeight="1">
-      <c r="J296" s="22"/>
-      <c r="K296" s="21"/>
+      <c r="J296" s="21"/>
+      <c r="K296" s="22"/>
     </row>
     <row r="297" spans="10:11" ht="32" customHeight="1">
-      <c r="J297" s="22"/>
-      <c r="K297" s="21"/>
+      <c r="J297" s="21"/>
+      <c r="K297" s="22"/>
     </row>
     <row r="298" spans="10:11" ht="32" customHeight="1">
-      <c r="J298" s="22"/>
-      <c r="K298" s="21"/>
+      <c r="J298" s="21"/>
+      <c r="K298" s="22"/>
     </row>
     <row r="299" spans="10:11" ht="32" customHeight="1">
-      <c r="J299" s="22"/>
-      <c r="K299" s="21"/>
+      <c r="J299" s="21"/>
+      <c r="K299" s="22"/>
     </row>
     <row r="300" spans="10:11" ht="32" customHeight="1">
-      <c r="J300" s="22"/>
-      <c r="K300" s="21"/>
+      <c r="J300" s="21"/>
+      <c r="K300" s="22"/>
     </row>
     <row r="301" spans="10:11" ht="32" customHeight="1">
-      <c r="J301" s="22"/>
-      <c r="K301" s="21"/>
+      <c r="J301" s="21"/>
+      <c r="K301" s="22"/>
     </row>
     <row r="302" spans="10:11" ht="32" customHeight="1">
-      <c r="J302" s="22"/>
-      <c r="K302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="22"/>
     </row>
     <row r="303" spans="10:11" ht="32" customHeight="1">
-      <c r="J303" s="22"/>
-      <c r="K303" s="21"/>
+      <c r="J303" s="21"/>
+      <c r="K303" s="22"/>
     </row>
     <row r="304" spans="10:11" ht="32" customHeight="1">
-      <c r="J304" s="22"/>
-      <c r="K304" s="21"/>
+      <c r="J304" s="21"/>
+      <c r="K304" s="22"/>
     </row>
     <row r="305" spans="10:11" ht="32" customHeight="1">
-      <c r="J305" s="22"/>
-      <c r="K305" s="21"/>
+      <c r="J305" s="21"/>
+      <c r="K305" s="22"/>
     </row>
     <row r="306" spans="10:11" ht="32" customHeight="1">
-      <c r="J306" s="22"/>
-      <c r="K306" s="21"/>
+      <c r="J306" s="21"/>
+      <c r="K306" s="22"/>
     </row>
     <row r="307" spans="10:11" ht="32" customHeight="1">
-      <c r="J307" s="22"/>
-      <c r="K307" s="21"/>
+      <c r="J307" s="21"/>
+      <c r="K307" s="22"/>
     </row>
     <row r="308" spans="10:11" ht="32" customHeight="1">
-      <c r="J308" s="22"/>
-      <c r="K308" s="21"/>
+      <c r="J308" s="21"/>
+      <c r="K308" s="22"/>
     </row>
     <row r="309" spans="10:11" ht="32" customHeight="1">
-      <c r="J309" s="22"/>
-      <c r="K309" s="21"/>
+      <c r="J309" s="21"/>
+      <c r="K309" s="22"/>
     </row>
     <row r="310" spans="10:11" ht="32" customHeight="1">
-      <c r="J310" s="22"/>
-      <c r="K310" s="21"/>
+      <c r="J310" s="21"/>
+      <c r="K310" s="22"/>
     </row>
     <row r="311" spans="10:11" ht="32" customHeight="1">
-      <c r="J311" s="22"/>
-      <c r="K311" s="21"/>
+      <c r="J311" s="21"/>
+      <c r="K311" s="22"/>
     </row>
     <row r="312" spans="10:11" ht="32" customHeight="1">
-      <c r="J312" s="22"/>
-      <c r="K312" s="21"/>
+      <c r="J312" s="21"/>
+      <c r="K312" s="22"/>
     </row>
     <row r="313" spans="10:11" ht="32" customHeight="1">
-      <c r="J313" s="22"/>
-      <c r="K313" s="21"/>
+      <c r="J313" s="21"/>
+      <c r="K313" s="22"/>
     </row>
     <row r="314" spans="10:11" ht="32" customHeight="1">
-      <c r="J314" s="22"/>
-      <c r="K314" s="21"/>
+      <c r="J314" s="21"/>
+      <c r="K314" s="22"/>
     </row>
     <row r="315" spans="10:11" ht="32" customHeight="1">
-      <c r="J315" s="22"/>
-      <c r="K315" s="21"/>
+      <c r="J315" s="21"/>
+      <c r="K315" s="22"/>
     </row>
     <row r="316" spans="10:11" ht="32" customHeight="1">
-      <c r="J316" s="22"/>
-      <c r="K316" s="21"/>
+      <c r="J316" s="21"/>
+      <c r="K316" s="22"/>
     </row>
     <row r="317" spans="10:11" ht="32" customHeight="1">
-      <c r="J317" s="22"/>
-      <c r="K317" s="21"/>
+      <c r="K317" s="22"/>
     </row>
     <row r="318" spans="10:11" ht="32" customHeight="1">
-      <c r="J318" s="22"/>
-      <c r="K318" s="21"/>
+      <c r="K318" s="22"/>
     </row>
     <row r="319" spans="10:11" ht="32" customHeight="1">
-      <c r="J319" s="22"/>
-      <c r="K319" s="21"/>
+      <c r="K319" s="22"/>
     </row>
     <row r="320" spans="10:11" ht="32" customHeight="1">
-      <c r="J320" s="22"/>
-      <c r="K320" s="21"/>
-    </row>
-    <row r="321" spans="10:11" ht="32" customHeight="1">
-      <c r="J321" s="22"/>
-      <c r="K321" s="21"/>
-    </row>
-    <row r="322" spans="10:11" ht="32" customHeight="1">
-      <c r="J322" s="22"/>
-      <c r="K322" s="21"/>
-    </row>
-    <row r="323" spans="10:11" ht="32" customHeight="1">
-      <c r="J323" s="22"/>
-      <c r="K323" s="21"/>
-    </row>
-    <row r="324" spans="10:11" ht="32" customHeight="1">
-      <c r="J324" s="22"/>
-      <c r="K324" s="21"/>
-    </row>
-    <row r="325" spans="10:11" ht="32" customHeight="1">
-      <c r="J325" s="22"/>
-      <c r="K325" s="21"/>
-    </row>
-    <row r="326" spans="10:11" ht="32" customHeight="1">
-      <c r="J326" s="22"/>
-      <c r="K326" s="21"/>
-    </row>
-    <row r="327" spans="10:11" ht="32" customHeight="1">
-      <c r="J327" s="22"/>
-      <c r="K327" s="21"/>
-    </row>
-    <row r="328" spans="10:11" ht="32" customHeight="1">
-      <c r="J328" s="22"/>
-      <c r="K328" s="21"/>
-    </row>
-    <row r="329" spans="10:11" ht="32" customHeight="1">
-      <c r="J329" s="22"/>
-      <c r="K329" s="21"/>
-    </row>
-    <row r="330" spans="10:11" ht="32" customHeight="1">
-      <c r="J330" s="22"/>
-      <c r="K330" s="21"/>
-    </row>
-    <row r="331" spans="10:11" ht="32" customHeight="1">
-      <c r="J331" s="22"/>
-      <c r="K331" s="21"/>
-    </row>
-    <row r="332" spans="10:11" ht="32" customHeight="1">
-      <c r="J332" s="22"/>
-      <c r="K332" s="21"/>
-    </row>
-    <row r="333" spans="10:11" ht="32" customHeight="1">
-      <c r="J333" s="22"/>
-      <c r="K333" s="21"/>
-    </row>
-    <row r="334" spans="10:11" ht="32" customHeight="1">
-      <c r="J334" s="22"/>
-      <c r="K334" s="21"/>
-    </row>
-    <row r="335" spans="10:11" ht="32" customHeight="1">
-      <c r="J335" s="22"/>
-      <c r="K335" s="21"/>
-    </row>
-    <row r="336" spans="10:11" ht="32" customHeight="1">
-      <c r="J336" s="22"/>
-      <c r="K336" s="21"/>
-    </row>
-    <row r="337" spans="10:11" ht="32" customHeight="1">
-      <c r="J337" s="22"/>
-      <c r="K337" s="21"/>
-    </row>
-    <row r="338" spans="10:11" ht="32" customHeight="1">
-      <c r="J338" s="22"/>
-      <c r="K338" s="21"/>
-    </row>
-    <row r="339" spans="10:11" ht="32" customHeight="1">
-      <c r="J339" s="22"/>
-    </row>
-    <row r="340" spans="10:11" ht="32" customHeight="1">
-      <c r="J340" s="22"/>
-    </row>
-    <row r="341" spans="10:11" ht="32" customHeight="1">
-      <c r="J341" s="22"/>
-    </row>
-    <row r="342" spans="10:11" ht="32" customHeight="1">
-      <c r="J342" s="22"/>
-    </row>
-    <row r="343" spans="10:11" ht="32" customHeight="1">
-      <c r="J343" s="22"/>
-    </row>
-    <row r="344" spans="10:11" ht="32" customHeight="1">
-      <c r="J344" s="22"/>
-    </row>
-    <row r="345" spans="10:11" ht="32" customHeight="1">
-      <c r="J345" s="22"/>
-    </row>
-    <row r="346" spans="10:11" ht="32" customHeight="1">
-      <c r="J346" s="22"/>
-    </row>
-    <row r="347" spans="10:11" ht="32" customHeight="1">
-      <c r="J347" s="22"/>
-    </row>
-    <row r="348" spans="10:11" ht="32" customHeight="1">
-      <c r="J348" s="22"/>
-    </row>
-    <row r="349" spans="10:11" ht="32" customHeight="1">
-      <c r="J349" s="22"/>
-    </row>
-    <row r="350" spans="10:11" ht="32" customHeight="1">
-      <c r="J350" s="22"/>
-    </row>
-    <row r="351" spans="10:11" ht="32" customHeight="1">
-      <c r="J351" s="22"/>
-    </row>
-    <row r="352" spans="10:11" ht="32" customHeight="1">
-      <c r="J352" s="22"/>
-    </row>
-    <row r="353" spans="10:10" ht="32" customHeight="1">
-      <c r="J353" s="22"/>
-    </row>
-    <row r="354" spans="10:10">
-      <c r="J354" s="22"/>
-    </row>
-    <row r="355" spans="10:10">
-      <c r="J355" s="22"/>
-    </row>
-    <row r="356" spans="10:10">
-      <c r="J356" s="22"/>
-    </row>
-    <row r="357" spans="10:10">
-      <c r="J357" s="22"/>
-    </row>
-    <row r="358" spans="10:10">
-      <c r="J358" s="22"/>
-    </row>
-    <row r="359" spans="10:10">
-      <c r="J359" s="22"/>
-    </row>
-    <row r="360" spans="10:10">
-      <c r="J360" s="22"/>
-    </row>
-    <row r="361" spans="10:10">
-      <c r="J361" s="22"/>
-    </row>
-    <row r="362" spans="10:10">
-      <c r="J362" s="22"/>
-    </row>
-    <row r="363" spans="10:10">
-      <c r="J363" s="22"/>
-    </row>
-    <row r="364" spans="10:10">
-      <c r="J364" s="22"/>
-    </row>
-    <row r="365" spans="10:10">
-      <c r="J365" s="22"/>
-    </row>
-    <row r="366" spans="10:10">
-      <c r="J366" s="22"/>
-    </row>
-    <row r="367" spans="10:10">
-      <c r="J367" s="22"/>
-    </row>
-    <row r="368" spans="10:10">
-      <c r="J368" s="22"/>
-    </row>
-    <row r="369" spans="10:10">
-      <c r="J369" s="22"/>
-    </row>
-    <row r="370" spans="10:10">
-      <c r="J370" s="22"/>
-    </row>
-    <row r="371" spans="10:10">
-      <c r="J371" s="22"/>
-    </row>
-    <row r="372" spans="10:10">
-      <c r="J372" s="22"/>
-    </row>
-    <row r="373" spans="10:10">
-      <c r="J373" s="22"/>
-    </row>
-    <row r="374" spans="10:10">
-      <c r="J374" s="22"/>
-    </row>
-    <row r="375" spans="10:10">
-      <c r="J375" s="22"/>
-    </row>
-    <row r="376" spans="10:10">
-      <c r="J376" s="22"/>
-    </row>
-    <row r="377" spans="10:10">
-      <c r="J377" s="22"/>
-    </row>
-    <row r="378" spans="10:10">
-      <c r="J378" s="22"/>
-    </row>
-    <row r="379" spans="10:10">
-      <c r="J379" s="22"/>
-    </row>
-    <row r="380" spans="10:10">
-      <c r="J380" s="22"/>
-    </row>
-    <row r="381" spans="10:10">
-      <c r="J381" s="22"/>
-    </row>
-    <row r="382" spans="10:10">
-      <c r="J382" s="22"/>
-    </row>
-    <row r="383" spans="10:10">
-      <c r="J383" s="22"/>
-    </row>
-    <row r="384" spans="10:10">
-      <c r="J384" s="22"/>
-    </row>
-    <row r="385" spans="10:10">
-      <c r="J385" s="22"/>
-    </row>
-    <row r="386" spans="10:10">
-      <c r="J386" s="22"/>
-    </row>
-    <row r="387" spans="10:10">
-      <c r="J387" s="22"/>
-    </row>
-    <row r="388" spans="10:10">
-      <c r="J388" s="22"/>
-    </row>
-    <row r="389" spans="10:10">
-      <c r="J389" s="22"/>
-    </row>
-    <row r="390" spans="10:10">
-      <c r="J390" s="22"/>
-    </row>
-    <row r="391" spans="10:10">
-      <c r="J391" s="22"/>
-    </row>
-    <row r="392" spans="10:10">
-      <c r="J392" s="22"/>
-    </row>
-    <row r="393" spans="10:10">
-      <c r="J393" s="22"/>
-    </row>
-    <row r="394" spans="10:10">
-      <c r="J394" s="22"/>
-    </row>
-    <row r="395" spans="10:10">
-      <c r="J395" s="22"/>
-    </row>
-    <row r="396" spans="10:10">
-      <c r="J396" s="22"/>
-    </row>
-    <row r="397" spans="10:10">
-      <c r="J397" s="22"/>
-    </row>
-    <row r="398" spans="10:10">
-      <c r="J398" s="22"/>
-    </row>
-    <row r="399" spans="10:10">
-      <c r="J399" s="22"/>
-    </row>
-    <row r="400" spans="10:10">
-      <c r="J400" s="22"/>
-    </row>
-    <row r="401" spans="10:10">
-      <c r="J401" s="22"/>
-    </row>
-    <row r="402" spans="10:10">
-      <c r="J402" s="22"/>
-    </row>
-    <row r="403" spans="10:10">
-      <c r="J403" s="22"/>
-    </row>
-    <row r="404" spans="10:10">
-      <c r="J404" s="22"/>
-    </row>
-    <row r="405" spans="10:10">
-      <c r="J405" s="22"/>
-    </row>
-    <row r="406" spans="10:10">
-      <c r="J406" s="22"/>
-    </row>
-    <row r="407" spans="10:10">
-      <c r="J407" s="22"/>
-    </row>
-    <row r="408" spans="10:10">
-      <c r="J408" s="22"/>
-    </row>
-    <row r="409" spans="10:10">
-      <c r="J409" s="22"/>
-    </row>
-    <row r="410" spans="10:10">
-      <c r="J410" s="22"/>
-    </row>
-    <row r="411" spans="10:10">
-      <c r="J411" s="22"/>
-    </row>
-    <row r="412" spans="10:10">
-      <c r="J412" s="22"/>
-    </row>
-    <row r="413" spans="10:10">
-      <c r="J413" s="22"/>
-    </row>
-    <row r="414" spans="10:10">
-      <c r="J414" s="22"/>
-    </row>
-    <row r="415" spans="10:10">
-      <c r="J415" s="22"/>
-    </row>
-    <row r="416" spans="10:10">
-      <c r="J416" s="22"/>
-    </row>
-    <row r="417" spans="10:10">
-      <c r="J417" s="22"/>
-    </row>
-    <row r="418" spans="10:10">
-      <c r="J418" s="22"/>
-    </row>
-    <row r="419" spans="10:10">
-      <c r="J419" s="22"/>
-    </row>
-    <row r="420" spans="10:10">
-      <c r="J420" s="22"/>
-    </row>
-    <row r="421" spans="10:10">
-      <c r="J421" s="22"/>
-    </row>
-    <row r="422" spans="10:10">
-      <c r="J422" s="22"/>
-    </row>
-    <row r="423" spans="10:10">
-      <c r="J423" s="22"/>
-    </row>
-    <row r="424" spans="10:10">
-      <c r="J424" s="22"/>
-    </row>
-    <row r="425" spans="10:10">
-      <c r="J425" s="22"/>
-    </row>
-    <row r="426" spans="10:10">
-      <c r="J426" s="22"/>
-    </row>
-    <row r="427" spans="10:10">
-      <c r="J427" s="22"/>
-    </row>
-    <row r="428" spans="10:10">
-      <c r="J428" s="22"/>
-    </row>
-    <row r="429" spans="10:10">
-      <c r="J429" s="22"/>
-    </row>
-    <row r="430" spans="10:10">
-      <c r="J430" s="22"/>
-    </row>
-    <row r="431" spans="10:10">
-      <c r="J431" s="22"/>
-    </row>
-    <row r="432" spans="10:10">
-      <c r="J432" s="22"/>
-    </row>
-    <row r="433" spans="10:10">
-      <c r="J433" s="22"/>
-    </row>
-    <row r="434" spans="10:10">
-      <c r="J434" s="22"/>
-    </row>
-    <row r="435" spans="10:10">
-      <c r="J435" s="22"/>
-    </row>
-    <row r="436" spans="10:10">
-      <c r="J436" s="22"/>
-    </row>
-    <row r="437" spans="10:10">
-      <c r="J437" s="22"/>
-    </row>
-    <row r="438" spans="10:10">
-      <c r="J438" s="22"/>
-    </row>
-    <row r="439" spans="10:10">
-      <c r="J439" s="22"/>
-    </row>
-    <row r="440" spans="10:10">
-      <c r="J440" s="22"/>
-    </row>
-    <row r="441" spans="10:10">
-      <c r="J441" s="22"/>
-    </row>
-    <row r="442" spans="10:10">
-      <c r="J442" s="22"/>
-    </row>
-    <row r="443" spans="10:10">
-      <c r="J443" s="22"/>
-    </row>
-    <row r="444" spans="10:10">
-      <c r="J444" s="22"/>
-    </row>
-    <row r="445" spans="10:10">
-      <c r="J445" s="22"/>
-    </row>
-    <row r="446" spans="10:10">
-      <c r="J446" s="22"/>
-    </row>
-    <row r="447" spans="10:10">
-      <c r="J447" s="22"/>
-    </row>
-    <row r="448" spans="10:10">
-      <c r="J448" s="22"/>
-    </row>
-    <row r="449" spans="10:10">
-      <c r="J449" s="22"/>
-    </row>
-    <row r="450" spans="10:10">
-      <c r="J450" s="22"/>
-    </row>
-    <row r="451" spans="10:10">
-      <c r="J451" s="22"/>
-    </row>
-    <row r="452" spans="10:10">
-      <c r="J452" s="22"/>
-    </row>
-    <row r="453" spans="10:10">
-      <c r="J453" s="22"/>
-    </row>
-    <row r="454" spans="10:10">
-      <c r="J454" s="22"/>
-    </row>
-    <row r="455" spans="10:10">
-      <c r="J455" s="22"/>
-    </row>
-    <row r="456" spans="10:10">
-      <c r="J456" s="22"/>
-    </row>
-    <row r="457" spans="10:10">
-      <c r="J457" s="22"/>
-    </row>
-    <row r="458" spans="10:10">
-      <c r="J458" s="22"/>
-    </row>
-    <row r="459" spans="10:10">
-      <c r="J459" s="22"/>
-    </row>
-    <row r="460" spans="10:10">
-      <c r="J460" s="22"/>
-    </row>
-    <row r="461" spans="10:10">
-      <c r="J461" s="22"/>
-    </row>
-    <row r="462" spans="10:10">
-      <c r="J462" s="22"/>
-    </row>
-    <row r="463" spans="10:10">
-      <c r="J463" s="22"/>
-    </row>
-    <row r="464" spans="10:10">
-      <c r="J464" s="22"/>
-    </row>
-    <row r="465" spans="10:10">
-      <c r="J465" s="22"/>
-    </row>
-    <row r="466" spans="10:10">
-      <c r="J466" s="22"/>
-    </row>
-    <row r="467" spans="10:10">
-      <c r="J467" s="22"/>
-    </row>
-    <row r="468" spans="10:10">
-      <c r="J468" s="22"/>
+      <c r="K320" s="22"/>
+    </row>
+    <row r="321" spans="11:11" ht="32" customHeight="1">
+      <c r="K321" s="22"/>
+    </row>
+    <row r="322" spans="11:11" ht="32" customHeight="1">
+      <c r="K322" s="22"/>
+    </row>
+    <row r="323" spans="11:11" ht="32" customHeight="1">
+      <c r="K323" s="22"/>
+    </row>
+    <row r="324" spans="11:11" ht="32" customHeight="1">
+      <c r="K324" s="22"/>
+    </row>
+    <row r="325" spans="11:11" ht="32" customHeight="1">
+      <c r="K325" s="22"/>
+    </row>
+    <row r="326" spans="11:11" ht="32" customHeight="1">
+      <c r="K326" s="22"/>
+    </row>
+    <row r="327" spans="11:11" ht="32" customHeight="1">
+      <c r="K327" s="22"/>
+    </row>
+    <row r="328" spans="11:11" ht="32" customHeight="1">
+      <c r="K328" s="22"/>
+    </row>
+    <row r="329" spans="11:11" ht="32" customHeight="1">
+      <c r="K329" s="22"/>
+    </row>
+    <row r="330" spans="11:11" ht="32" customHeight="1">
+      <c r="K330" s="22"/>
+    </row>
+    <row r="331" spans="11:11" ht="32" customHeight="1">
+      <c r="K331" s="22"/>
+    </row>
+    <row r="332" spans="11:11">
+      <c r="K332" s="22"/>
+    </row>
+    <row r="333" spans="11:11">
+      <c r="K333" s="22"/>
+    </row>
+    <row r="334" spans="11:11">
+      <c r="K334" s="22"/>
+    </row>
+    <row r="335" spans="11:11">
+      <c r="K335" s="22"/>
+    </row>
+    <row r="336" spans="11:11">
+      <c r="K336" s="22"/>
+    </row>
+    <row r="337" spans="11:11">
+      <c r="K337" s="22"/>
+    </row>
+    <row r="338" spans="11:11">
+      <c r="K338" s="22"/>
+    </row>
+    <row r="339" spans="11:11">
+      <c r="K339" s="22"/>
+    </row>
+    <row r="340" spans="11:11">
+      <c r="K340" s="22"/>
+    </row>
+    <row r="341" spans="11:11">
+      <c r="K341" s="22"/>
+    </row>
+    <row r="342" spans="11:11">
+      <c r="K342" s="22"/>
+    </row>
+    <row r="343" spans="11:11">
+      <c r="K343" s="22"/>
+    </row>
+    <row r="344" spans="11:11">
+      <c r="K344" s="22"/>
+    </row>
+    <row r="345" spans="11:11">
+      <c r="K345" s="22"/>
+    </row>
+    <row r="346" spans="11:11">
+      <c r="K346" s="22"/>
+    </row>
+    <row r="347" spans="11:11">
+      <c r="K347" s="22"/>
+    </row>
+    <row r="348" spans="11:11">
+      <c r="K348" s="22"/>
+    </row>
+    <row r="349" spans="11:11">
+      <c r="K349" s="22"/>
+    </row>
+    <row r="350" spans="11:11">
+      <c r="K350" s="22"/>
+    </row>
+    <row r="351" spans="11:11">
+      <c r="K351" s="22"/>
+    </row>
+    <row r="352" spans="11:11">
+      <c r="K352" s="22"/>
+    </row>
+    <row r="353" spans="11:11">
+      <c r="K353" s="22"/>
+    </row>
+    <row r="354" spans="11:11">
+      <c r="K354" s="22"/>
+    </row>
+    <row r="355" spans="11:11">
+      <c r="K355" s="22"/>
+    </row>
+    <row r="356" spans="11:11">
+      <c r="K356" s="22"/>
+    </row>
+    <row r="357" spans="11:11">
+      <c r="K357" s="22"/>
+    </row>
+    <row r="358" spans="11:11">
+      <c r="K358" s="22"/>
+    </row>
+    <row r="359" spans="11:11">
+      <c r="K359" s="22"/>
+    </row>
+    <row r="360" spans="11:11">
+      <c r="K360" s="22"/>
+    </row>
+    <row r="361" spans="11:11">
+      <c r="K361" s="22"/>
+    </row>
+    <row r="362" spans="11:11">
+      <c r="K362" s="22"/>
+    </row>
+    <row r="363" spans="11:11">
+      <c r="K363" s="22"/>
+    </row>
+    <row r="364" spans="11:11">
+      <c r="K364" s="22"/>
+    </row>
+    <row r="365" spans="11:11">
+      <c r="K365" s="22"/>
+    </row>
+    <row r="366" spans="11:11">
+      <c r="K366" s="22"/>
+    </row>
+    <row r="367" spans="11:11">
+      <c r="K367" s="22"/>
+    </row>
+    <row r="368" spans="11:11">
+      <c r="K368" s="22"/>
+    </row>
+    <row r="369" spans="11:11">
+      <c r="K369" s="22"/>
+    </row>
+    <row r="370" spans="11:11">
+      <c r="K370" s="22"/>
+    </row>
+    <row r="371" spans="11:11">
+      <c r="K371" s="22"/>
+    </row>
+    <row r="372" spans="11:11">
+      <c r="K372" s="22"/>
+    </row>
+    <row r="373" spans="11:11">
+      <c r="K373" s="22"/>
+    </row>
+    <row r="374" spans="11:11">
+      <c r="K374" s="22"/>
+    </row>
+    <row r="375" spans="11:11">
+      <c r="K375" s="22"/>
+    </row>
+    <row r="376" spans="11:11">
+      <c r="K376" s="22"/>
+    </row>
+    <row r="377" spans="11:11">
+      <c r="K377" s="22"/>
+    </row>
+    <row r="378" spans="11:11">
+      <c r="K378" s="22"/>
+    </row>
+    <row r="379" spans="11:11">
+      <c r="K379" s="22"/>
+    </row>
+    <row r="380" spans="11:11">
+      <c r="K380" s="22"/>
+    </row>
+    <row r="381" spans="11:11">
+      <c r="K381" s="22"/>
+    </row>
+    <row r="382" spans="11:11">
+      <c r="K382" s="22"/>
+    </row>
+    <row r="383" spans="11:11">
+      <c r="K383" s="22"/>
+    </row>
+    <row r="384" spans="11:11">
+      <c r="K384" s="22"/>
+    </row>
+    <row r="385" spans="11:11">
+      <c r="K385" s="22"/>
+    </row>
+    <row r="386" spans="11:11">
+      <c r="K386" s="22"/>
+    </row>
+    <row r="387" spans="11:11">
+      <c r="K387" s="22"/>
+    </row>
+    <row r="388" spans="11:11">
+      <c r="K388" s="22"/>
+    </row>
+    <row r="389" spans="11:11">
+      <c r="K389" s="22"/>
+    </row>
+    <row r="390" spans="11:11">
+      <c r="K390" s="22"/>
+    </row>
+    <row r="391" spans="11:11">
+      <c r="K391" s="22"/>
+    </row>
+    <row r="392" spans="11:11">
+      <c r="K392" s="22"/>
+    </row>
+    <row r="393" spans="11:11">
+      <c r="K393" s="22"/>
+    </row>
+    <row r="394" spans="11:11">
+      <c r="K394" s="22"/>
+    </row>
+    <row r="395" spans="11:11">
+      <c r="K395" s="22"/>
+    </row>
+    <row r="396" spans="11:11">
+      <c r="K396" s="22"/>
+    </row>
+    <row r="397" spans="11:11">
+      <c r="K397" s="22"/>
+    </row>
+    <row r="398" spans="11:11">
+      <c r="K398" s="22"/>
+    </row>
+    <row r="399" spans="11:11">
+      <c r="K399" s="22"/>
+    </row>
+    <row r="400" spans="11:11">
+      <c r="K400" s="22"/>
+    </row>
+    <row r="401" spans="11:11">
+      <c r="K401" s="22"/>
+    </row>
+    <row r="402" spans="11:11">
+      <c r="K402" s="22"/>
+    </row>
+    <row r="403" spans="11:11">
+      <c r="K403" s="22"/>
+    </row>
+    <row r="404" spans="11:11">
+      <c r="K404" s="22"/>
+    </row>
+    <row r="405" spans="11:11">
+      <c r="K405" s="22"/>
+    </row>
+    <row r="406" spans="11:11">
+      <c r="K406" s="22"/>
+    </row>
+    <row r="407" spans="11:11">
+      <c r="K407" s="22"/>
+    </row>
+    <row r="408" spans="11:11">
+      <c r="K408" s="22"/>
+    </row>
+    <row r="409" spans="11:11">
+      <c r="K409" s="22"/>
+    </row>
+    <row r="410" spans="11:11">
+      <c r="K410" s="22"/>
+    </row>
+    <row r="411" spans="11:11">
+      <c r="K411" s="22"/>
+    </row>
+    <row r="412" spans="11:11">
+      <c r="K412" s="22"/>
+    </row>
+    <row r="413" spans="11:11">
+      <c r="K413" s="22"/>
+    </row>
+    <row r="414" spans="11:11">
+      <c r="K414" s="22"/>
+    </row>
+    <row r="415" spans="11:11">
+      <c r="K415" s="22"/>
+    </row>
+    <row r="416" spans="11:11">
+      <c r="K416" s="22"/>
+    </row>
+    <row r="417" spans="11:11">
+      <c r="K417" s="22"/>
+    </row>
+    <row r="418" spans="11:11">
+      <c r="K418" s="22"/>
+    </row>
+    <row r="419" spans="11:11">
+      <c r="K419" s="22"/>
+    </row>
+    <row r="420" spans="11:11">
+      <c r="K420" s="22"/>
+    </row>
+    <row r="421" spans="11:11">
+      <c r="K421" s="22"/>
+    </row>
+    <row r="422" spans="11:11">
+      <c r="K422" s="22"/>
+    </row>
+    <row r="423" spans="11:11">
+      <c r="K423" s="22"/>
+    </row>
+    <row r="424" spans="11:11">
+      <c r="K424" s="22"/>
+    </row>
+    <row r="425" spans="11:11">
+      <c r="K425" s="22"/>
+    </row>
+    <row r="426" spans="11:11">
+      <c r="K426" s="22"/>
+    </row>
+    <row r="427" spans="11:11">
+      <c r="K427" s="22"/>
+    </row>
+    <row r="428" spans="11:11">
+      <c r="K428" s="22"/>
+    </row>
+    <row r="429" spans="11:11">
+      <c r="K429" s="22"/>
+    </row>
+    <row r="430" spans="11:11">
+      <c r="K430" s="22"/>
+    </row>
+    <row r="431" spans="11:11">
+      <c r="K431" s="22"/>
+    </row>
+    <row r="432" spans="11:11">
+      <c r="K432" s="22"/>
+    </row>
+    <row r="433" spans="11:11">
+      <c r="K433" s="22"/>
+    </row>
+    <row r="434" spans="11:11">
+      <c r="K434" s="22"/>
+    </row>
+    <row r="435" spans="11:11">
+      <c r="K435" s="22"/>
+    </row>
+    <row r="436" spans="11:11">
+      <c r="K436" s="22"/>
+    </row>
+    <row r="437" spans="11:11">
+      <c r="K437" s="22"/>
+    </row>
+    <row r="438" spans="11:11">
+      <c r="K438" s="22"/>
+    </row>
+    <row r="439" spans="11:11">
+      <c r="K439" s="22"/>
+    </row>
+    <row r="440" spans="11:11">
+      <c r="K440" s="22"/>
+    </row>
+    <row r="441" spans="11:11">
+      <c r="K441" s="22"/>
+    </row>
+    <row r="442" spans="11:11">
+      <c r="K442" s="22"/>
+    </row>
+    <row r="443" spans="11:11">
+      <c r="K443" s="22"/>
+    </row>
+    <row r="444" spans="11:11">
+      <c r="K444" s="22"/>
+    </row>
+    <row r="445" spans="11:11">
+      <c r="K445" s="22"/>
+    </row>
+    <row r="446" spans="11:11">
+      <c r="K446" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E24:E55"/>
-    <mergeCell ref="D24:D55"/>
-    <mergeCell ref="E9:E23"/>
-    <mergeCell ref="D9:D23"/>
+  <mergeCells count="2">
+    <mergeCell ref="E7:E32"/>
+    <mergeCell ref="D7:D32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11015,10 +10445,10 @@
   <sheetData>
     <row r="6" spans="1:4" ht="20" thickBot="1">
       <c r="B6" s="99"/>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="125"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="93" t="s">
@@ -11351,7 +10781,7 @@
       <c r="G6" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="106" t="s">
         <v>106</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -11360,7 +10790,7 @@
       <c r="J6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="107" t="s">
         <v>107</v>
       </c>
       <c r="L6" s="23" t="s">
@@ -11382,10 +10812,10 @@
       </c>
     </row>
     <row r="7" spans="4:22" ht="40" customHeight="1">
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="126" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="69">
@@ -11411,12 +10841,12 @@
         <f t="shared" ref="K7:K53" si="4">H7</f>
         <v>5.656854249492385</v>
       </c>
-      <c r="L7" s="117">
+      <c r="L7" s="104">
         <v>1</v>
       </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
       <c r="S7" s="62" t="s">
@@ -11436,8 +10866,8 @@
       </c>
     </row>
     <row r="8" spans="4:22" ht="40" customHeight="1">
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="74">
         <v>7.5</v>
       </c>
@@ -11461,12 +10891,12 @@
         <f t="shared" si="4"/>
         <v>6.7271713220297213</v>
       </c>
-      <c r="L8" s="117">
+      <c r="L8" s="104">
         <v>1</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
       <c r="P8" s="59"/>
       <c r="Q8" s="59"/>
       <c r="S8" s="62" t="s">
@@ -11486,8 +10916,8 @@
       </c>
     </row>
     <row r="9" spans="4:22" ht="40" customHeight="1">
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="74">
         <v>8</v>
       </c>
@@ -11511,12 +10941,12 @@
         <f t="shared" si="4"/>
         <v>8.0000000000000053</v>
       </c>
-      <c r="L9" s="117">
+      <c r="L9" s="104">
         <v>1</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
       <c r="S9" s="23"/>
@@ -11525,8 +10955,8 @@
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="4:22" ht="40" customHeight="1">
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="74">
         <v>8.5</v>
       </c>
@@ -11550,12 +10980,12 @@
         <f t="shared" si="4"/>
         <v>9.5136569200217735</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="104">
         <v>1</v>
       </c>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
       <c r="S10" s="23" t="s">
@@ -11575,8 +11005,8 @@
       </c>
     </row>
     <row r="11" spans="4:22" ht="40" customHeight="1" thickBot="1">
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="74">
         <v>9</v>
       </c>
@@ -11600,12 +11030,12 @@
         <f t="shared" si="4"/>
         <v>11.313708498984766</v>
       </c>
-      <c r="L11" s="117">
+      <c r="L11" s="104">
         <v>1</v>
       </c>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
       <c r="S11" s="23" t="s">
@@ -11625,8 +11055,8 @@
       </c>
     </row>
     <row r="12" spans="4:22" ht="40" customHeight="1">
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="74">
         <v>9.5</v>
       </c>
@@ -11650,18 +11080,18 @@
         <f t="shared" si="4"/>
         <v>13.454342644059439</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="104">
         <v>1</v>
       </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
     </row>
     <row r="13" spans="4:22" ht="40" customHeight="1">
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="74">
         <v>10</v>
       </c>
@@ -11685,18 +11115,18 @@
         <f t="shared" si="4"/>
         <v>16.000000000000007</v>
       </c>
-      <c r="L13" s="117">
+      <c r="L13" s="104">
         <v>1</v>
       </c>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="4:22" ht="40" customHeight="1">
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="74">
         <v>10.5</v>
       </c>
@@ -11720,18 +11150,18 @@
         <f t="shared" si="4"/>
         <v>19.027313840043544</v>
       </c>
-      <c r="L14" s="117">
+      <c r="L14" s="104">
         <v>2</v>
       </c>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="4:22" ht="40" customHeight="1">
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="74">
         <v>11</v>
       </c>
@@ -11755,18 +11185,18 @@
         <f t="shared" si="4"/>
         <v>22.627416997969526</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="104">
         <v>3</v>
       </c>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="4:22" ht="40" customHeight="1">
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="74">
         <v>11.5</v>
       </c>
@@ -11790,18 +11220,18 @@
         <f t="shared" si="4"/>
         <v>26.908685288118871</v>
       </c>
-      <c r="L16" s="117">
+      <c r="L16" s="104">
         <v>4</v>
       </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="4:20" ht="40" customHeight="1">
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="79">
         <v>12</v>
       </c>
@@ -11824,18 +11254,18 @@
         <f t="shared" si="4"/>
         <v>32.000000000000007</v>
       </c>
-      <c r="L17" s="117">
+      <c r="L17" s="104">
         <v>5</v>
       </c>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="4:20" ht="40" customHeight="1">
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
       <c r="F18" s="74">
         <v>12.5</v>
       </c>
@@ -11859,18 +11289,18 @@
         <f t="shared" si="4"/>
         <v>38.05462768008708</v>
       </c>
-      <c r="L18" s="117">
+      <c r="L18" s="104">
         <v>6</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="4:20" ht="40" customHeight="1">
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
       <c r="F19" s="74">
         <v>13</v>
       </c>
@@ -11894,12 +11324,12 @@
         <f t="shared" si="4"/>
         <v>45.254833995939045</v>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="104">
         <v>7</v>
       </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="59"/>
       <c r="R19" s="20"/>
@@ -11907,8 +11337,8 @@
       <c r="T19" s="22"/>
     </row>
     <row r="20" spans="4:20" ht="40" customHeight="1">
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
       <c r="F20" s="74">
         <v>13.5</v>
       </c>
@@ -11932,12 +11362,12 @@
         <f t="shared" si="4"/>
         <v>53.817370576237735</v>
       </c>
-      <c r="L20" s="117">
+      <c r="L20" s="104">
         <v>8</v>
       </c>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="20"/>
@@ -11945,8 +11375,8 @@
       <c r="T20" s="22"/>
     </row>
     <row r="21" spans="4:20" ht="40" customHeight="1">
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="74">
         <v>14</v>
       </c>
@@ -11969,7 +11399,7 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="L21" s="118">
+      <c r="L21" s="105">
         <v>9</v>
       </c>
       <c r="M21"/>
@@ -11982,10 +11412,10 @@
       <c r="T21" s="22"/>
     </row>
     <row r="22" spans="4:20" ht="42" customHeight="1">
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="131" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="88">
@@ -12012,12 +11442,12 @@
         <f t="shared" si="4"/>
         <v>69.792494890576492</v>
       </c>
-      <c r="L22" s="114" t="s">
+      <c r="L22" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="20"/>
@@ -12025,8 +11455,8 @@
       <c r="T22" s="22"/>
     </row>
     <row r="23" spans="4:20" ht="40" customHeight="1">
-      <c r="D23" s="109"/>
-      <c r="E23" s="106"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="88">
         <f t="shared" si="5"/>
         <v>16.648899610038097</v>
@@ -12051,12 +11481,12 @@
         <f t="shared" si="4"/>
         <v>76.109255360174146</v>
       </c>
-      <c r="L23" s="113" t="s">
+      <c r="L23" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
       <c r="R23" s="20"/>
@@ -12064,8 +11494,8 @@
       <c r="T23" s="22"/>
     </row>
     <row r="24" spans="4:20" ht="40" customHeight="1">
-      <c r="D24" s="109"/>
-      <c r="E24" s="106"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="132"/>
       <c r="F24" s="88">
         <f t="shared" si="5"/>
         <v>18.155753765114138</v>
@@ -12090,12 +11520,12 @@
         <f t="shared" si="4"/>
         <v>82.997731497664617</v>
       </c>
-      <c r="L24" s="113" t="s">
+      <c r="L24" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="20"/>
@@ -12103,8 +11533,8 @@
       <c r="T24" s="22"/>
     </row>
     <row r="25" spans="4:20" ht="40" customHeight="1">
-      <c r="D25" s="109"/>
-      <c r="E25" s="106"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="132"/>
       <c r="F25" s="88">
         <f t="shared" si="5"/>
         <v>19.798989873223334</v>
@@ -12129,12 +11559,12 @@
         <f t="shared" si="4"/>
         <v>90.509667991878089</v>
       </c>
-      <c r="L25" s="113" t="s">
+      <c r="L25" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="20"/>
@@ -12142,8 +11572,8 @@
       <c r="T25" s="22"/>
     </row>
     <row r="26" spans="4:20" ht="40" customHeight="1">
-      <c r="D26" s="109"/>
-      <c r="E26" s="106"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="132"/>
       <c r="F26" s="88">
         <f t="shared" si="5"/>
         <v>21.590951555711175</v>
@@ -12168,12 +11598,12 @@
         <f t="shared" si="4"/>
         <v>98.701492826108222</v>
       </c>
-      <c r="L26" s="113" t="s">
+      <c r="L26" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="20"/>
@@ -12181,8 +11611,8 @@
       <c r="T26" s="22"/>
     </row>
     <row r="27" spans="4:20" ht="40" customHeight="1">
-      <c r="D27" s="109"/>
-      <c r="E27" s="106"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="132"/>
       <c r="F27" s="88">
         <f t="shared" si="5"/>
         <v>23.545099627104012</v>
@@ -12207,12 +11637,12 @@
         <f t="shared" si="4"/>
         <v>107.63474115247547</v>
       </c>
-      <c r="L27" s="113" t="s">
+      <c r="L27" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="20"/>
@@ -12220,8 +11650,8 @@
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="4:20" ht="40" customHeight="1">
-      <c r="D28" s="109"/>
-      <c r="E28" s="106"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="132"/>
       <c r="F28" s="88">
         <f t="shared" si="5"/>
         <v>25.676113209730801</v>
@@ -12246,18 +11676,18 @@
         <f t="shared" si="4"/>
         <v>117.37651753019793</v>
       </c>
-      <c r="L28" s="113" t="s">
+      <c r="L28" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="4:20" ht="40" customHeight="1">
-      <c r="D29" s="109"/>
-      <c r="E29" s="106"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="88">
         <f t="shared" si="5"/>
         <v>28.000000000000007</v>
@@ -12282,18 +11712,18 @@
         <f t="shared" si="4"/>
         <v>128.00000000000003</v>
       </c>
-      <c r="L29" s="113" t="s">
+      <c r="L29" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="4:20" ht="40" customHeight="1">
-      <c r="D30" s="109"/>
-      <c r="E30" s="106"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="132"/>
       <c r="F30" s="88">
         <f t="shared" si="5"/>
         <v>30.534216514627222</v>
@@ -12318,18 +11748,18 @@
         <f t="shared" si="4"/>
         <v>139.58498978115301</v>
       </c>
-      <c r="L30" s="113" t="s">
+      <c r="L30" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="4:20" ht="40" customHeight="1">
-      <c r="D31" s="109"/>
-      <c r="E31" s="106"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="88">
         <f t="shared" si="5"/>
         <v>33.2977992200762</v>
@@ -12354,18 +11784,18 @@
         <f t="shared" si="4"/>
         <v>152.21851072034835</v>
       </c>
-      <c r="L31" s="113" t="s">
+      <c r="L31" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="4:20" ht="40" customHeight="1">
-      <c r="D32" s="109"/>
-      <c r="E32" s="106"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="132"/>
       <c r="F32" s="88">
         <f t="shared" si="5"/>
         <v>36.311507530228283</v>
@@ -12390,18 +11820,18 @@
         <f t="shared" si="4"/>
         <v>165.99546299532929</v>
       </c>
-      <c r="L32" s="113" t="s">
+      <c r="L32" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="4:17" ht="40" customHeight="1">
-      <c r="D33" s="109"/>
-      <c r="E33" s="106"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="132"/>
       <c r="F33" s="88">
         <f t="shared" si="5"/>
         <v>39.597979746446676</v>
@@ -12426,18 +11856,18 @@
         <f t="shared" si="4"/>
         <v>181.01933598375624</v>
       </c>
-      <c r="L33" s="113" t="s">
+      <c r="L33" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
     </row>
     <row r="34" spans="4:17" ht="40" customHeight="1">
-      <c r="D34" s="109"/>
-      <c r="E34" s="106"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="132"/>
       <c r="F34" s="88">
         <f t="shared" si="5"/>
         <v>43.181903111422358</v>
@@ -12462,18 +11892,18 @@
         <f t="shared" si="4"/>
         <v>197.4029856522165</v>
       </c>
-      <c r="L34" s="113" t="s">
+      <c r="L34" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
     </row>
     <row r="35" spans="4:17" ht="40" customHeight="1">
-      <c r="D35" s="109"/>
-      <c r="E35" s="106"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="88">
         <f t="shared" si="5"/>
         <v>47.090199254208031</v>
@@ -12498,18 +11928,18 @@
         <f t="shared" si="4"/>
         <v>215.269482304951</v>
       </c>
-      <c r="L35" s="113" t="s">
+      <c r="L35" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
     </row>
     <row r="36" spans="4:17" ht="40" customHeight="1">
-      <c r="D36" s="109"/>
-      <c r="E36" s="106"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="132"/>
       <c r="F36" s="88">
         <f t="shared" si="5"/>
         <v>51.352226419461608</v>
@@ -12534,18 +11964,18 @@
         <f t="shared" si="4"/>
         <v>234.75303506039592</v>
       </c>
-      <c r="L36" s="113" t="s">
+      <c r="L36" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
     </row>
     <row r="37" spans="4:17" ht="40" customHeight="1">
-      <c r="D37" s="110"/>
-      <c r="E37" s="107"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="133"/>
       <c r="F37" s="88">
         <f t="shared" si="5"/>
         <v>56.000000000000021</v>
@@ -12570,18 +12000,18 @@
         <f t="shared" si="4"/>
         <v>256.00000000000011</v>
       </c>
-      <c r="L37" s="113" t="s">
+      <c r="L37" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
     </row>
     <row r="38" spans="4:17" ht="40" customHeight="1">
-      <c r="D38" s="110"/>
-      <c r="E38" s="107"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="133"/>
       <c r="F38" s="88">
         <f t="shared" si="5"/>
         <v>61.068433029254457</v>
@@ -12606,18 +12036,18 @@
         <f t="shared" si="4"/>
         <v>279.16997956230608</v>
       </c>
-      <c r="L38" s="113" t="s">
+      <c r="L38" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
       <c r="P38" s="59"/>
       <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="4:17" ht="40" customHeight="1">
-      <c r="D39" s="110"/>
-      <c r="E39" s="107"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="133"/>
       <c r="F39" s="88">
         <f t="shared" si="5"/>
         <v>66.595598440152415</v>
@@ -12642,18 +12072,18 @@
         <f t="shared" si="4"/>
         <v>304.43702144069675</v>
       </c>
-      <c r="L39" s="113" t="s">
+      <c r="L39" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
       <c r="P39" s="59"/>
       <c r="Q39" s="59"/>
     </row>
     <row r="40" spans="4:17" ht="40" customHeight="1">
-      <c r="D40" s="110"/>
-      <c r="E40" s="107"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="133"/>
       <c r="F40" s="88">
         <f t="shared" si="5"/>
         <v>72.623015060456581</v>
@@ -12678,18 +12108,18 @@
         <f t="shared" si="4"/>
         <v>331.99092599065864</v>
       </c>
-      <c r="L40" s="113" t="s">
+      <c r="L40" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
       <c r="P40" s="59"/>
       <c r="Q40" s="59"/>
     </row>
     <row r="41" spans="4:17" ht="40" customHeight="1">
-      <c r="D41" s="110"/>
-      <c r="E41" s="107"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="133"/>
       <c r="F41" s="88">
         <f t="shared" si="5"/>
         <v>79.195959492893365</v>
@@ -12714,18 +12144,18 @@
         <f t="shared" si="4"/>
         <v>362.03867196751253</v>
       </c>
-      <c r="L41" s="113" t="s">
+      <c r="L41" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
     </row>
     <row r="42" spans="4:17" ht="40" customHeight="1">
-      <c r="D42" s="110"/>
-      <c r="E42" s="107"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="133"/>
       <c r="F42" s="88">
         <f t="shared" si="5"/>
         <v>86.36380622284473</v>
@@ -12750,18 +12180,18 @@
         <f t="shared" si="4"/>
         <v>394.80597130443306</v>
       </c>
-      <c r="L42" s="113" t="s">
+      <c r="L42" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
       <c r="P42" s="59"/>
       <c r="Q42" s="59"/>
     </row>
     <row r="43" spans="4:17" ht="40" customHeight="1">
-      <c r="D43" s="110"/>
-      <c r="E43" s="107"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="133"/>
       <c r="F43" s="88">
         <f t="shared" si="5"/>
         <v>94.180398508416076</v>
@@ -12786,18 +12216,18 @@
         <f t="shared" si="4"/>
         <v>430.53896460990211</v>
       </c>
-      <c r="L43" s="113" t="s">
+      <c r="L43" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
       <c r="P43" s="59"/>
       <c r="Q43" s="59"/>
     </row>
     <row r="44" spans="4:17" ht="40" customHeight="1">
-      <c r="D44" s="110"/>
-      <c r="E44" s="107"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="133"/>
       <c r="F44" s="88">
         <f t="shared" si="5"/>
         <v>102.70445283892323</v>
@@ -12822,18 +12252,18 @@
         <f t="shared" si="4"/>
         <v>469.50607012079195</v>
       </c>
-      <c r="L44" s="113" t="s">
+      <c r="L44" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
       <c r="P44" s="59"/>
       <c r="Q44" s="59"/>
     </row>
     <row r="45" spans="4:17" ht="40" customHeight="1">
-      <c r="D45" s="110"/>
-      <c r="E45" s="107"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="133"/>
       <c r="F45" s="88">
         <f t="shared" si="5"/>
         <v>112.00000000000006</v>
@@ -12858,18 +12288,18 @@
         <f t="shared" si="4"/>
         <v>512.00000000000034</v>
       </c>
-      <c r="L45" s="113" t="s">
+      <c r="L45" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
     </row>
     <row r="46" spans="4:17" ht="40" customHeight="1">
-      <c r="D46" s="110"/>
-      <c r="E46" s="107"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="133"/>
       <c r="F46" s="88">
         <f t="shared" ref="F46:H53" si="7">F45*$T$11</f>
         <v>122.13686605850893</v>
@@ -12894,18 +12324,18 @@
         <f t="shared" si="4"/>
         <v>558.33995912461228</v>
       </c>
-      <c r="L46" s="113" t="s">
+      <c r="L46" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="59"/>
     </row>
     <row r="47" spans="4:17" ht="40" customHeight="1">
-      <c r="D47" s="110"/>
-      <c r="E47" s="107"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="88">
         <f t="shared" si="7"/>
         <v>133.19119688030483</v>
@@ -12930,18 +12360,18 @@
         <f t="shared" si="4"/>
         <v>608.87404288139362</v>
       </c>
-      <c r="L47" s="113" t="s">
+      <c r="L47" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59"/>
     </row>
     <row r="48" spans="4:17" ht="40" customHeight="1">
-      <c r="D48" s="110"/>
-      <c r="E48" s="107"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="133"/>
       <c r="F48" s="88">
         <f t="shared" si="7"/>
         <v>145.24603012091316</v>
@@ -12966,18 +12396,18 @@
         <f t="shared" si="4"/>
         <v>663.98185198131739</v>
       </c>
-      <c r="L48" s="113" t="s">
+      <c r="L48" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
     </row>
     <row r="49" spans="4:17" ht="40" customHeight="1">
-      <c r="D49" s="110"/>
-      <c r="E49" s="107"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="88">
         <f t="shared" si="7"/>
         <v>158.39191898578673</v>
@@ -13002,18 +12432,18 @@
         <f t="shared" si="4"/>
         <v>724.07734393502517</v>
       </c>
-      <c r="L49" s="113" t="s">
+      <c r="L49" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="59"/>
     </row>
     <row r="50" spans="4:17" ht="40" customHeight="1">
-      <c r="D50" s="110"/>
-      <c r="E50" s="107"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="88">
         <f t="shared" si="7"/>
         <v>172.72761244568946</v>
@@ -13038,18 +12468,18 @@
         <f t="shared" si="4"/>
         <v>789.61194260886623</v>
       </c>
-      <c r="L50" s="113" t="s">
+      <c r="L50" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="59"/>
     </row>
     <row r="51" spans="4:17" ht="40" customHeight="1">
-      <c r="D51" s="110"/>
-      <c r="E51" s="107"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="88">
         <f t="shared" si="7"/>
         <v>188.36079701683215</v>
@@ -13074,18 +12504,18 @@
         <f t="shared" si="4"/>
         <v>861.07792921980433</v>
       </c>
-      <c r="L51" s="113" t="s">
+      <c r="L51" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="59"/>
     </row>
     <row r="52" spans="4:17" ht="40" customHeight="1">
-      <c r="D52" s="110"/>
-      <c r="E52" s="107"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="133"/>
       <c r="F52" s="88">
         <f t="shared" si="7"/>
         <v>205.40890567784646</v>
@@ -13110,18 +12540,18 @@
         <f t="shared" si="4"/>
         <v>939.01214024158412</v>
       </c>
-      <c r="L52" s="113" t="s">
+      <c r="L52" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
     </row>
     <row r="53" spans="4:17" ht="40" customHeight="1" thickBot="1">
-      <c r="D53" s="110"/>
-      <c r="E53" s="107"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="89">
         <f t="shared" si="7"/>
         <v>224.00000000000011</v>
@@ -13146,12 +12576,12 @@
         <f t="shared" si="4"/>
         <v>1024.0000000000009</v>
       </c>
-      <c r="L53" s="113" t="s">
+      <c r="L53" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
     </row>

--- a/assets/tools/_unit-calculations.xlsx
+++ b/assets/tools/_unit-calculations.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="px as pt" sheetId="1" r:id="rId1"/>
     <sheet name="Fractions as %" sheetId="2" r:id="rId2"/>
     <sheet name="scss Fx" sheetId="5" r:id="rId3"/>
     <sheet name="@media (working)" sheetId="4" r:id="rId4"/>
-    <sheet name="Gray Values" sheetId="6" r:id="rId5"/>
-    <sheet name="@media zzOLD" sheetId="7" r:id="rId6"/>
+    <sheet name="Base Colours" sheetId="8" r:id="rId5"/>
+    <sheet name="Gray Values" sheetId="6" r:id="rId6"/>
+    <sheet name="@media zzOLD" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="190">
   <si>
     <t>css-pixels-per-point</t>
   </si>
@@ -366,6 +367,234 @@
   </si>
   <si>
     <t>baseline in points</t>
+  </si>
+  <si>
+    <t>Base colour source: http://www.color-hex.com/color/ffd700</t>
+  </si>
+  <si>
+    <t>-add1</t>
+  </si>
+  <si>
+    <t>-add2</t>
+  </si>
+  <si>
+    <t>-add3</t>
+  </si>
+  <si>
+    <t>-add4</t>
+  </si>
+  <si>
+    <t>-add5</t>
+  </si>
+  <si>
+    <t>-add6</t>
+  </si>
+  <si>
+    <t>-add7</t>
+  </si>
+  <si>
+    <t>-add8</t>
+  </si>
+  <si>
+    <t>-add9</t>
+  </si>
+  <si>
+    <t>-add10</t>
+  </si>
+  <si>
+    <t>-sub10</t>
+  </si>
+  <si>
+    <t>-sub9</t>
+  </si>
+  <si>
+    <t>-sub8</t>
+  </si>
+  <si>
+    <t>-sub1</t>
+  </si>
+  <si>
+    <t>-sub2</t>
+  </si>
+  <si>
+    <t>-sub3</t>
+  </si>
+  <si>
+    <t>-sub4</t>
+  </si>
+  <si>
+    <t>-sub5</t>
+  </si>
+  <si>
+    <t>-sub6</t>
+  </si>
+  <si>
+    <t>-sub7</t>
+  </si>
+  <si>
+    <t>#ffd700</t>
+  </si>
+  <si>
+    <t>#e5c100</t>
+  </si>
+  <si>
+    <t>#ccac00</t>
+  </si>
+  <si>
+    <t>#b29600</t>
+  </si>
+  <si>
+    <t>#998100</t>
+  </si>
+  <si>
+    <t>#7f6b00</t>
+  </si>
+  <si>
+    <t>#665600</t>
+  </si>
+  <si>
+    <t>#4c4000</t>
+  </si>
+  <si>
+    <t>#332b00</t>
+  </si>
+  <si>
+    <t>#191500</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#ffdb19</t>
+  </si>
+  <si>
+    <t>#ffdf32</t>
+  </si>
+  <si>
+    <t>#ffe34c</t>
+  </si>
+  <si>
+    <t>#ffe766</t>
+  </si>
+  <si>
+    <t>#ffeb7f</t>
+  </si>
+  <si>
+    <t>#ffef99</t>
+  </si>
+  <si>
+    <t>#fff3b2</t>
+  </si>
+  <si>
+    <t>#fff7cc</t>
+  </si>
+  <si>
+    <t>#fffbe5</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>#fff8e4</t>
+  </si>
+  <si>
+    <t>#fff8e6</t>
+  </si>
+  <si>
+    <t>#fff9e9</t>
+  </si>
+  <si>
+    <t>#fffaec</t>
+  </si>
+  <si>
+    <t>#fffaee</t>
+  </si>
+  <si>
+    <t>#fffbf1</t>
+  </si>
+  <si>
+    <t>#fffcf4</t>
+  </si>
+  <si>
+    <t>#fffcf6</t>
+  </si>
+  <si>
+    <t>#fffdf9</t>
+  </si>
+  <si>
+    <t>#fffefc</t>
+  </si>
+  <si>
+    <t>#e5dfcd</t>
+  </si>
+  <si>
+    <t>Base colour source: http://www.color-hex.com/color/fff8e4</t>
+  </si>
+  <si>
+    <t>#fbddaa</t>
+  </si>
+  <si>
+    <t>#fbe0b2</t>
+  </si>
+  <si>
+    <t>#fbe3bb</t>
+  </si>
+  <si>
+    <t>#fce7c3</t>
+  </si>
+  <si>
+    <t>#fceacc</t>
+  </si>
+  <si>
+    <t>#fdeed4</t>
+  </si>
+  <si>
+    <t>#fdf1dd</t>
+  </si>
+  <si>
+    <t>#fdf4e5</t>
+  </si>
+  <si>
+    <t>#fef8ee</t>
+  </si>
+  <si>
+    <t>#fefbf6</t>
+  </si>
+  <si>
+    <t>#e1c699</t>
+  </si>
+  <si>
+    <t>#c8b088</t>
+  </si>
+  <si>
+    <t>#af9a76</t>
+  </si>
+  <si>
+    <t>#968466</t>
+  </si>
+  <si>
+    <t>#7d6e55</t>
+  </si>
+  <si>
+    <t>#645844</t>
+  </si>
+  <si>
+    <t>#4b4233</t>
+  </si>
+  <si>
+    <t>#322c22</t>
+  </si>
+  <si>
+    <t>#191611</t>
+  </si>
+  <si>
+    <t>Base colour source: http://www.color-hex.com/color/fbddaa</t>
   </si>
 </sst>
 </file>
@@ -377,7 +606,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,6 +667,39 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="13.35"/>
+      <color theme="1"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.35"/>
+      <color theme="10"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="13.35"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.35"/>
       <color theme="1"/>
       <name val="Avenir Book"/>
     </font>
@@ -716,7 +978,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -794,8 +1056,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1154,6 +1459,27 @@
     <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1190,29 +1516,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="120">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1288,6 +1618,49 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6052,12 +6425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:W446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6580" ySplit="3480" topLeftCell="J18" activePane="bottomRight"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3480" topLeftCell="A18" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -6123,14 +6493,14 @@
       </c>
     </row>
     <row r="7" spans="3:23" ht="40" customHeight="1">
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="129" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="60"/>
-      <c r="G7" s="136">
+      <c r="G7" s="124">
         <v>7</v>
       </c>
       <c r="H7" s="113">
@@ -6182,10 +6552,10 @@
     </row>
     <row r="8" spans="3:23" ht="40" customHeight="1">
       <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="61"/>
-      <c r="G8" s="137">
+      <c r="G8" s="125">
         <f>G7+(6.3/16)</f>
         <v>7.3937499999999998</v>
       </c>
@@ -6238,10 +6608,10 @@
       </c>
     </row>
     <row r="9" spans="3:23" ht="40" customHeight="1">
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="61"/>
-      <c r="G9" s="137">
+      <c r="G9" s="125">
         <f>G8+(6.3/16)</f>
         <v>7.7874999999999996</v>
       </c>
@@ -6283,10 +6653,10 @@
       <c r="W9" s="43"/>
     </row>
     <row r="10" spans="3:23" ht="40" customHeight="1">
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="61"/>
-      <c r="G10" s="137">
+      <c r="G10" s="125">
         <f t="shared" ref="G10:G32" si="6">G9+(6.3/16)</f>
         <v>8.1812500000000004</v>
       </c>
@@ -6339,10 +6709,10 @@
       </c>
     </row>
     <row r="11" spans="3:23" ht="40" customHeight="1" thickBot="1">
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="61"/>
-      <c r="G11" s="137">
+      <c r="G11" s="125">
         <f t="shared" si="6"/>
         <v>8.5750000000000011</v>
       </c>
@@ -6395,10 +6765,10 @@
       </c>
     </row>
     <row r="12" spans="3:23" ht="40" customHeight="1">
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="61"/>
-      <c r="G12" s="137">
+      <c r="G12" s="125">
         <f t="shared" si="6"/>
         <v>8.9687500000000018</v>
       </c>
@@ -6436,10 +6806,10 @@
       <c r="R12" s="59"/>
     </row>
     <row r="13" spans="3:23" ht="40" customHeight="1">
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="61"/>
-      <c r="G13" s="137">
+      <c r="G13" s="125">
         <f t="shared" si="6"/>
         <v>9.3625000000000025</v>
       </c>
@@ -6477,10 +6847,10 @@
       <c r="R13" s="59"/>
     </row>
     <row r="14" spans="3:23" ht="40" customHeight="1">
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="61"/>
-      <c r="G14" s="137">
+      <c r="G14" s="125">
         <f t="shared" si="6"/>
         <v>9.7562500000000032</v>
       </c>
@@ -6518,10 +6888,10 @@
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="3:23" ht="40" customHeight="1">
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="61"/>
-      <c r="G15" s="137">
+      <c r="G15" s="125">
         <f t="shared" si="6"/>
         <v>10.150000000000004</v>
       </c>
@@ -6559,10 +6929,10 @@
       <c r="R15" s="59"/>
     </row>
     <row r="16" spans="3:23" ht="40" customHeight="1">
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="61"/>
-      <c r="G16" s="137">
+      <c r="G16" s="125">
         <f t="shared" si="6"/>
         <v>10.543750000000005</v>
       </c>
@@ -6600,10 +6970,10 @@
       <c r="R16" s="59"/>
     </row>
     <row r="17" spans="4:21" ht="40" customHeight="1">
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="61"/>
-      <c r="G17" s="137">
+      <c r="G17" s="125">
         <f t="shared" si="6"/>
         <v>10.937500000000005</v>
       </c>
@@ -6641,10 +7011,10 @@
       <c r="R17" s="59"/>
     </row>
     <row r="18" spans="4:21" ht="40" customHeight="1">
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
       <c r="F18" s="61"/>
-      <c r="G18" s="137">
+      <c r="G18" s="125">
         <f t="shared" si="6"/>
         <v>11.331250000000006</v>
       </c>
@@ -6682,10 +7052,10 @@
       <c r="R18" s="59"/>
     </row>
     <row r="19" spans="4:21" ht="40" customHeight="1">
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="61"/>
-      <c r="G19" s="137">
+      <c r="G19" s="125">
         <f t="shared" si="6"/>
         <v>11.725000000000007</v>
       </c>
@@ -6726,10 +7096,10 @@
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="4:21" ht="40" customHeight="1">
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
       <c r="F20" s="61"/>
-      <c r="G20" s="137">
+      <c r="G20" s="125">
         <f t="shared" si="6"/>
         <v>12.118750000000007</v>
       </c>
@@ -6770,10 +7140,10 @@
       <c r="U20" s="22"/>
     </row>
     <row r="21" spans="4:21" ht="40" customHeight="1">
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="61"/>
-      <c r="G21" s="138">
+      <c r="G21" s="126">
         <f t="shared" si="6"/>
         <v>12.512500000000008</v>
       </c>
@@ -6813,10 +7183,10 @@
       <c r="U21" s="22"/>
     </row>
     <row r="22" spans="4:21" ht="42" customHeight="1">
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="100"/>
-      <c r="G22" s="137">
+      <c r="G22" s="125">
         <f t="shared" si="6"/>
         <v>12.906250000000009</v>
       </c>
@@ -6857,10 +7227,10 @@
       <c r="U22" s="22"/>
     </row>
     <row r="23" spans="4:21" ht="40" customHeight="1">
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="101"/>
-      <c r="G23" s="139">
+      <c r="G23" s="127">
         <f t="shared" si="6"/>
         <v>13.30000000000001</v>
       </c>
@@ -6888,7 +7258,7 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N23" s="135">
+      <c r="N23" s="123">
         <f t="shared" si="5"/>
         <v>17.300000000000011</v>
       </c>
@@ -6901,10 +7271,10 @@
       <c r="U23" s="22"/>
     </row>
     <row r="24" spans="4:21" ht="40" customHeight="1">
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="101"/>
-      <c r="G24" s="137">
+      <c r="G24" s="125">
         <f t="shared" si="6"/>
         <v>13.69375000000001</v>
       </c>
@@ -6945,10 +7315,10 @@
       <c r="U24" s="22"/>
     </row>
     <row r="25" spans="4:21" ht="40" customHeight="1">
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="101"/>
-      <c r="G25" s="138">
+      <c r="G25" s="126">
         <f t="shared" si="6"/>
         <v>14.087500000000011</v>
       </c>
@@ -6989,10 +7359,10 @@
       <c r="U25" s="22"/>
     </row>
     <row r="26" spans="4:21" ht="40" customHeight="1">
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
       <c r="F26" s="101"/>
-      <c r="G26" s="137">
+      <c r="G26" s="125">
         <f t="shared" si="6"/>
         <v>14.481250000000012</v>
       </c>
@@ -7033,10 +7403,10 @@
       <c r="U26" s="22"/>
     </row>
     <row r="27" spans="4:21" ht="40" customHeight="1">
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
       <c r="F27" s="101"/>
-      <c r="G27" s="138">
+      <c r="G27" s="126">
         <f t="shared" si="6"/>
         <v>14.875000000000012</v>
       </c>
@@ -7077,10 +7447,10 @@
       <c r="U27" s="22"/>
     </row>
     <row r="28" spans="4:21" ht="40" customHeight="1">
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
       <c r="F28" s="101"/>
-      <c r="G28" s="137">
+      <c r="G28" s="125">
         <f t="shared" si="6"/>
         <v>15.268750000000013</v>
       </c>
@@ -7118,10 +7488,10 @@
       <c r="R28" s="59"/>
     </row>
     <row r="29" spans="4:21" ht="40" customHeight="1">
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="101"/>
-      <c r="G29" s="138">
+      <c r="G29" s="126">
         <f t="shared" si="6"/>
         <v>15.662500000000014</v>
       </c>
@@ -7159,10 +7529,10 @@
       <c r="R29" s="59"/>
     </row>
     <row r="30" spans="4:21" ht="40" customHeight="1">
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="101"/>
-      <c r="G30" s="138">
+      <c r="G30" s="126">
         <f t="shared" si="6"/>
         <v>16.056250000000013</v>
       </c>
@@ -7200,10 +7570,10 @@
       <c r="R30" s="59"/>
     </row>
     <row r="31" spans="4:21" ht="40" customHeight="1">
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
       <c r="F31" s="101"/>
-      <c r="G31" s="137">
+      <c r="G31" s="125">
         <f t="shared" si="6"/>
         <v>16.450000000000014</v>
       </c>
@@ -7241,10 +7611,10 @@
       <c r="R31" s="59"/>
     </row>
     <row r="32" spans="4:21" ht="40" customHeight="1" thickBot="1">
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="101"/>
-      <c r="G32" s="140">
+      <c r="G32" s="128">
         <f t="shared" si="6"/>
         <v>16.843750000000014</v>
       </c>
@@ -7272,7 +7642,7 @@
         <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
-      <c r="N32" s="134">
+      <c r="N32" s="122">
         <f t="shared" si="5"/>
         <v>23.093750000000014</v>
       </c>
@@ -10429,6 +10799,484 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" activeCellId="2" sqref="E18 H18 K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.625" style="141"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="19">
+      <c r="A2" s="146"/>
+      <c r="B2" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+    </row>
+    <row r="3" spans="1:14" ht="19">
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+    </row>
+    <row r="4" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="148"/>
+      <c r="B4" s="148">
+        <v>0</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="148" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="148" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="148" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="148"/>
+      <c r="B7" s="148">
+        <v>0</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+    </row>
+    <row r="8" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1"/>
+    <row r="9" spans="1:14" s="142" customFormat="1" ht="38" customHeight="1">
+      <c r="B9" s="145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="142" customFormat="1" ht="39" customHeight="1">
+      <c r="B10" s="142">
+        <v>0</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:14" s="142" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:14" s="142" customFormat="1" ht="39" customHeight="1">
+      <c r="A12" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="142" customFormat="1" ht="39" customHeight="1">
+      <c r="B13" s="142">
+        <v>0</v>
+      </c>
+      <c r="C13" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+    </row>
+    <row r="14" spans="1:14" s="142" customFormat="1" ht="39" customHeight="1">
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+    </row>
+    <row r="15" spans="1:14" ht="39" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="39" customHeight="1">
+      <c r="A16" s="142"/>
+      <c r="B16" s="142">
+        <v>0</v>
+      </c>
+      <c r="C16" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+    </row>
+    <row r="17" spans="1:12" ht="39" customHeight="1">
+      <c r="A17" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="39" customHeight="1">
+      <c r="A18" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39" customHeight="1">
+      <c r="A19" s="142"/>
+      <c r="B19" s="142">
+        <v>0</v>
+      </c>
+      <c r="C19" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="143" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39" customHeight="1"/>
+    <row r="21" spans="1:12" ht="39" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -10445,10 +11293,10 @@
   <sheetData>
     <row r="6" spans="1:4" ht="20" thickBot="1">
       <c r="B6" s="99"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="132"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="93" t="s">
@@ -10741,7 +11589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:V468"/>
   <sheetViews>
@@ -10812,10 +11660,10 @@
       </c>
     </row>
     <row r="7" spans="4:22" ht="40" customHeight="1">
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="133" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="69">
@@ -10866,8 +11714,8 @@
       </c>
     </row>
     <row r="8" spans="4:22" ht="40" customHeight="1">
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="74">
         <v>7.5</v>
       </c>
@@ -10916,8 +11764,8 @@
       </c>
     </row>
     <row r="9" spans="4:22" ht="40" customHeight="1">
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="74">
         <v>8</v>
       </c>
@@ -10955,8 +11803,8 @@
       <c r="V9" s="43"/>
     </row>
     <row r="10" spans="4:22" ht="40" customHeight="1">
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="74">
         <v>8.5</v>
       </c>
@@ -11005,8 +11853,8 @@
       </c>
     </row>
     <row r="11" spans="4:22" ht="40" customHeight="1" thickBot="1">
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="74">
         <v>9</v>
       </c>
@@ -11055,8 +11903,8 @@
       </c>
     </row>
     <row r="12" spans="4:22" ht="40" customHeight="1">
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="74">
         <v>9.5</v>
       </c>
@@ -11090,8 +11938,8 @@
       <c r="Q12" s="59"/>
     </row>
     <row r="13" spans="4:22" ht="40" customHeight="1">
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="74">
         <v>10</v>
       </c>
@@ -11125,8 +11973,8 @@
       <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="4:22" ht="40" customHeight="1">
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="74">
         <v>10.5</v>
       </c>
@@ -11160,8 +12008,8 @@
       <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="4:22" ht="40" customHeight="1">
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="74">
         <v>11</v>
       </c>
@@ -11195,8 +12043,8 @@
       <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="4:22" ht="40" customHeight="1">
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="74">
         <v>11.5</v>
       </c>
@@ -11230,8 +12078,8 @@
       <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="4:20" ht="40" customHeight="1">
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="79">
         <v>12</v>
       </c>
@@ -11264,8 +12112,8 @@
       <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="4:20" ht="40" customHeight="1">
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="74">
         <v>12.5</v>
       </c>
@@ -11299,8 +12147,8 @@
       <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="4:20" ht="40" customHeight="1">
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="74">
         <v>13</v>
       </c>
@@ -11337,8 +12185,8 @@
       <c r="T19" s="22"/>
     </row>
     <row r="20" spans="4:20" ht="40" customHeight="1">
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="74">
         <v>13.5</v>
       </c>
@@ -11375,8 +12223,8 @@
       <c r="T20" s="22"/>
     </row>
     <row r="21" spans="4:20" ht="40" customHeight="1">
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="74">
         <v>14</v>
       </c>
@@ -11412,10 +12260,10 @@
       <c r="T21" s="22"/>
     </row>
     <row r="22" spans="4:20" ht="42" customHeight="1">
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="138" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="88">
@@ -11455,8 +12303,8 @@
       <c r="T22" s="22"/>
     </row>
     <row r="23" spans="4:20" ht="40" customHeight="1">
-      <c r="D23" s="129"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="139"/>
       <c r="F23" s="88">
         <f t="shared" si="5"/>
         <v>16.648899610038097</v>
@@ -11494,8 +12342,8 @@
       <c r="T23" s="22"/>
     </row>
     <row r="24" spans="4:20" ht="40" customHeight="1">
-      <c r="D24" s="129"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="88">
         <f t="shared" si="5"/>
         <v>18.155753765114138</v>
@@ -11533,8 +12381,8 @@
       <c r="T24" s="22"/>
     </row>
     <row r="25" spans="4:20" ht="40" customHeight="1">
-      <c r="D25" s="129"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="139"/>
       <c r="F25" s="88">
         <f t="shared" si="5"/>
         <v>19.798989873223334</v>
@@ -11572,8 +12420,8 @@
       <c r="T25" s="22"/>
     </row>
     <row r="26" spans="4:20" ht="40" customHeight="1">
-      <c r="D26" s="129"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="88">
         <f t="shared" si="5"/>
         <v>21.590951555711175</v>
@@ -11611,8 +12459,8 @@
       <c r="T26" s="22"/>
     </row>
     <row r="27" spans="4:20" ht="40" customHeight="1">
-      <c r="D27" s="129"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="88">
         <f t="shared" si="5"/>
         <v>23.545099627104012</v>
@@ -11650,8 +12498,8 @@
       <c r="T27" s="22"/>
     </row>
     <row r="28" spans="4:20" ht="40" customHeight="1">
-      <c r="D28" s="129"/>
-      <c r="E28" s="132"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="139"/>
       <c r="F28" s="88">
         <f t="shared" si="5"/>
         <v>25.676113209730801</v>
@@ -11686,8 +12534,8 @@
       <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="4:20" ht="40" customHeight="1">
-      <c r="D29" s="129"/>
-      <c r="E29" s="132"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="139"/>
       <c r="F29" s="88">
         <f t="shared" si="5"/>
         <v>28.000000000000007</v>
@@ -11722,8 +12570,8 @@
       <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="4:20" ht="40" customHeight="1">
-      <c r="D30" s="129"/>
-      <c r="E30" s="132"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="139"/>
       <c r="F30" s="88">
         <f t="shared" si="5"/>
         <v>30.534216514627222</v>
@@ -11758,8 +12606,8 @@
       <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="4:20" ht="40" customHeight="1">
-      <c r="D31" s="129"/>
-      <c r="E31" s="132"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="139"/>
       <c r="F31" s="88">
         <f t="shared" si="5"/>
         <v>33.2977992200762</v>
@@ -11794,8 +12642,8 @@
       <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="4:20" ht="40" customHeight="1">
-      <c r="D32" s="129"/>
-      <c r="E32" s="132"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="139"/>
       <c r="F32" s="88">
         <f t="shared" si="5"/>
         <v>36.311507530228283</v>
@@ -11830,8 +12678,8 @@
       <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="4:17" ht="40" customHeight="1">
-      <c r="D33" s="129"/>
-      <c r="E33" s="132"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="139"/>
       <c r="F33" s="88">
         <f t="shared" si="5"/>
         <v>39.597979746446676</v>
@@ -11866,8 +12714,8 @@
       <c r="Q33" s="59"/>
     </row>
     <row r="34" spans="4:17" ht="40" customHeight="1">
-      <c r="D34" s="129"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="88">
         <f t="shared" si="5"/>
         <v>43.181903111422358</v>
@@ -11902,8 +12750,8 @@
       <c r="Q34" s="59"/>
     </row>
     <row r="35" spans="4:17" ht="40" customHeight="1">
-      <c r="D35" s="129"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="139"/>
       <c r="F35" s="88">
         <f t="shared" si="5"/>
         <v>47.090199254208031</v>
@@ -11938,8 +12786,8 @@
       <c r="Q35" s="59"/>
     </row>
     <row r="36" spans="4:17" ht="40" customHeight="1">
-      <c r="D36" s="129"/>
-      <c r="E36" s="132"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="88">
         <f t="shared" si="5"/>
         <v>51.352226419461608</v>
@@ -11974,8 +12822,8 @@
       <c r="Q36" s="59"/>
     </row>
     <row r="37" spans="4:17" ht="40" customHeight="1">
-      <c r="D37" s="130"/>
-      <c r="E37" s="133"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="88">
         <f t="shared" si="5"/>
         <v>56.000000000000021</v>
@@ -12010,8 +12858,8 @@
       <c r="Q37" s="59"/>
     </row>
     <row r="38" spans="4:17" ht="40" customHeight="1">
-      <c r="D38" s="130"/>
-      <c r="E38" s="133"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="140"/>
       <c r="F38" s="88">
         <f t="shared" si="5"/>
         <v>61.068433029254457</v>
@@ -12046,8 +12894,8 @@
       <c r="Q38" s="59"/>
     </row>
     <row r="39" spans="4:17" ht="40" customHeight="1">
-      <c r="D39" s="130"/>
-      <c r="E39" s="133"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="140"/>
       <c r="F39" s="88">
         <f t="shared" si="5"/>
         <v>66.595598440152415</v>
@@ -12082,8 +12930,8 @@
       <c r="Q39" s="59"/>
     </row>
     <row r="40" spans="4:17" ht="40" customHeight="1">
-      <c r="D40" s="130"/>
-      <c r="E40" s="133"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="140"/>
       <c r="F40" s="88">
         <f t="shared" si="5"/>
         <v>72.623015060456581</v>
@@ -12118,8 +12966,8 @@
       <c r="Q40" s="59"/>
     </row>
     <row r="41" spans="4:17" ht="40" customHeight="1">
-      <c r="D41" s="130"/>
-      <c r="E41" s="133"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="140"/>
       <c r="F41" s="88">
         <f t="shared" si="5"/>
         <v>79.195959492893365</v>
@@ -12154,8 +13002,8 @@
       <c r="Q41" s="59"/>
     </row>
     <row r="42" spans="4:17" ht="40" customHeight="1">
-      <c r="D42" s="130"/>
-      <c r="E42" s="133"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="140"/>
       <c r="F42" s="88">
         <f t="shared" si="5"/>
         <v>86.36380622284473</v>
@@ -12190,8 +13038,8 @@
       <c r="Q42" s="59"/>
     </row>
     <row r="43" spans="4:17" ht="40" customHeight="1">
-      <c r="D43" s="130"/>
-      <c r="E43" s="133"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="140"/>
       <c r="F43" s="88">
         <f t="shared" si="5"/>
         <v>94.180398508416076</v>
@@ -12226,8 +13074,8 @@
       <c r="Q43" s="59"/>
     </row>
     <row r="44" spans="4:17" ht="40" customHeight="1">
-      <c r="D44" s="130"/>
-      <c r="E44" s="133"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="140"/>
       <c r="F44" s="88">
         <f t="shared" si="5"/>
         <v>102.70445283892323</v>
@@ -12262,8 +13110,8 @@
       <c r="Q44" s="59"/>
     </row>
     <row r="45" spans="4:17" ht="40" customHeight="1">
-      <c r="D45" s="130"/>
-      <c r="E45" s="133"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="140"/>
       <c r="F45" s="88">
         <f t="shared" si="5"/>
         <v>112.00000000000006</v>
@@ -12298,8 +13146,8 @@
       <c r="Q45" s="59"/>
     </row>
     <row r="46" spans="4:17" ht="40" customHeight="1">
-      <c r="D46" s="130"/>
-      <c r="E46" s="133"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="140"/>
       <c r="F46" s="88">
         <f t="shared" ref="F46:H53" si="7">F45*$T$11</f>
         <v>122.13686605850893</v>
@@ -12334,8 +13182,8 @@
       <c r="Q46" s="59"/>
     </row>
     <row r="47" spans="4:17" ht="40" customHeight="1">
-      <c r="D47" s="130"/>
-      <c r="E47" s="133"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="140"/>
       <c r="F47" s="88">
         <f t="shared" si="7"/>
         <v>133.19119688030483</v>
@@ -12370,8 +13218,8 @@
       <c r="Q47" s="59"/>
     </row>
     <row r="48" spans="4:17" ht="40" customHeight="1">
-      <c r="D48" s="130"/>
-      <c r="E48" s="133"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="88">
         <f t="shared" si="7"/>
         <v>145.24603012091316</v>
@@ -12406,8 +13254,8 @@
       <c r="Q48" s="59"/>
     </row>
     <row r="49" spans="4:17" ht="40" customHeight="1">
-      <c r="D49" s="130"/>
-      <c r="E49" s="133"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="88">
         <f t="shared" si="7"/>
         <v>158.39191898578673</v>
@@ -12442,8 +13290,8 @@
       <c r="Q49" s="59"/>
     </row>
     <row r="50" spans="4:17" ht="40" customHeight="1">
-      <c r="D50" s="130"/>
-      <c r="E50" s="133"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="88">
         <f t="shared" si="7"/>
         <v>172.72761244568946</v>
@@ -12478,8 +13326,8 @@
       <c r="Q50" s="59"/>
     </row>
     <row r="51" spans="4:17" ht="40" customHeight="1">
-      <c r="D51" s="130"/>
-      <c r="E51" s="133"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="88">
         <f t="shared" si="7"/>
         <v>188.36079701683215</v>
@@ -12514,8 +13362,8 @@
       <c r="Q51" s="59"/>
     </row>
     <row r="52" spans="4:17" ht="40" customHeight="1">
-      <c r="D52" s="130"/>
-      <c r="E52" s="133"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="88">
         <f t="shared" si="7"/>
         <v>205.40890567784646</v>
@@ -12550,8 +13398,8 @@
       <c r="Q52" s="59"/>
     </row>
     <row r="53" spans="4:17" ht="40" customHeight="1" thickBot="1">
-      <c r="D53" s="130"/>
-      <c r="E53" s="133"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="89">
         <f t="shared" si="7"/>
         <v>224.00000000000011</v>
